--- a/CASA_PARELLADA_PCA.xlsx
+++ b/CASA_PARELLADA_PCA.xlsx
@@ -508,10 +508,10 @@
         <v>0.164666666666665</v>
       </c>
       <c r="P2" t="n">
+        <v>20.3616666666667</v>
+      </c>
+      <c r="Q2" t="n">
         <v>20.197</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>20.3616666666667</v>
       </c>
       <c r="R2" t="n">
         <v>0.123</v>
@@ -564,10 +564,10 @@
         <v>0.217666666666666</v>
       </c>
       <c r="P3" t="n">
+        <v>20.2353333333333</v>
+      </c>
+      <c r="Q3" t="n">
         <v>20.0176666666667</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>20.2353333333333</v>
       </c>
       <c r="R3" t="n">
         <v>0.09</v>
@@ -620,10 +620,10 @@
         <v>0.232333333333333</v>
       </c>
       <c r="P4" t="n">
+        <v>20.3323333333333</v>
+      </c>
+      <c r="Q4" t="n">
         <v>20.1</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>20.3323333333333</v>
       </c>
       <c r="R4" t="n">
         <v>0.1095</v>
@@ -676,10 +676,10 @@
         <v>0.164666666666665</v>
       </c>
       <c r="P5" t="n">
+        <v>20.2646666666667</v>
+      </c>
+      <c r="Q5" t="n">
         <v>20.1</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>20.2646666666667</v>
       </c>
       <c r="R5" t="n">
         <v>0.129</v>
@@ -732,10 +732,10 @@
         <v>0.135333333333332</v>
       </c>
       <c r="P6" t="n">
+        <v>20.2353333333333</v>
+      </c>
+      <c r="Q6" t="n">
         <v>20.1</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>20.2353333333333</v>
       </c>
       <c r="R6" t="n">
         <v>0.1485</v>
@@ -788,10 +788,10 @@
         <v>0.199999999999999</v>
       </c>
       <c r="P7" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="Q7" t="n">
         <v>20.1</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>20.3</v>
       </c>
       <c r="R7" t="n">
         <v>0.168</v>
@@ -844,10 +844,10 @@
         <v>0.132333333333335</v>
       </c>
       <c r="P8" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="Q8" t="n">
         <v>20.1676666666667</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>20.3</v>
       </c>
       <c r="R8" t="n">
         <v>0.1685</v>
@@ -900,10 +900,10 @@
         <v>0.117666666666668</v>
       </c>
       <c r="P9" t="n">
+        <v>20.3353333333333</v>
+      </c>
+      <c r="Q9" t="n">
         <v>20.2176666666667</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>20.3353333333333</v>
       </c>
       <c r="R9" t="n">
         <v>0.169</v>
@@ -956,10 +956,10 @@
         <v>0.132333333333335</v>
       </c>
       <c r="P10" t="n">
+        <v>20.5676666666667</v>
+      </c>
+      <c r="Q10" t="n">
         <v>20.4353333333333</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>20.5676666666667</v>
       </c>
       <c r="R10" t="n">
         <v>0.1695</v>
@@ -1012,10 +1012,10 @@
         <v>0.117666666666668</v>
       </c>
       <c r="P11" t="n">
+        <v>20.1646666666667</v>
+      </c>
+      <c r="Q11" t="n">
         <v>20.2823333333333</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>20.1646666666667</v>
       </c>
       <c r="R11" t="n">
         <v>0.17</v>
@@ -1068,10 +1068,10 @@
         <v>0.00300000000000011</v>
       </c>
       <c r="P12" t="n">
+        <v>20.0676666666667</v>
+      </c>
+      <c r="Q12" t="n">
         <v>20.0646666666667</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>20.0676666666667</v>
       </c>
       <c r="R12" t="n">
         <v>0.43225</v>
@@ -1124,10 +1124,10 @@
         <v>0.152999999999999</v>
       </c>
       <c r="P13" t="n">
+        <v>20.3353333333333</v>
+      </c>
+      <c r="Q13" t="n">
         <v>20.4883333333333</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>20.3353333333333</v>
       </c>
       <c r="R13" t="n">
         <v>0.6945</v>
@@ -1180,10 +1180,10 @@
         <v>0.332333333333334</v>
       </c>
       <c r="P14" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="Q14" t="n">
         <v>20.8323333333333</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>20.5</v>
       </c>
       <c r="R14" t="n">
         <v>0.95675</v>
@@ -1236,10 +1236,10 @@
         <v>0.0176666666666669</v>
       </c>
       <c r="P15" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="Q15" t="n">
         <v>20.6823333333333</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>20.7</v>
       </c>
       <c r="R15" t="n">
         <v>1.219</v>
@@ -1292,10 +1292,10 @@
         <v>0.167666666666669</v>
       </c>
       <c r="P16" t="n">
+        <v>20.6323333333333</v>
+      </c>
+      <c r="Q16" t="n">
         <v>20.4646666666667</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>20.6323333333333</v>
       </c>
       <c r="R16" t="n">
         <v>0.954</v>
@@ -1348,10 +1348,10 @@
         <v>0.21766666666667</v>
       </c>
       <c r="P17" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="Q17" t="n">
         <v>20.3823333333333</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>20.6</v>
       </c>
       <c r="R17" t="n">
         <v>0.689</v>
@@ -1404,10 +1404,10 @@
         <v>0.300000000000001</v>
       </c>
       <c r="P18" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="Q18" t="n">
         <v>20.3</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>20.6</v>
       </c>
       <c r="R18" t="n">
         <v>0.424</v>
@@ -1460,10 +1460,10 @@
         <v>0.317666666666668</v>
       </c>
       <c r="P19" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="Q19" t="n">
         <v>20.2823333333333</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>20.6</v>
       </c>
       <c r="R19" t="n">
         <v>0.159</v>
@@ -1516,10 +1516,10 @@
         <v>0.399999999999999</v>
       </c>
       <c r="P20" t="n">
+        <v>20.5323333333333</v>
+      </c>
+      <c r="Q20" t="n">
         <v>20.1323333333333</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>20.5323333333333</v>
       </c>
       <c r="R20" t="n">
         <v>0.12725</v>
@@ -1572,10 +1572,10 @@
         <v>0.399999999999999</v>
       </c>
       <c r="P21" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="Q21" t="n">
         <v>20.1</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>20.5</v>
       </c>
       <c r="R21" t="n">
         <v>0.0955</v>
@@ -1628,10 +1628,10 @@
         <v>0.467666666666666</v>
       </c>
       <c r="P22" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="Q22" t="n">
         <v>20.0323333333333</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>20.5</v>
       </c>
       <c r="R22" t="n">
         <v>0.06375</v>
@@ -1684,10 +1684,10 @@
         <v>0.399999999999999</v>
       </c>
       <c r="P23" t="n">
+        <v>20.4823333333333</v>
+      </c>
+      <c r="Q23" t="n">
         <v>20.0823333333333</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>20.4823333333333</v>
       </c>
       <c r="R23" t="n">
         <v>0.032</v>
@@ -1740,10 +1740,10 @@
         <v>0.399999999999999</v>
       </c>
       <c r="P24" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="Q24" t="n">
         <v>20</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>20.4</v>
       </c>
       <c r="R24" t="n">
         <v>0.04825</v>
@@ -1796,10 +1796,10 @@
         <v>0.399999999999999</v>
       </c>
       <c r="P25" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="Q25" t="n">
         <v>20</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>20.4</v>
       </c>
       <c r="R25" t="n">
         <v>0.0645</v>
@@ -1852,10 +1852,10 @@
         <v>0.399999999999999</v>
       </c>
       <c r="P26" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="Q26" t="n">
         <v>20</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>20.4</v>
       </c>
       <c r="R26" t="n">
         <v>0.08075</v>
@@ -1908,10 +1908,10 @@
         <v>0.399999999999999</v>
       </c>
       <c r="P27" t="n">
+        <v>20.3823333333333</v>
+      </c>
+      <c r="Q27" t="n">
         <v>19.9823333333333</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>20.3823333333333</v>
       </c>
       <c r="R27" t="n">
         <v>0.097</v>
@@ -1964,10 +1964,10 @@
         <v>0.400000000000002</v>
       </c>
       <c r="P28" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="Q28" t="n">
         <v>19.9</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>20.3</v>
       </c>
       <c r="R28" t="n">
         <v>0.08175</v>
@@ -2020,10 +2020,10 @@
         <v>0.482333333333333</v>
       </c>
       <c r="P29" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="Q29" t="n">
         <v>19.8176666666667</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>20.3</v>
       </c>
       <c r="R29" t="n">
         <v>0.0665</v>
@@ -2076,10 +2076,10 @@
         <v>0.467666666666666</v>
       </c>
       <c r="P30" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="Q30" t="n">
         <v>19.8323333333333</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>20.3</v>
       </c>
       <c r="R30" t="n">
         <v>0.05125</v>
@@ -2132,10 +2132,10 @@
         <v>0.417666666666669</v>
       </c>
       <c r="P31" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="Q31" t="n">
         <v>19.8823333333333</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>20.3</v>
       </c>
       <c r="R31" t="n">
         <v>0.036</v>
@@ -2188,10 +2188,10 @@
         <v>0.5</v>
       </c>
       <c r="P32" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="Q32" t="n">
         <v>19.8</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>20.3</v>
       </c>
       <c r="R32" t="n">
         <v>0.035</v>
@@ -2244,10 +2244,10 @@
         <v>0.5</v>
       </c>
       <c r="P33" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="Q33" t="n">
         <v>19.8</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>20.3</v>
       </c>
       <c r="R33" t="n">
         <v>0.034</v>
@@ -2300,10 +2300,10 @@
         <v>0.5</v>
       </c>
       <c r="P34" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="Q34" t="n">
         <v>19.8</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>20.3</v>
       </c>
       <c r="R34" t="n">
         <v>0.033</v>
@@ -2356,10 +2356,10 @@
         <v>0.5</v>
       </c>
       <c r="P35" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="Q35" t="n">
         <v>19.7</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>20.2</v>
       </c>
       <c r="R35" t="n">
         <v>0.032</v>
@@ -2412,10 +2412,10 @@
         <v>0.5</v>
       </c>
       <c r="P36" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="Q36" t="n">
         <v>19.7</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>20.2</v>
       </c>
       <c r="R36" t="n">
         <v>0.02875</v>
@@ -2468,10 +2468,10 @@
         <v>0.5</v>
       </c>
       <c r="P37" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="Q37" t="n">
         <v>19.7</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>20.2</v>
       </c>
       <c r="R37" t="n">
         <v>0.0255</v>
@@ -2524,10 +2524,10 @@
         <v>0.5</v>
       </c>
       <c r="P38" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="Q38" t="n">
         <v>19.7</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>20.2</v>
       </c>
       <c r="R38" t="n">
         <v>0.02225</v>
@@ -2580,10 +2580,10 @@
         <v>0.599999999999998</v>
       </c>
       <c r="P39" t="n">
+        <v>20.1823333333333</v>
+      </c>
+      <c r="Q39" t="n">
         <v>19.5823333333333</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>20.1823333333333</v>
       </c>
       <c r="R39" t="n">
         <v>0.019</v>
@@ -2636,10 +2636,10 @@
         <v>0.600000000000001</v>
       </c>
       <c r="P40" t="n">
+        <v>20.1</v>
+      </c>
+      <c r="Q40" t="n">
         <v>19.5</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>20.1</v>
       </c>
       <c r="R40" t="n">
         <v>0.02</v>
@@ -2692,10 +2692,10 @@
         <v>0.600000000000001</v>
       </c>
       <c r="P41" t="n">
+        <v>20.0823333333333</v>
+      </c>
+      <c r="Q41" t="n">
         <v>19.4823333333333</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>20.0823333333333</v>
       </c>
       <c r="R41" t="n">
         <v>0.021</v>
@@ -2748,10 +2748,10 @@
         <v>0.667666666666666</v>
       </c>
       <c r="P42" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q42" t="n">
         <v>19.3323333333333</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>20</v>
       </c>
       <c r="R42" t="n">
         <v>0.022</v>
@@ -2804,10 +2804,10 @@
         <v>0.699999999999999</v>
       </c>
       <c r="P43" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q43" t="n">
         <v>19.3</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>20</v>
       </c>
       <c r="R43" t="n">
         <v>0.023</v>
@@ -2860,10 +2860,10 @@
         <v>0.699999999999999</v>
       </c>
       <c r="P44" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q44" t="n">
         <v>19.3</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>20</v>
       </c>
       <c r="R44" t="n">
         <v>0.0245</v>
@@ -2916,10 +2916,10 @@
         <v>0.699999999999999</v>
       </c>
       <c r="P45" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="Q45" t="n">
         <v>19.2</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>19.9</v>
       </c>
       <c r="R45" t="n">
         <v>0.026</v>
@@ -2972,10 +2972,10 @@
         <v>0.767666666666663</v>
       </c>
       <c r="P46" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="Q46" t="n">
         <v>19.1323333333333</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>19.9</v>
       </c>
       <c r="R46" t="n">
         <v>0.0275</v>
@@ -3028,10 +3028,10 @@
         <v>0.699999999999999</v>
       </c>
       <c r="P47" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="Q47" t="n">
         <v>19.2</v>
-      </c>
-      <c r="Q47" t="n">
-        <v>19.9</v>
       </c>
       <c r="R47" t="n">
         <v>0.029</v>
@@ -3084,10 +3084,10 @@
         <v>0.767666666666667</v>
       </c>
       <c r="P48" t="n">
+        <v>19.8323333333333</v>
+      </c>
+      <c r="Q48" t="n">
         <v>19.0646666666667</v>
-      </c>
-      <c r="Q48" t="n">
-        <v>19.8323333333333</v>
       </c>
       <c r="R48" t="n">
         <v>0.02325</v>
@@ -3140,10 +3140,10 @@
         <v>0.800000000000001</v>
       </c>
       <c r="P49" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="Q49" t="n">
         <v>19</v>
-      </c>
-      <c r="Q49" t="n">
-        <v>19.8</v>
       </c>
       <c r="R49" t="n">
         <v>0.0175</v>
@@ -3196,10 +3196,10 @@
         <v>0.800000000000001</v>
       </c>
       <c r="P50" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="Q50" t="n">
         <v>19</v>
-      </c>
-      <c r="Q50" t="n">
-        <v>19.8</v>
       </c>
       <c r="R50" t="n">
         <v>0.01175</v>
@@ -3252,10 +3252,10 @@
         <v>0.800000000000001</v>
       </c>
       <c r="P51" t="n">
+        <v>19.7823333333333</v>
+      </c>
+      <c r="Q51" t="n">
         <v>18.9823333333333</v>
-      </c>
-      <c r="Q51" t="n">
-        <v>19.7823333333333</v>
       </c>
       <c r="R51" t="n">
         <v>0.006</v>
@@ -3308,10 +3308,10 @@
         <v>0.732333333333333</v>
       </c>
       <c r="P52" t="n">
+        <v>19.7</v>
+      </c>
+      <c r="Q52" t="n">
         <v>18.9676666666667</v>
-      </c>
-      <c r="Q52" t="n">
-        <v>19.7</v>
       </c>
       <c r="R52" t="n">
         <v>0.355</v>
@@ -3364,10 +3364,10 @@
         <v>0.682333333333332</v>
       </c>
       <c r="P53" t="n">
+        <v>19.7</v>
+      </c>
+      <c r="Q53" t="n">
         <v>19.0176666666667</v>
-      </c>
-      <c r="Q53" t="n">
-        <v>19.7</v>
       </c>
       <c r="R53" t="n">
         <v>0.704</v>
@@ -3420,10 +3420,10 @@
         <v>0.329333333333331</v>
       </c>
       <c r="P54" t="n">
+        <v>19.8353333333333</v>
+      </c>
+      <c r="Q54" t="n">
         <v>19.506</v>
-      </c>
-      <c r="Q54" t="n">
-        <v>19.8353333333333</v>
       </c>
       <c r="R54" t="n">
         <v>1.053</v>
@@ -3476,10 +3476,10 @@
         <v>0.352999999999998</v>
       </c>
       <c r="P55" t="n">
+        <v>19.8763333333333</v>
+      </c>
+      <c r="Q55" t="n">
         <v>20.2293333333333</v>
-      </c>
-      <c r="Q55" t="n">
-        <v>19.8763333333333</v>
       </c>
       <c r="R55" t="n">
         <v>1.402</v>
@@ -3532,10 +3532,10 @@
         <v>0.735333333333333</v>
       </c>
       <c r="P56" t="n">
+        <v>19.2323333333333</v>
+      </c>
+      <c r="Q56" t="n">
         <v>19.9676666666667</v>
-      </c>
-      <c r="Q56" t="n">
-        <v>19.2323333333333</v>
       </c>
       <c r="R56" t="n">
         <v>1.29075</v>
@@ -3588,10 +3588,10 @@
         <v>0.735333333333333</v>
       </c>
       <c r="P57" t="n">
+        <v>19.753</v>
+      </c>
+      <c r="Q57" t="n">
         <v>20.4883333333333</v>
-      </c>
-      <c r="Q57" t="n">
-        <v>19.753</v>
       </c>
       <c r="R57" t="n">
         <v>1.1795</v>
@@ -3644,10 +3644,10 @@
         <v>0.629333333333335</v>
       </c>
       <c r="P58" t="n">
+        <v>20.1353333333333</v>
+      </c>
+      <c r="Q58" t="n">
         <v>20.7646666666667</v>
-      </c>
-      <c r="Q58" t="n">
-        <v>20.1353333333333</v>
       </c>
       <c r="R58" t="n">
         <v>1.06825</v>
@@ -3700,10 +3700,10 @@
         <v>0.164666666666665</v>
       </c>
       <c r="P59" t="n">
+        <v>20.2176666666667</v>
+      </c>
+      <c r="Q59" t="n">
         <v>20.3823333333333</v>
-      </c>
-      <c r="Q59" t="n">
-        <v>20.2176666666667</v>
       </c>
       <c r="R59" t="n">
         <v>0.957</v>
@@ -3756,10 +3756,10 @@
         <v>0.0676666666666641</v>
       </c>
       <c r="P60" t="n">
+        <v>20.3676666666667</v>
+      </c>
+      <c r="Q60" t="n">
         <v>20.3</v>
-      </c>
-      <c r="Q60" t="n">
-        <v>20.3676666666667</v>
       </c>
       <c r="R60" t="n">
         <v>0.7435</v>
@@ -3812,10 +3812,10 @@
         <v>0.199999999999999</v>
       </c>
       <c r="P61" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="Q61" t="n">
         <v>20.2</v>
-      </c>
-      <c r="Q61" t="n">
-        <v>20.4</v>
       </c>
       <c r="R61" t="n">
         <v>0.53</v>
@@ -3868,10 +3868,10 @@
         <v>0.199999999999999</v>
       </c>
       <c r="P62" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="Q62" t="n">
         <v>20.2</v>
-      </c>
-      <c r="Q62" t="n">
-        <v>20.4</v>
       </c>
       <c r="R62" t="n">
         <v>0.3165</v>
@@ -3924,10 +3924,10 @@
         <v>0.299999999999997</v>
       </c>
       <c r="P63" t="n">
+        <v>20.4176666666667</v>
+      </c>
+      <c r="Q63" t="n">
         <v>20.1176666666667</v>
-      </c>
-      <c r="Q63" t="n">
-        <v>20.4176666666667</v>
       </c>
       <c r="R63" t="n">
         <v>0.103</v>
@@ -3980,10 +3980,10 @@
         <v>0.435333333333332</v>
       </c>
       <c r="P64" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="Q64" t="n">
         <v>20.0646666666667</v>
-      </c>
-      <c r="Q64" t="n">
-        <v>20.5</v>
       </c>
       <c r="R64" t="n">
         <v>0.10975</v>
@@ -4036,10 +4036,10 @@
         <v>0.5</v>
       </c>
       <c r="P65" t="n">
+        <v>20.5176666666667</v>
+      </c>
+      <c r="Q65" t="n">
         <v>20.0176666666667</v>
-      </c>
-      <c r="Q65" t="n">
-        <v>20.5176666666667</v>
       </c>
       <c r="R65" t="n">
         <v>0.1165</v>
@@ -4092,10 +4092,10 @@
         <v>0.5</v>
       </c>
       <c r="P66" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="Q66" t="n">
         <v>20.1</v>
-      </c>
-      <c r="Q66" t="n">
-        <v>20.6</v>
       </c>
       <c r="R66" t="n">
         <v>0.12325</v>
@@ -4148,10 +4148,10 @@
         <v>0.5</v>
       </c>
       <c r="P67" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="Q67" t="n">
         <v>20.1</v>
-      </c>
-      <c r="Q67" t="n">
-        <v>20.6</v>
       </c>
       <c r="R67" t="n">
         <v>0.13</v>
@@ -4204,10 +4204,10 @@
         <v>0.5</v>
       </c>
       <c r="P68" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="Q68" t="n">
         <v>20.1</v>
-      </c>
-      <c r="Q68" t="n">
-        <v>20.6</v>
       </c>
       <c r="R68" t="n">
         <v>0.11075</v>
@@ -4260,10 +4260,10 @@
         <v>0.5</v>
       </c>
       <c r="P69" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="Q69" t="n">
         <v>20.1</v>
-      </c>
-      <c r="Q69" t="n">
-        <v>20.6</v>
       </c>
       <c r="R69" t="n">
         <v>0.0915</v>
@@ -4316,10 +4316,10 @@
         <v>0.5</v>
       </c>
       <c r="P70" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="Q70" t="n">
         <v>20.1</v>
-      </c>
-      <c r="Q70" t="n">
-        <v>20.6</v>
       </c>
       <c r="R70" t="n">
         <v>0.07225</v>
@@ -4372,10 +4372,10 @@
         <v>0.482333333333333</v>
       </c>
       <c r="P71" t="n">
+        <v>20.7823333333333</v>
+      </c>
+      <c r="Q71" t="n">
         <v>20.3</v>
-      </c>
-      <c r="Q71" t="n">
-        <v>20.7823333333333</v>
       </c>
       <c r="R71" t="n">
         <v>0.053</v>
@@ -4428,10 +4428,10 @@
         <v>0.399999999999999</v>
       </c>
       <c r="P72" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="Q72" t="n">
         <v>20.3</v>
-      </c>
-      <c r="Q72" t="n">
-        <v>20.7</v>
       </c>
       <c r="R72" t="n">
         <v>0.05725</v>
@@ -4484,10 +4484,10 @@
         <v>0.417666666666666</v>
       </c>
       <c r="P73" t="n">
+        <v>20.7176666666667</v>
+      </c>
+      <c r="Q73" t="n">
         <v>20.3</v>
-      </c>
-      <c r="Q73" t="n">
-        <v>20.7176666666667</v>
       </c>
       <c r="R73" t="n">
         <v>0.0615</v>
@@ -4540,10 +4540,10 @@
         <v>0.5</v>
       </c>
       <c r="P74" t="n">
+        <v>20.7323333333333</v>
+      </c>
+      <c r="Q74" t="n">
         <v>20.2323333333333</v>
-      </c>
-      <c r="Q74" t="n">
-        <v>20.7323333333333</v>
       </c>
       <c r="R74" t="n">
         <v>0.06575</v>
@@ -4596,10 +4596,10 @@
         <v>0.399999999999999</v>
       </c>
       <c r="P75" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="Q75" t="n">
         <v>20.3</v>
-      </c>
-      <c r="Q75" t="n">
-        <v>20.7</v>
       </c>
       <c r="R75" t="n">
         <v>0.07</v>
@@ -4652,10 +4652,10 @@
         <v>0.467666666666666</v>
       </c>
       <c r="P76" t="n">
+        <v>20.7676666666667</v>
+      </c>
+      <c r="Q76" t="n">
         <v>20.3</v>
-      </c>
-      <c r="Q76" t="n">
-        <v>20.7676666666667</v>
       </c>
       <c r="R76" t="n">
         <v>0.0685</v>
@@ -4708,10 +4708,10 @@
         <v>0.417666666666666</v>
       </c>
       <c r="P77" t="n">
+        <v>20.7176666666667</v>
+      </c>
+      <c r="Q77" t="n">
         <v>20.3</v>
-      </c>
-      <c r="Q77" t="n">
-        <v>20.7176666666667</v>
       </c>
       <c r="R77" t="n">
         <v>0.067</v>
@@ -4764,10 +4764,10 @@
         <v>0.432333333333332</v>
       </c>
       <c r="P78" t="n">
+        <v>20.7323333333333</v>
+      </c>
+      <c r="Q78" t="n">
         <v>20.3</v>
-      </c>
-      <c r="Q78" t="n">
-        <v>20.7323333333333</v>
       </c>
       <c r="R78" t="n">
         <v>0.0655</v>
@@ -4820,10 +4820,10 @@
         <v>0.399999999999999</v>
       </c>
       <c r="P79" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="Q79" t="n">
         <v>20.3</v>
-      </c>
-      <c r="Q79" t="n">
-        <v>20.7</v>
       </c>
       <c r="R79" t="n">
         <v>0.064</v>
@@ -4876,10 +4876,10 @@
         <v>0.399999999999999</v>
       </c>
       <c r="P80" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="Q80" t="n">
         <v>20.3</v>
-      </c>
-      <c r="Q80" t="n">
-        <v>20.7</v>
       </c>
       <c r="R80" t="n">
         <v>0.07825</v>
@@ -4932,10 +4932,10 @@
         <v>0.5</v>
       </c>
       <c r="P81" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="Q81" t="n">
         <v>20.2</v>
-      </c>
-      <c r="Q81" t="n">
-        <v>20.7</v>
       </c>
       <c r="R81" t="n">
         <v>0.0925</v>
@@ -4988,10 +4988,10 @@
         <v>0.567666666666664</v>
       </c>
       <c r="P82" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="Q82" t="n">
         <v>20.1323333333333</v>
-      </c>
-      <c r="Q82" t="n">
-        <v>20.7</v>
       </c>
       <c r="R82" t="n">
         <v>0.10675</v>
@@ -5044,10 +5044,10 @@
         <v>0.599999999999998</v>
       </c>
       <c r="P83" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="Q83" t="n">
         <v>20.1</v>
-      </c>
-      <c r="Q83" t="n">
-        <v>20.7</v>
       </c>
       <c r="R83" t="n">
         <v>0.121</v>
@@ -5100,10 +5100,10 @@
         <v>0.599999999999998</v>
       </c>
       <c r="P84" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="Q84" t="n">
         <v>20.1</v>
-      </c>
-      <c r="Q84" t="n">
-        <v>20.7</v>
       </c>
       <c r="R84" t="n">
         <v>0.1325</v>
@@ -5156,10 +5156,10 @@
         <v>0.617666666666668</v>
       </c>
       <c r="P85" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="Q85" t="n">
         <v>19.9823333333333</v>
-      </c>
-      <c r="Q85" t="n">
-        <v>20.6</v>
       </c>
       <c r="R85" t="n">
         <v>0.144</v>
@@ -5212,10 +5212,10 @@
         <v>0.700000000000003</v>
       </c>
       <c r="P86" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="Q86" t="n">
         <v>19.9</v>
-      </c>
-      <c r="Q86" t="n">
-        <v>20.6</v>
       </c>
       <c r="R86" t="n">
         <v>0.1555</v>
@@ -5268,10 +5268,10 @@
         <v>0.700000000000003</v>
       </c>
       <c r="P87" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="Q87" t="n">
         <v>19.9</v>
-      </c>
-      <c r="Q87" t="n">
-        <v>20.6</v>
       </c>
       <c r="R87" t="n">
         <v>0.167</v>
@@ -5324,10 +5324,10 @@
         <v>0.699999999999999</v>
       </c>
       <c r="P88" t="n">
+        <v>20.5323333333333</v>
+      </c>
+      <c r="Q88" t="n">
         <v>19.8323333333333</v>
-      </c>
-      <c r="Q88" t="n">
-        <v>20.5323333333333</v>
       </c>
       <c r="R88" t="n">
         <v>0.24075</v>
@@ -5380,10 +5380,10 @@
         <v>0.699999999999999</v>
       </c>
       <c r="P89" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="Q89" t="n">
         <v>19.8</v>
-      </c>
-      <c r="Q89" t="n">
-        <v>20.5</v>
       </c>
       <c r="R89" t="n">
         <v>0.3145</v>
@@ -5436,10 +5436,10 @@
         <v>0.632333333333335</v>
       </c>
       <c r="P90" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="Q90" t="n">
         <v>19.8676666666667</v>
-      </c>
-      <c r="Q90" t="n">
-        <v>20.5</v>
       </c>
       <c r="R90" t="n">
         <v>0.38825</v>
@@ -5492,10 +5492,10 @@
         <v>0.517666666666667</v>
       </c>
       <c r="P91" t="n">
+        <v>20.5176666666667</v>
+      </c>
+      <c r="Q91" t="n">
         <v>20</v>
-      </c>
-      <c r="Q91" t="n">
-        <v>20.5176666666667</v>
       </c>
       <c r="R91" t="n">
         <v>0.462</v>
@@ -5548,10 +5548,10 @@
         <v>0.532333333333334</v>
       </c>
       <c r="P92" t="n">
+        <v>20.5323333333333</v>
+      </c>
+      <c r="Q92" t="n">
         <v>20</v>
-      </c>
-      <c r="Q92" t="n">
-        <v>20.5323333333333</v>
       </c>
       <c r="R92" t="n">
         <v>0.4315</v>
@@ -5604,10 +5604,10 @@
         <v>0.517666666666667</v>
       </c>
       <c r="P93" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="Q93" t="n">
         <v>19.9823333333333</v>
-      </c>
-      <c r="Q93" t="n">
-        <v>20.5</v>
       </c>
       <c r="R93" t="n">
         <v>0.401</v>
@@ -5660,10 +5660,10 @@
         <v>0.600000000000001</v>
       </c>
       <c r="P94" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="Q94" t="n">
         <v>19.9</v>
-      </c>
-      <c r="Q94" t="n">
-        <v>20.5</v>
       </c>
       <c r="R94" t="n">
         <v>0.3705</v>
@@ -5716,10 +5716,10 @@
         <v>0.599999999999998</v>
       </c>
       <c r="P95" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="Q95" t="n">
         <v>19.8</v>
-      </c>
-      <c r="Q95" t="n">
-        <v>20.4</v>
       </c>
       <c r="R95" t="n">
         <v>0.34</v>
@@ -5772,10 +5772,10 @@
         <v>0.599999999999998</v>
       </c>
       <c r="P96" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="Q96" t="n">
         <v>19.8</v>
-      </c>
-      <c r="Q96" t="n">
-        <v>20.4</v>
       </c>
       <c r="R96" t="n">
         <v>0.26975</v>
@@ -5828,10 +5828,10 @@
         <v>0.599999999999998</v>
       </c>
       <c r="P97" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="Q97" t="n">
         <v>19.8</v>
-      </c>
-      <c r="Q97" t="n">
-        <v>20.4</v>
       </c>
       <c r="R97" t="n">
         <v>0.1995</v>
@@ -5884,10 +5884,10 @@
         <v>0.599999999999998</v>
       </c>
       <c r="P98" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="Q98" t="n">
         <v>19.8</v>
-      </c>
-      <c r="Q98" t="n">
-        <v>20.4</v>
       </c>
       <c r="R98" t="n">
         <v>0.12925</v>
@@ -5940,10 +5940,10 @@
         <v>0.599999999999998</v>
       </c>
       <c r="P99" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="Q99" t="n">
         <v>19.8</v>
-      </c>
-      <c r="Q99" t="n">
-        <v>20.4</v>
       </c>
       <c r="R99" t="n">
         <v>0.059</v>
@@ -5996,10 +5996,10 @@
         <v>0.600000000000001</v>
       </c>
       <c r="P100" t="n">
+        <v>20.3323333333333</v>
+      </c>
+      <c r="Q100" t="n">
         <v>19.7323333333333</v>
-      </c>
-      <c r="Q100" t="n">
-        <v>20.3323333333333</v>
       </c>
       <c r="R100" t="n">
         <v>0.0675</v>
@@ -6052,10 +6052,10 @@
         <v>0.5</v>
       </c>
       <c r="P101" t="n">
+        <v>20.2176666666667</v>
+      </c>
+      <c r="Q101" t="n">
         <v>19.7176666666667</v>
-      </c>
-      <c r="Q101" t="n">
-        <v>20.2176666666667</v>
       </c>
       <c r="R101" t="n">
         <v>0.076</v>
@@ -6108,10 +6108,10 @@
         <v>0.5</v>
       </c>
       <c r="P102" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="Q102" t="n">
         <v>19.8</v>
-      </c>
-      <c r="Q102" t="n">
-        <v>20.3</v>
       </c>
       <c r="R102" t="n">
         <v>0.0845</v>
@@ -6164,10 +6164,10 @@
         <v>0.400000000000002</v>
       </c>
       <c r="P103" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="Q103" t="n">
         <v>19.9</v>
-      </c>
-      <c r="Q103" t="n">
-        <v>20.3</v>
       </c>
       <c r="R103" t="n">
         <v>0.093</v>
@@ -6220,10 +6220,10 @@
         <v>0.332333333333334</v>
       </c>
       <c r="P104" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="Q104" t="n">
         <v>19.9676666666667</v>
-      </c>
-      <c r="Q104" t="n">
-        <v>20.3</v>
       </c>
       <c r="R104" t="n">
         <v>0.2655</v>
@@ -6276,10 +6276,10 @@
         <v>0.382333333333335</v>
       </c>
       <c r="P105" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="Q105" t="n">
         <v>19.9176666666667</v>
-      </c>
-      <c r="Q105" t="n">
-        <v>20.3</v>
       </c>
       <c r="R105" t="n">
         <v>0.438</v>
@@ -6332,10 +6332,10 @@
         <v>0.367666666666668</v>
       </c>
       <c r="P106" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="Q106" t="n">
         <v>19.9323333333333</v>
-      </c>
-      <c r="Q106" t="n">
-        <v>20.3</v>
       </c>
       <c r="R106" t="n">
         <v>0.6105</v>
@@ -6388,10 +6388,10 @@
         <v>0.417666666666669</v>
       </c>
       <c r="P107" t="n">
+        <v>20.3176666666667</v>
+      </c>
+      <c r="Q107" t="n">
         <v>19.9</v>
-      </c>
-      <c r="Q107" t="n">
-        <v>20.3176666666667</v>
       </c>
       <c r="R107" t="n">
         <v>0.783</v>
@@ -6444,10 +6444,10 @@
         <v>0.364666666666665</v>
       </c>
       <c r="P108" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="Q108" t="n">
         <v>20.0353333333333</v>
-      </c>
-      <c r="Q108" t="n">
-        <v>20.4</v>
       </c>
       <c r="R108" t="n">
         <v>0.967</v>
@@ -6500,10 +6500,10 @@
         <v>0.399999999999999</v>
       </c>
       <c r="P109" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="Q109" t="n">
         <v>20</v>
-      </c>
-      <c r="Q109" t="n">
-        <v>20.4</v>
       </c>
       <c r="R109" t="n">
         <v>1.151</v>
@@ -6556,10 +6556,10 @@
         <v>0.467666666666666</v>
       </c>
       <c r="P110" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="Q110" t="n">
         <v>19.9323333333333</v>
-      </c>
-      <c r="Q110" t="n">
-        <v>20.4</v>
       </c>
       <c r="R110" t="n">
         <v>1.335</v>
@@ -6612,10 +6612,10 @@
         <v>0.617666666666665</v>
       </c>
       <c r="P111" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="Q111" t="n">
         <v>19.7823333333333</v>
-      </c>
-      <c r="Q111" t="n">
-        <v>20.4</v>
       </c>
       <c r="R111" t="n">
         <v>1.519</v>
@@ -6668,10 +6668,10 @@
         <v>0.699999999999999</v>
       </c>
       <c r="P112" t="n">
+        <v>20.3323333333333</v>
+      </c>
+      <c r="Q112" t="n">
         <v>19.6323333333333</v>
-      </c>
-      <c r="Q112" t="n">
-        <v>20.3323333333333</v>
       </c>
       <c r="R112" t="n">
         <v>1.167</v>
@@ -6724,10 +6724,10 @@
         <v>0.699999999999999</v>
       </c>
       <c r="P113" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="Q113" t="n">
         <v>19.6</v>
-      </c>
-      <c r="Q113" t="n">
-        <v>20.3</v>
       </c>
       <c r="R113" t="n">
         <v>0.815</v>
@@ -6780,10 +6780,10 @@
         <v>0.767666666666667</v>
       </c>
       <c r="P114" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="Q114" t="n">
         <v>19.5323333333333</v>
-      </c>
-      <c r="Q114" t="n">
-        <v>20.3</v>
       </c>
       <c r="R114" t="n">
         <v>0.463</v>
@@ -6836,10 +6836,10 @@
         <v>0.800000000000001</v>
       </c>
       <c r="P115" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="Q115" t="n">
         <v>19.4</v>
-      </c>
-      <c r="Q115" t="n">
-        <v>20.2</v>
       </c>
       <c r="R115" t="n">
         <v>0.111</v>
@@ -6892,10 +6892,10 @@
         <v>0.800000000000001</v>
       </c>
       <c r="P116" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="Q116" t="n">
         <v>19.4</v>
-      </c>
-      <c r="Q116" t="n">
-        <v>20.2</v>
       </c>
       <c r="R116" t="n">
         <v>0.1045</v>
@@ -6948,10 +6948,10 @@
         <v>0.899999999999999</v>
       </c>
       <c r="P117" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="Q117" t="n">
         <v>19.3</v>
-      </c>
-      <c r="Q117" t="n">
-        <v>20.2</v>
       </c>
       <c r="R117" t="n">
         <v>0.098</v>
@@ -7004,10 +7004,10 @@
         <v>0.900000000000002</v>
       </c>
       <c r="P118" t="n">
+        <v>20.1323333333333</v>
+      </c>
+      <c r="Q118" t="n">
         <v>19.2323333333333</v>
-      </c>
-      <c r="Q118" t="n">
-        <v>20.1323333333333</v>
       </c>
       <c r="R118" t="n">
         <v>0.0915</v>
@@ -7060,10 +7060,10 @@
         <v>0.917666666666669</v>
       </c>
       <c r="P119" t="n">
+        <v>20.1</v>
+      </c>
+      <c r="Q119" t="n">
         <v>19.1823333333333</v>
-      </c>
-      <c r="Q119" t="n">
-        <v>20.1</v>
       </c>
       <c r="R119" t="n">
         <v>0.085</v>
@@ -7116,10 +7116,10 @@
         <v>1</v>
       </c>
       <c r="P120" t="n">
+        <v>20.0323333333333</v>
+      </c>
+      <c r="Q120" t="n">
         <v>19.0323333333333</v>
-      </c>
-      <c r="Q120" t="n">
-        <v>20.0323333333333</v>
       </c>
       <c r="R120" t="n">
         <v>0.0805</v>
@@ -7172,10 +7172,10 @@
         <v>1</v>
       </c>
       <c r="P121" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q121" t="n">
         <v>19</v>
-      </c>
-      <c r="Q121" t="n">
-        <v>20</v>
       </c>
       <c r="R121" t="n">
         <v>0.076</v>
@@ -7228,10 +7228,10 @@
         <v>1</v>
       </c>
       <c r="P122" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q122" t="n">
         <v>19</v>
-      </c>
-      <c r="Q122" t="n">
-        <v>20</v>
       </c>
       <c r="R122" t="n">
         <v>0.0715</v>
@@ -7284,10 +7284,10 @@
         <v>1</v>
       </c>
       <c r="P123" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="Q123" t="n">
         <v>18.9</v>
-      </c>
-      <c r="Q123" t="n">
-        <v>19.9</v>
       </c>
       <c r="R123" t="n">
         <v>0.067</v>
@@ -7340,10 +7340,10 @@
         <v>1</v>
       </c>
       <c r="P124" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="Q124" t="n">
         <v>18.9</v>
-      </c>
-      <c r="Q124" t="n">
-        <v>19.9</v>
       </c>
       <c r="R124" t="n">
         <v>0.0555</v>
@@ -7396,10 +7396,10 @@
         <v>1</v>
       </c>
       <c r="P125" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="Q125" t="n">
         <v>18.8</v>
-      </c>
-      <c r="Q125" t="n">
-        <v>19.8</v>
       </c>
       <c r="R125" t="n">
         <v>0.044</v>
@@ -7452,10 +7452,10 @@
         <v>1.06766666666666</v>
       </c>
       <c r="P126" t="n">
+        <v>19.8676666666667</v>
+      </c>
+      <c r="Q126" t="n">
         <v>18.8</v>
-      </c>
-      <c r="Q126" t="n">
-        <v>19.8676666666667</v>
       </c>
       <c r="R126" t="n">
         <v>0.0325</v>
@@ -7508,10 +7508,10 @@
         <v>1</v>
       </c>
       <c r="P127" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="Q127" t="n">
         <v>18.8</v>
-      </c>
-      <c r="Q127" t="n">
-        <v>19.8</v>
       </c>
       <c r="R127" t="n">
         <v>0.021</v>
@@ -7564,10 +7564,10 @@
         <v>1.06766666666667</v>
       </c>
       <c r="P128" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="Q128" t="n">
         <v>18.7323333333333</v>
-      </c>
-      <c r="Q128" t="n">
-        <v>19.8</v>
       </c>
       <c r="R128" t="n">
         <v>0.02375</v>
@@ -7620,10 +7620,10 @@
         <v>1</v>
       </c>
       <c r="P129" t="n">
+        <v>19.7823333333333</v>
+      </c>
+      <c r="Q129" t="n">
         <v>18.7823333333333</v>
-      </c>
-      <c r="Q129" t="n">
-        <v>19.7823333333333</v>
       </c>
       <c r="R129" t="n">
         <v>0.0265</v>
@@ -7676,10 +7676,10 @@
         <v>1</v>
       </c>
       <c r="P130" t="n">
+        <v>19.7</v>
+      </c>
+      <c r="Q130" t="n">
         <v>18.7</v>
-      </c>
-      <c r="Q130" t="n">
-        <v>19.7</v>
       </c>
       <c r="R130" t="n">
         <v>0.02925</v>
@@ -7732,10 +7732,10 @@
         <v>0.982333333333333</v>
       </c>
       <c r="P131" t="n">
+        <v>19.6823333333333</v>
+      </c>
+      <c r="Q131" t="n">
         <v>18.7</v>
-      </c>
-      <c r="Q131" t="n">
-        <v>19.6823333333333</v>
       </c>
       <c r="R131" t="n">
         <v>0.032</v>
@@ -7788,10 +7788,10 @@
         <v>0.900000000000002</v>
       </c>
       <c r="P132" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="Q132" t="n">
         <v>18.7</v>
-      </c>
-      <c r="Q132" t="n">
-        <v>19.6</v>
       </c>
       <c r="R132" t="n">
         <v>0.02725</v>
@@ -7844,10 +7844,10 @@
         <v>0.899999999999999</v>
       </c>
       <c r="P133" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="Q133" t="n">
         <v>18.6</v>
-      </c>
-      <c r="Q133" t="n">
-        <v>19.5</v>
       </c>
       <c r="R133" t="n">
         <v>0.0225</v>
@@ -7900,10 +7900,10 @@
         <v>0.899999999999999</v>
       </c>
       <c r="P134" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="Q134" t="n">
         <v>18.6</v>
-      </c>
-      <c r="Q134" t="n">
-        <v>19.5</v>
       </c>
       <c r="R134" t="n">
         <v>0.01775</v>
@@ -7956,10 +7956,10 @@
         <v>0.899999999999999</v>
       </c>
       <c r="P135" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="Q135" t="n">
         <v>18.6</v>
-      </c>
-      <c r="Q135" t="n">
-        <v>19.5</v>
       </c>
       <c r="R135" t="n">
         <v>0.013</v>
@@ -8012,10 +8012,10 @@
         <v>0.899999999999999</v>
       </c>
       <c r="P136" t="n">
+        <v>19.4323333333333</v>
+      </c>
+      <c r="Q136" t="n">
         <v>18.5323333333333</v>
-      </c>
-      <c r="Q136" t="n">
-        <v>19.4323333333333</v>
       </c>
       <c r="R136" t="n">
         <v>0.017</v>
@@ -8068,10 +8068,10 @@
         <v>0.899999999999999</v>
       </c>
       <c r="P137" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="Q137" t="n">
         <v>18.5</v>
-      </c>
-      <c r="Q137" t="n">
-        <v>19.4</v>
       </c>
       <c r="R137" t="n">
         <v>0.021</v>
@@ -8124,10 +8124,10 @@
         <v>0.899999999999999</v>
       </c>
       <c r="P138" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="Q138" t="n">
         <v>18.5</v>
-      </c>
-      <c r="Q138" t="n">
-        <v>19.4</v>
       </c>
       <c r="R138" t="n">
         <v>0.025</v>
@@ -8180,10 +8180,10 @@
         <v>1</v>
       </c>
       <c r="P139" t="n">
+        <v>19.3823333333333</v>
+      </c>
+      <c r="Q139" t="n">
         <v>18.3823333333333</v>
-      </c>
-      <c r="Q139" t="n">
-        <v>19.3823333333333</v>
       </c>
       <c r="R139" t="n">
         <v>0.029</v>
@@ -8236,10 +8236,10 @@
         <v>1</v>
       </c>
       <c r="P140" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="Q140" t="n">
         <v>18.3</v>
-      </c>
-      <c r="Q140" t="n">
-        <v>19.3</v>
       </c>
       <c r="R140" t="n">
         <v>0.02375</v>
@@ -8292,10 +8292,10 @@
         <v>0.900000000000002</v>
       </c>
       <c r="P141" t="n">
+        <v>19.2823333333333</v>
+      </c>
+      <c r="Q141" t="n">
         <v>18.3823333333333</v>
-      </c>
-      <c r="Q141" t="n">
-        <v>19.2823333333333</v>
       </c>
       <c r="R141" t="n">
         <v>0.0185</v>
@@ -8348,10 +8348,10 @@
         <v>0.899999999999999</v>
       </c>
       <c r="P142" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="Q142" t="n">
         <v>18.3</v>
-      </c>
-      <c r="Q142" t="n">
-        <v>19.2</v>
       </c>
       <c r="R142" t="n">
         <v>0.01325</v>
@@ -8404,10 +8404,10 @@
         <v>0.899999999999999</v>
       </c>
       <c r="P143" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="Q143" t="n">
         <v>18.3</v>
-      </c>
-      <c r="Q143" t="n">
-        <v>19.2</v>
       </c>
       <c r="R143" t="n">
         <v>0.008</v>
@@ -8460,10 +8460,10 @@
         <v>0.899999999999999</v>
       </c>
       <c r="P144" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="Q144" t="n">
         <v>18.3</v>
-      </c>
-      <c r="Q144" t="n">
-        <v>19.2</v>
       </c>
       <c r="R144" t="n">
         <v>0.02625</v>
@@ -8516,10 +8516,10 @@
         <v>0.900000000000002</v>
       </c>
       <c r="P145" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="Q145" t="n">
         <v>18.2</v>
-      </c>
-      <c r="Q145" t="n">
-        <v>19.1</v>
       </c>
       <c r="R145" t="n">
         <v>0.0445</v>
@@ -8572,10 +8572,10 @@
         <v>0.900000000000002</v>
       </c>
       <c r="P146" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="Q146" t="n">
         <v>18.2</v>
-      </c>
-      <c r="Q146" t="n">
-        <v>19.1</v>
       </c>
       <c r="R146" t="n">
         <v>0.06275</v>
@@ -8628,10 +8628,10 @@
         <v>0.882333333333335</v>
       </c>
       <c r="P147" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="Q147" t="n">
         <v>18.2176666666667</v>
-      </c>
-      <c r="Q147" t="n">
-        <v>19.1</v>
       </c>
       <c r="R147" t="n">
         <v>0.081</v>
@@ -8684,10 +8684,10 @@
         <v>0.461666666666666</v>
       </c>
       <c r="P148" t="n">
+        <v>19.2353333333333</v>
+      </c>
+      <c r="Q148" t="n">
         <v>18.7736666666667</v>
-      </c>
-      <c r="Q148" t="n">
-        <v>19.2353333333333</v>
       </c>
       <c r="R148" t="n">
         <v>0.54625</v>
@@ -8740,10 +8740,10 @@
         <v>0.253</v>
       </c>
       <c r="P149" t="n">
+        <v>19.553</v>
+      </c>
+      <c r="Q149" t="n">
         <v>19.806</v>
-      </c>
-      <c r="Q149" t="n">
-        <v>19.553</v>
       </c>
       <c r="R149" t="n">
         <v>1.0115</v>
@@ -8796,10 +8796,10 @@
         <v>0.703000000000003</v>
       </c>
       <c r="P150" t="n">
+        <v>19.9353333333333</v>
+      </c>
+      <c r="Q150" t="n">
         <v>20.6383333333333</v>
-      </c>
-      <c r="Q150" t="n">
-        <v>19.9353333333333</v>
       </c>
       <c r="R150" t="n">
         <v>1.47675</v>
@@ -8852,10 +8852,10 @@
         <v>0.753</v>
       </c>
       <c r="P151" t="n">
+        <v>19.4763333333333</v>
+      </c>
+      <c r="Q151" t="n">
         <v>20.2293333333333</v>
-      </c>
-      <c r="Q151" t="n">
-        <v>19.4763333333333</v>
       </c>
       <c r="R151" t="n">
         <v>1.942</v>
@@ -8908,10 +8908,10 @@
         <v>0.661666666666665</v>
       </c>
       <c r="P152" t="n">
+        <v>19.3736666666667</v>
+      </c>
+      <c r="Q152" t="n">
         <v>20.0353333333333</v>
-      </c>
-      <c r="Q152" t="n">
-        <v>19.3736666666667</v>
       </c>
       <c r="R152" t="n">
         <v>1.6895</v>
@@ -8964,10 +8964,10 @@
         <v>0.547000000000001</v>
       </c>
       <c r="P153" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q153" t="n">
         <v>20.547</v>
-      </c>
-      <c r="Q153" t="n">
-        <v>20</v>
       </c>
       <c r="R153" t="n">
         <v>1.437</v>
@@ -9020,10 +9020,10 @@
         <v>0.0970000000000013</v>
       </c>
       <c r="P154" t="n">
+        <v>20.0676666666667</v>
+      </c>
+      <c r="Q154" t="n">
         <v>20.1646666666667</v>
-      </c>
-      <c r="Q154" t="n">
-        <v>20.0676666666667</v>
       </c>
       <c r="R154" t="n">
         <v>1.1845</v>
@@ -9076,10 +9076,10 @@
         <v>0.135333333333335</v>
       </c>
       <c r="P155" t="n">
+        <v>20.0823333333333</v>
+      </c>
+      <c r="Q155" t="n">
         <v>19.947</v>
-      </c>
-      <c r="Q155" t="n">
-        <v>20.0823333333333</v>
       </c>
       <c r="R155" t="n">
         <v>0.932</v>
@@ -9132,10 +9132,10 @@
         <v>0.367666666666665</v>
       </c>
       <c r="P156" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q156" t="n">
         <v>19.6323333333333</v>
-      </c>
-      <c r="Q156" t="n">
-        <v>20</v>
       </c>
       <c r="R156" t="n">
         <v>0.7025</v>
@@ -9188,10 +9188,10 @@
         <v>0.617666666666668</v>
       </c>
       <c r="P157" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q157" t="n">
         <v>19.3823333333333</v>
-      </c>
-      <c r="Q157" t="n">
-        <v>20</v>
       </c>
       <c r="R157" t="n">
         <v>0.473</v>
@@ -9244,10 +9244,10 @@
         <v>0.699999999999999</v>
       </c>
       <c r="P158" t="n">
+        <v>19.9323333333333</v>
+      </c>
+      <c r="Q158" t="n">
         <v>19.2323333333333</v>
-      </c>
-      <c r="Q158" t="n">
-        <v>19.9323333333333</v>
       </c>
       <c r="R158" t="n">
         <v>0.2435</v>
@@ -9300,10 +9300,10 @@
         <v>0.717666666666666</v>
       </c>
       <c r="P159" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="Q159" t="n">
         <v>19.1823333333333</v>
-      </c>
-      <c r="Q159" t="n">
-        <v>19.9</v>
       </c>
       <c r="R159" t="n">
         <v>0.014</v>
@@ -9356,10 +9356,10 @@
         <v>0.800000000000001</v>
       </c>
       <c r="P160" t="n">
+        <v>19.8323333333333</v>
+      </c>
+      <c r="Q160" t="n">
         <v>19.0323333333333</v>
-      </c>
-      <c r="Q160" t="n">
-        <v>19.8323333333333</v>
       </c>
       <c r="R160" t="n">
         <v>0.0115</v>
@@ -9412,10 +9412,10 @@
         <v>0.817666666666668</v>
       </c>
       <c r="P161" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="Q161" t="n">
         <v>18.9823333333333</v>
-      </c>
-      <c r="Q161" t="n">
-        <v>19.8</v>
       </c>
       <c r="R161" t="n">
         <v>0.009</v>
@@ -9468,10 +9468,10 @@
         <v>0.900000000000002</v>
       </c>
       <c r="P162" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="Q162" t="n">
         <v>18.9</v>
-      </c>
-      <c r="Q162" t="n">
-        <v>19.8</v>
       </c>
       <c r="R162" t="n">
         <v>0.0065</v>
@@ -9524,10 +9524,10 @@
         <v>0.899999999999999</v>
       </c>
       <c r="P163" t="n">
+        <v>19.7</v>
+      </c>
+      <c r="Q163" t="n">
         <v>18.8</v>
-      </c>
-      <c r="Q163" t="n">
-        <v>19.7</v>
       </c>
       <c r="R163" t="n">
         <v>0.004</v>
@@ -9580,10 +9580,10 @@
         <v>0.899999999999999</v>
       </c>
       <c r="P164" t="n">
+        <v>19.7</v>
+      </c>
+      <c r="Q164" t="n">
         <v>18.8</v>
-      </c>
-      <c r="Q164" t="n">
-        <v>19.7</v>
       </c>
       <c r="R164" t="n">
         <v>0.19325</v>
@@ -9636,10 +9636,10 @@
         <v>0.917666666666666</v>
       </c>
       <c r="P165" t="n">
+        <v>19.7</v>
+      </c>
+      <c r="Q165" t="n">
         <v>18.7823333333333</v>
-      </c>
-      <c r="Q165" t="n">
-        <v>19.7</v>
       </c>
       <c r="R165" t="n">
         <v>0.3825</v>
@@ -9692,10 +9692,10 @@
         <v>0.864666666666668</v>
       </c>
       <c r="P166" t="n">
+        <v>19.7</v>
+      </c>
+      <c r="Q166" t="n">
         <v>18.8353333333333</v>
-      </c>
-      <c r="Q166" t="n">
-        <v>19.7</v>
       </c>
       <c r="R166" t="n">
         <v>0.57175</v>
@@ -9748,10 +9748,10 @@
         <v>0.247</v>
       </c>
       <c r="P167" t="n">
+        <v>19.853</v>
+      </c>
+      <c r="Q167" t="n">
         <v>19.606</v>
-      </c>
-      <c r="Q167" t="n">
-        <v>19.853</v>
       </c>
       <c r="R167" t="n">
         <v>0.761</v>
@@ -9804,10 +9804,10 @@
         <v>0.0676666666666677</v>
       </c>
       <c r="P168" t="n">
+        <v>20.1</v>
+      </c>
+      <c r="Q168" t="n">
         <v>20.0323333333333</v>
-      </c>
-      <c r="Q168" t="n">
-        <v>20.1</v>
       </c>
       <c r="R168" t="n">
         <v>0.6035</v>
@@ -9860,10 +9860,10 @@
         <v>0.435333333333336</v>
       </c>
       <c r="P169" t="n">
+        <v>20.0823333333333</v>
+      </c>
+      <c r="Q169" t="n">
         <v>19.647</v>
-      </c>
-      <c r="Q169" t="n">
-        <v>20.0823333333333</v>
       </c>
       <c r="R169" t="n">
         <v>0.446</v>
@@ -9916,10 +9916,10 @@
         <v>0.667666666666669</v>
       </c>
       <c r="P170" t="n">
+        <v>20.0676666666667</v>
+      </c>
+      <c r="Q170" t="n">
         <v>19.4</v>
-      </c>
-      <c r="Q170" t="n">
-        <v>20.0676666666667</v>
       </c>
       <c r="R170" t="n">
         <v>0.2885</v>
@@ -9972,10 +9972,10 @@
         <v>0.817666666666668</v>
       </c>
       <c r="P171" t="n">
+        <v>20.0176666666667</v>
+      </c>
+      <c r="Q171" t="n">
         <v>19.2</v>
-      </c>
-      <c r="Q171" t="n">
-        <v>20.0176666666667</v>
       </c>
       <c r="R171" t="n">
         <v>0.131</v>
@@ -10028,10 +10028,10 @@
         <v>0.899999999999999</v>
       </c>
       <c r="P172" t="n">
+        <v>20.0323333333333</v>
+      </c>
+      <c r="Q172" t="n">
         <v>19.1323333333333</v>
-      </c>
-      <c r="Q172" t="n">
-        <v>20.0323333333333</v>
       </c>
       <c r="R172" t="n">
         <v>0.115</v>
@@ -10084,10 +10084,10 @@
         <v>0.899999999999999</v>
       </c>
       <c r="P173" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q173" t="n">
         <v>19.1</v>
-      </c>
-      <c r="Q173" t="n">
-        <v>20</v>
       </c>
       <c r="R173" t="n">
         <v>0.099</v>
@@ -10140,10 +10140,10 @@
         <v>0.967666666666666</v>
       </c>
       <c r="P174" t="n">
+        <v>20.0676666666667</v>
+      </c>
+      <c r="Q174" t="n">
         <v>19.1</v>
-      </c>
-      <c r="Q174" t="n">
-        <v>20.0676666666667</v>
       </c>
       <c r="R174" t="n">
         <v>0.083</v>
@@ -10196,10 +10196,10 @@
         <v>0.900000000000002</v>
       </c>
       <c r="P175" t="n">
+        <v>20.1</v>
+      </c>
+      <c r="Q175" t="n">
         <v>19.2</v>
-      </c>
-      <c r="Q175" t="n">
-        <v>20.1</v>
       </c>
       <c r="R175" t="n">
         <v>0.067</v>
@@ -10252,10 +10252,10 @@
         <v>0.899999999999999</v>
       </c>
       <c r="P176" t="n">
+        <v>20.0323333333333</v>
+      </c>
+      <c r="Q176" t="n">
         <v>19.1323333333333</v>
-      </c>
-      <c r="Q176" t="n">
-        <v>20.0323333333333</v>
       </c>
       <c r="R176" t="n">
         <v>0.443</v>
@@ -10308,10 +10308,10 @@
         <v>1.06466666666667</v>
       </c>
       <c r="P177" t="n">
+        <v>20.1</v>
+      </c>
+      <c r="Q177" t="n">
         <v>19.0353333333333</v>
-      </c>
-      <c r="Q177" t="n">
-        <v>20.1</v>
       </c>
       <c r="R177" t="n">
         <v>0.819</v>
@@ -10364,10 +10364,10 @@
         <v>0.900000000000002</v>
       </c>
       <c r="P178" t="n">
+        <v>20.1</v>
+      </c>
+      <c r="Q178" t="n">
         <v>19.2</v>
-      </c>
-      <c r="Q178" t="n">
-        <v>20.1</v>
       </c>
       <c r="R178" t="n">
         <v>1.195</v>
@@ -10420,10 +10420,10 @@
         <v>0.482333333333333</v>
       </c>
       <c r="P179" t="n">
+        <v>20.3353333333333</v>
+      </c>
+      <c r="Q179" t="n">
         <v>19.853</v>
-      </c>
-      <c r="Q179" t="n">
-        <v>20.3353333333333</v>
       </c>
       <c r="R179" t="n">
         <v>1.571</v>
@@ -10476,10 +10476,10 @@
         <v>0.196999999999999</v>
       </c>
       <c r="P180" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="Q180" t="n">
         <v>20.303</v>
-      </c>
-      <c r="Q180" t="n">
-        <v>20.5</v>
       </c>
       <c r="R180" t="n">
         <v>1.34125</v>
@@ -10532,10 +10532,10 @@
         <v>0.188333333333336</v>
       </c>
       <c r="P181" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="Q181" t="n">
         <v>20.4116666666667</v>
-      </c>
-      <c r="Q181" t="n">
-        <v>20.6</v>
       </c>
       <c r="R181" t="n">
         <v>1.1115</v>
@@ -10588,10 +10588,10 @@
         <v>0.667666666666669</v>
       </c>
       <c r="P182" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="Q182" t="n">
         <v>19.9323333333333</v>
-      </c>
-      <c r="Q182" t="n">
-        <v>20.6</v>
       </c>
       <c r="R182" t="n">
         <v>0.88175</v>
@@ -10644,10 +10644,10 @@
         <v>0.917666666666669</v>
       </c>
       <c r="P183" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="Q183" t="n">
         <v>19.6823333333333</v>
-      </c>
-      <c r="Q183" t="n">
-        <v>20.6</v>
       </c>
       <c r="R183" t="n">
         <v>0.652</v>
@@ -10700,10 +10700,10 @@
         <v>1</v>
       </c>
       <c r="P184" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="Q184" t="n">
         <v>19.6</v>
-      </c>
-      <c r="Q184" t="n">
-        <v>20.6</v>
       </c>
       <c r="R184" t="n">
         <v>0.51725</v>
@@ -10756,10 +10756,10 @@
         <v>1.1</v>
       </c>
       <c r="P185" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="Q185" t="n">
         <v>19.4</v>
-      </c>
-      <c r="Q185" t="n">
-        <v>20.5</v>
       </c>
       <c r="R185" t="n">
         <v>0.3825</v>
@@ -10812,10 +10812,10 @@
         <v>1.1</v>
       </c>
       <c r="P186" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="Q186" t="n">
         <v>19.4</v>
-      </c>
-      <c r="Q186" t="n">
-        <v>20.5</v>
       </c>
       <c r="R186" t="n">
         <v>0.24775</v>
@@ -10868,10 +10868,10 @@
         <v>1.2</v>
       </c>
       <c r="P187" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="Q187" t="n">
         <v>19.2</v>
-      </c>
-      <c r="Q187" t="n">
-        <v>20.4</v>
       </c>
       <c r="R187" t="n">
         <v>0.113</v>
@@ -10924,10 +10924,10 @@
         <v>1.2</v>
       </c>
       <c r="P188" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="Q188" t="n">
         <v>19.2</v>
-      </c>
-      <c r="Q188" t="n">
-        <v>20.4</v>
       </c>
       <c r="R188" t="n">
         <v>0.10675</v>
@@ -10980,10 +10980,10 @@
         <v>1.28233333333333</v>
       </c>
       <c r="P189" t="n">
+        <v>20.3823333333333</v>
+      </c>
+      <c r="Q189" t="n">
         <v>19.1</v>
-      </c>
-      <c r="Q189" t="n">
-        <v>20.3823333333333</v>
       </c>
       <c r="R189" t="n">
         <v>0.1005</v>
@@ -11036,10 +11036,10 @@
         <v>1.2</v>
       </c>
       <c r="P190" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="Q190" t="n">
         <v>19.1</v>
-      </c>
-      <c r="Q190" t="n">
-        <v>20.3</v>
       </c>
       <c r="R190" t="n">
         <v>0.09425</v>
@@ -11092,10 +11092,10 @@
         <v>1.2</v>
       </c>
       <c r="P191" t="n">
+        <v>20.2823333333333</v>
+      </c>
+      <c r="Q191" t="n">
         <v>19.0823333333333</v>
-      </c>
-      <c r="Q191" t="n">
-        <v>20.2823333333333</v>
       </c>
       <c r="R191" t="n">
         <v>0.088</v>
@@ -11148,10 +11148,10 @@
         <v>1.2</v>
       </c>
       <c r="P192" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="Q192" t="n">
         <v>19</v>
-      </c>
-      <c r="Q192" t="n">
-        <v>20.2</v>
       </c>
       <c r="R192" t="n">
         <v>0.074</v>
@@ -11204,10 +11204,10 @@
         <v>1.2</v>
       </c>
       <c r="P193" t="n">
+        <v>20.1</v>
+      </c>
+      <c r="Q193" t="n">
         <v>18.9</v>
-      </c>
-      <c r="Q193" t="n">
-        <v>20.1</v>
       </c>
       <c r="R193" t="n">
         <v>0.06</v>
@@ -11260,10 +11260,10 @@
         <v>1.2</v>
       </c>
       <c r="P194" t="n">
+        <v>20.1</v>
+      </c>
+      <c r="Q194" t="n">
         <v>18.9</v>
-      </c>
-      <c r="Q194" t="n">
-        <v>20.1</v>
       </c>
       <c r="R194" t="n">
         <v>0.046</v>
@@ -11316,10 +11316,10 @@
         <v>1.1</v>
       </c>
       <c r="P195" t="n">
+        <v>19.9823333333333</v>
+      </c>
+      <c r="Q195" t="n">
         <v>18.8823333333333</v>
-      </c>
-      <c r="Q195" t="n">
-        <v>19.9823333333333</v>
       </c>
       <c r="R195" t="n">
         <v>0.032</v>
@@ -11372,10 +11372,10 @@
         <v>1.1</v>
       </c>
       <c r="P196" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="Q196" t="n">
         <v>18.8</v>
-      </c>
-      <c r="Q196" t="n">
-        <v>19.9</v>
       </c>
       <c r="R196" t="n">
         <v>0.028</v>
@@ -11428,10 +11428,10 @@
         <v>1.1</v>
       </c>
       <c r="P197" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="Q197" t="n">
         <v>18.8</v>
-      </c>
-      <c r="Q197" t="n">
-        <v>19.9</v>
       </c>
       <c r="R197" t="n">
         <v>0.024</v>
@@ -11484,10 +11484,10 @@
         <v>1.03233333333333</v>
       </c>
       <c r="P198" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="Q198" t="n">
         <v>18.8676666666667</v>
-      </c>
-      <c r="Q198" t="n">
-        <v>19.9</v>
       </c>
       <c r="R198" t="n">
         <v>0.02</v>
@@ -11540,10 +11540,10 @@
         <v>0.817666666666668</v>
       </c>
       <c r="P199" t="n">
+        <v>19.8176666666667</v>
+      </c>
+      <c r="Q199" t="n">
         <v>19</v>
-      </c>
-      <c r="Q199" t="n">
-        <v>19.8176666666667</v>
       </c>
       <c r="R199" t="n">
         <v>0.016</v>
@@ -11596,10 +11596,10 @@
         <v>0.900000000000002</v>
       </c>
       <c r="P200" t="n">
+        <v>19.8323333333333</v>
+      </c>
+      <c r="Q200" t="n">
         <v>18.9323333333333</v>
-      </c>
-      <c r="Q200" t="n">
-        <v>19.8323333333333</v>
       </c>
       <c r="R200" t="n">
         <v>0.03725</v>
@@ -11652,10 +11652,10 @@
         <v>0.817666666666668</v>
       </c>
       <c r="P201" t="n">
+        <v>19.7176666666667</v>
+      </c>
+      <c r="Q201" t="n">
         <v>18.9</v>
-      </c>
-      <c r="Q201" t="n">
-        <v>19.7176666666667</v>
       </c>
       <c r="R201" t="n">
         <v>0.0585</v>
@@ -11708,10 +11708,10 @@
         <v>0.900000000000002</v>
       </c>
       <c r="P202" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="Q202" t="n">
         <v>18.9</v>
-      </c>
-      <c r="Q202" t="n">
-        <v>19.8</v>
       </c>
       <c r="R202" t="n">
         <v>0.07975</v>
@@ -11764,10 +11764,10 @@
         <v>1</v>
       </c>
       <c r="P203" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="Q203" t="n">
         <v>18.8</v>
-      </c>
-      <c r="Q203" t="n">
-        <v>19.8</v>
       </c>
       <c r="R203" t="n">
         <v>0.101</v>
@@ -11820,10 +11820,10 @@
         <v>1</v>
       </c>
       <c r="P204" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="Q204" t="n">
         <v>18.8</v>
-      </c>
-      <c r="Q204" t="n">
-        <v>19.8</v>
       </c>
       <c r="R204" t="n">
         <v>0.4385</v>
@@ -11876,10 +11876,10 @@
         <v>0.900000000000002</v>
       </c>
       <c r="P205" t="n">
+        <v>19.8353333333333</v>
+      </c>
+      <c r="Q205" t="n">
         <v>18.9353333333333</v>
-      </c>
-      <c r="Q205" t="n">
-        <v>19.8353333333333</v>
       </c>
       <c r="R205" t="n">
         <v>0.776</v>
@@ -11932,10 +11932,10 @@
         <v>0.561666666666667</v>
       </c>
       <c r="P206" t="n">
+        <v>19.797</v>
+      </c>
+      <c r="Q206" t="n">
         <v>19.2353333333333</v>
-      </c>
-      <c r="Q206" t="n">
-        <v>19.797</v>
       </c>
       <c r="R206" t="n">
         <v>1.1135</v>
@@ -11988,10 +11988,10 @@
         <v>0.0706666666666678</v>
       </c>
       <c r="P207" t="n">
+        <v>19.9353333333333</v>
+      </c>
+      <c r="Q207" t="n">
         <v>20.006</v>
-      </c>
-      <c r="Q207" t="n">
-        <v>19.9353333333333</v>
       </c>
       <c r="R207" t="n">
         <v>1.451</v>
@@ -12044,10 +12044,10 @@
         <v>0.535333333333334</v>
       </c>
       <c r="P208" t="n">
+        <v>20.2353333333333</v>
+      </c>
+      <c r="Q208" t="n">
         <v>20.7706666666667</v>
-      </c>
-      <c r="Q208" t="n">
-        <v>20.2353333333333</v>
       </c>
       <c r="R208" t="n">
         <v>1.2895</v>
@@ -12100,10 +12100,10 @@
         <v>0.394000000000002</v>
       </c>
       <c r="P209" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="Q209" t="n">
         <v>20.794</v>
-      </c>
-      <c r="Q209" t="n">
-        <v>20.4</v>
       </c>
       <c r="R209" t="n">
         <v>1.128</v>
@@ -12156,10 +12156,10 @@
         <v>0.302999999999997</v>
       </c>
       <c r="P210" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="Q210" t="n">
         <v>20.097</v>
-      </c>
-      <c r="Q210" t="n">
-        <v>20.4</v>
       </c>
       <c r="R210" t="n">
         <v>0.9665</v>
@@ -12212,10 +12212,10 @@
         <v>0.617666666666665</v>
       </c>
       <c r="P211" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="Q211" t="n">
         <v>19.7823333333333</v>
-      </c>
-      <c r="Q211" t="n">
-        <v>20.4</v>
       </c>
       <c r="R211" t="n">
         <v>0.805</v>
@@ -12268,10 +12268,10 @@
         <v>0.767666666666663</v>
       </c>
       <c r="P212" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="Q212" t="n">
         <v>19.6323333333333</v>
-      </c>
-      <c r="Q212" t="n">
-        <v>20.4</v>
       </c>
       <c r="R212" t="n">
         <v>0.62775</v>
@@ -12324,10 +12324,10 @@
         <v>0.817666666666668</v>
       </c>
       <c r="P213" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="Q213" t="n">
         <v>19.4823333333333</v>
-      </c>
-      <c r="Q213" t="n">
-        <v>20.3</v>
       </c>
       <c r="R213" t="n">
         <v>0.4505</v>
@@ -12380,10 +12380,10 @@
         <v>0.899999999999999</v>
       </c>
       <c r="P214" t="n">
+        <v>20.2323333333333</v>
+      </c>
+      <c r="Q214" t="n">
         <v>19.3323333333333</v>
-      </c>
-      <c r="Q214" t="n">
-        <v>20.2323333333333</v>
       </c>
       <c r="R214" t="n">
         <v>0.27325</v>
@@ -12436,10 +12436,10 @@
         <v>1</v>
       </c>
       <c r="P215" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="Q215" t="n">
         <v>19.2</v>
-      </c>
-      <c r="Q215" t="n">
-        <v>20.2</v>
       </c>
       <c r="R215" t="n">
         <v>0.096</v>
@@ -12492,10 +12492,10 @@
         <v>1</v>
       </c>
       <c r="P216" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="Q216" t="n">
         <v>19.2</v>
-      </c>
-      <c r="Q216" t="n">
-        <v>20.2</v>
       </c>
       <c r="R216" t="n">
         <v>0.08725</v>
@@ -12548,10 +12548,10 @@
         <v>1.1</v>
       </c>
       <c r="P217" t="n">
+        <v>20.1823333333333</v>
+      </c>
+      <c r="Q217" t="n">
         <v>19.0823333333333</v>
-      </c>
-      <c r="Q217" t="n">
-        <v>20.1823333333333</v>
       </c>
       <c r="R217" t="n">
         <v>0.0785</v>
@@ -12604,10 +12604,10 @@
         <v>1.1</v>
       </c>
       <c r="P218" t="n">
+        <v>20.1</v>
+      </c>
+      <c r="Q218" t="n">
         <v>19</v>
-      </c>
-      <c r="Q218" t="n">
-        <v>20.1</v>
       </c>
       <c r="R218" t="n">
         <v>0.06975</v>
@@ -12660,10 +12660,10 @@
         <v>1.1</v>
       </c>
       <c r="P219" t="n">
+        <v>20.0823333333333</v>
+      </c>
+      <c r="Q219" t="n">
         <v>18.9823333333333</v>
-      </c>
-      <c r="Q219" t="n">
-        <v>20.0823333333333</v>
       </c>
       <c r="R219" t="n">
         <v>0.061</v>
@@ -12716,10 +12716,10 @@
         <v>1.1</v>
       </c>
       <c r="P220" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q220" t="n">
         <v>18.9</v>
-      </c>
-      <c r="Q220" t="n">
-        <v>20</v>
       </c>
       <c r="R220" t="n">
         <v>0.0485</v>
@@ -12772,10 +12772,10 @@
         <v>1.1</v>
       </c>
       <c r="P221" t="n">
+        <v>19.9823333333333</v>
+      </c>
+      <c r="Q221" t="n">
         <v>18.8823333333333</v>
-      </c>
-      <c r="Q221" t="n">
-        <v>19.9823333333333</v>
       </c>
       <c r="R221" t="n">
         <v>0.036</v>
@@ -12828,10 +12828,10 @@
         <v>1.1</v>
       </c>
       <c r="P222" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="Q222" t="n">
         <v>18.8</v>
-      </c>
-      <c r="Q222" t="n">
-        <v>19.9</v>
       </c>
       <c r="R222" t="n">
         <v>0.0235</v>
@@ -12884,10 +12884,10 @@
         <v>1.1</v>
       </c>
       <c r="P223" t="n">
+        <v>19.8823333333333</v>
+      </c>
+      <c r="Q223" t="n">
         <v>18.7823333333333</v>
-      </c>
-      <c r="Q223" t="n">
-        <v>19.8823333333333</v>
       </c>
       <c r="R223" t="n">
         <v>0.011</v>
@@ -12940,10 +12940,10 @@
         <v>1.1</v>
       </c>
       <c r="P224" t="n">
+        <v>19.7323333333333</v>
+      </c>
+      <c r="Q224" t="n">
         <v>18.6323333333333</v>
-      </c>
-      <c r="Q224" t="n">
-        <v>19.7323333333333</v>
       </c>
       <c r="R224" t="n">
         <v>0.01525</v>
@@ -12996,10 +12996,10 @@
         <v>1.1</v>
       </c>
       <c r="P225" t="n">
+        <v>19.7</v>
+      </c>
+      <c r="Q225" t="n">
         <v>18.6</v>
-      </c>
-      <c r="Q225" t="n">
-        <v>19.7</v>
       </c>
       <c r="R225" t="n">
         <v>0.0195</v>
@@ -13052,10 +13052,10 @@
         <v>1.1</v>
       </c>
       <c r="P226" t="n">
+        <v>19.6323333333333</v>
+      </c>
+      <c r="Q226" t="n">
         <v>18.5323333333333</v>
-      </c>
-      <c r="Q226" t="n">
-        <v>19.6323333333333</v>
       </c>
       <c r="R226" t="n">
         <v>0.02375</v>
@@ -13108,10 +13108,10 @@
         <v>1.1</v>
       </c>
       <c r="P227" t="n">
+        <v>19.5823333333333</v>
+      </c>
+      <c r="Q227" t="n">
         <v>18.4823333333333</v>
-      </c>
-      <c r="Q227" t="n">
-        <v>19.5823333333333</v>
       </c>
       <c r="R227" t="n">
         <v>0.028</v>
@@ -13164,10 +13164,10 @@
         <v>1.1</v>
       </c>
       <c r="P228" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="Q228" t="n">
         <v>18.4</v>
-      </c>
-      <c r="Q228" t="n">
-        <v>19.5</v>
       </c>
       <c r="R228" t="n">
         <v>0.0215</v>
@@ -13220,10 +13220,10 @@
         <v>1.1</v>
       </c>
       <c r="P229" t="n">
+        <v>19.4823333333333</v>
+      </c>
+      <c r="Q229" t="n">
         <v>18.3823333333333</v>
-      </c>
-      <c r="Q229" t="n">
-        <v>19.4823333333333</v>
       </c>
       <c r="R229" t="n">
         <v>0.015</v>
@@ -13276,10 +13276,10 @@
         <v>1.16766666666667</v>
       </c>
       <c r="P230" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="Q230" t="n">
         <v>18.2323333333333</v>
-      </c>
-      <c r="Q230" t="n">
-        <v>19.4</v>
       </c>
       <c r="R230" t="n">
         <v>0.0085</v>
@@ -13332,10 +13332,10 @@
         <v>1.2</v>
       </c>
       <c r="P231" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="Q231" t="n">
         <v>18.2</v>
-      </c>
-      <c r="Q231" t="n">
-        <v>19.4</v>
       </c>
       <c r="R231" t="n">
         <v>0.002</v>
@@ -13388,10 +13388,10 @@
         <v>1.2</v>
       </c>
       <c r="P232" t="n">
+        <v>19.3323333333333</v>
+      </c>
+      <c r="Q232" t="n">
         <v>18.1323333333333</v>
-      </c>
-      <c r="Q232" t="n">
-        <v>19.3323333333333</v>
       </c>
       <c r="R232" t="n">
         <v>0.00625</v>
@@ -13444,10 +13444,10 @@
         <v>1.2</v>
       </c>
       <c r="P233" t="n">
+        <v>19.2823333333333</v>
+      </c>
+      <c r="Q233" t="n">
         <v>18.0823333333333</v>
-      </c>
-      <c r="Q233" t="n">
-        <v>19.2823333333333</v>
       </c>
       <c r="R233" t="n">
         <v>0.0105</v>
@@ -13500,10 +13500,10 @@
         <v>1.2</v>
       </c>
       <c r="P234" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="Q234" t="n">
         <v>18</v>
-      </c>
-      <c r="Q234" t="n">
-        <v>19.2</v>
       </c>
       <c r="R234" t="n">
         <v>0.01475</v>
@@ -13556,10 +13556,10 @@
         <v>1.2</v>
       </c>
       <c r="P235" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="Q235" t="n">
         <v>18</v>
-      </c>
-      <c r="Q235" t="n">
-        <v>19.2</v>
       </c>
       <c r="R235" t="n">
         <v>0.019</v>
@@ -13612,10 +13612,10 @@
         <v>1.26766666666667</v>
       </c>
       <c r="P236" t="n">
+        <v>19.1323333333333</v>
+      </c>
+      <c r="Q236" t="n">
         <v>17.8646666666667</v>
-      </c>
-      <c r="Q236" t="n">
-        <v>19.1323333333333</v>
       </c>
       <c r="R236" t="n">
         <v>0.01425</v>
@@ -13668,10 +13668,10 @@
         <v>1.3</v>
       </c>
       <c r="P237" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="Q237" t="n">
         <v>17.8</v>
-      </c>
-      <c r="Q237" t="n">
-        <v>19.1</v>
       </c>
       <c r="R237" t="n">
         <v>0.0095</v>
@@ -13724,10 +13724,10 @@
         <v>1.3</v>
       </c>
       <c r="P238" t="n">
+        <v>19.0323333333333</v>
+      </c>
+      <c r="Q238" t="n">
         <v>17.7323333333333</v>
-      </c>
-      <c r="Q238" t="n">
-        <v>19.0323333333333</v>
       </c>
       <c r="R238" t="n">
         <v>0.00475</v>
@@ -13780,10 +13780,10 @@
         <v>1.21766666666667</v>
       </c>
       <c r="P239" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="Q239" t="n">
         <v>17.6823333333333</v>
-      </c>
-      <c r="Q239" t="n">
-        <v>18.9</v>
       </c>
       <c r="R239" t="n">
         <v>0</v>
@@ -13836,10 +13836,10 @@
         <v>1.3</v>
       </c>
       <c r="P240" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="Q240" t="n">
         <v>17.6</v>
-      </c>
-      <c r="Q240" t="n">
-        <v>18.9</v>
       </c>
       <c r="R240" t="n">
         <v>0.01825</v>
@@ -13892,10 +13892,10 @@
         <v>1.3</v>
       </c>
       <c r="P241" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="Q241" t="n">
         <v>17.5</v>
-      </c>
-      <c r="Q241" t="n">
-        <v>18.8</v>
       </c>
       <c r="R241" t="n">
         <v>0.0365</v>
@@ -13948,10 +13948,10 @@
         <v>1.3</v>
       </c>
       <c r="P242" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="Q242" t="n">
         <v>17.5</v>
-      </c>
-      <c r="Q242" t="n">
-        <v>18.8</v>
       </c>
       <c r="R242" t="n">
         <v>0.05475</v>
@@ -14004,10 +14004,10 @@
         <v>1.3</v>
       </c>
       <c r="P243" t="n">
+        <v>18.8176666666667</v>
+      </c>
+      <c r="Q243" t="n">
         <v>17.5176666666667</v>
-      </c>
-      <c r="Q243" t="n">
-        <v>18.8176666666667</v>
       </c>
       <c r="R243" t="n">
         <v>0.073</v>
@@ -14060,10 +14060,10 @@
         <v>0.961666666666666</v>
       </c>
       <c r="P244" t="n">
+        <v>18.9676666666667</v>
+      </c>
+      <c r="Q244" t="n">
         <v>18.006</v>
-      </c>
-      <c r="Q244" t="n">
-        <v>18.9676666666667</v>
       </c>
       <c r="R244" t="n">
         <v>0.61075</v>
@@ -14116,10 +14116,10 @@
         <v>0.211666666666666</v>
       </c>
       <c r="P245" t="n">
+        <v>19.2353333333333</v>
+      </c>
+      <c r="Q245" t="n">
         <v>19.0236666666667</v>
-      </c>
-      <c r="Q245" t="n">
-        <v>19.2353333333333</v>
       </c>
       <c r="R245" t="n">
         <v>1.1485</v>
@@ -14172,10 +14172,10 @@
         <v>0.335333333333335</v>
       </c>
       <c r="P246" t="n">
+        <v>19.4676666666667</v>
+      </c>
+      <c r="Q246" t="n">
         <v>19.803</v>
-      </c>
-      <c r="Q246" t="n">
-        <v>19.4676666666667</v>
       </c>
       <c r="R246" t="n">
         <v>1.68625</v>
@@ -14228,10 +14228,10 @@
         <v>0.564666666666668</v>
       </c>
       <c r="P247" t="n">
+        <v>19.6823333333333</v>
+      </c>
+      <c r="Q247" t="n">
         <v>20.247</v>
-      </c>
-      <c r="Q247" t="n">
-        <v>19.6823333333333</v>
       </c>
       <c r="R247" t="n">
         <v>2.224</v>
@@ -14284,10 +14284,10 @@
         <v>0.141333333333336</v>
       </c>
       <c r="P248" t="n">
+        <v>19.803</v>
+      </c>
+      <c r="Q248" t="n">
         <v>19.6616666666667</v>
-      </c>
-      <c r="Q248" t="n">
-        <v>19.803</v>
       </c>
       <c r="R248" t="n">
         <v>1.729</v>
@@ -14340,10 +14340,10 @@
         <v>0.735333333333333</v>
       </c>
       <c r="P249" t="n">
+        <v>19.8823333333333</v>
+      </c>
+      <c r="Q249" t="n">
         <v>19.147</v>
-      </c>
-      <c r="Q249" t="n">
-        <v>19.8823333333333</v>
       </c>
       <c r="R249" t="n">
         <v>1.234</v>
@@ -14396,10 +14396,10 @@
         <v>0.967666666666666</v>
       </c>
       <c r="P250" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="Q250" t="n">
         <v>18.8323333333333</v>
-      </c>
-      <c r="Q250" t="n">
-        <v>19.8</v>
       </c>
       <c r="R250" t="n">
         <v>0.739</v>
@@ -14452,10 +14452,10 @@
         <v>1.1</v>
       </c>
       <c r="P251" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="Q251" t="n">
         <v>18.8</v>
-      </c>
-      <c r="Q251" t="n">
-        <v>19.9</v>
       </c>
       <c r="R251" t="n">
         <v>0.244</v>
@@ -14508,10 +14508,10 @@
         <v>1.16766666666667</v>
       </c>
       <c r="P252" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="Q252" t="n">
         <v>18.7323333333333</v>
-      </c>
-      <c r="Q252" t="n">
-        <v>19.9</v>
       </c>
       <c r="R252" t="n">
         <v>0.23175</v>
@@ -14564,10 +14564,10 @@
         <v>1.3</v>
       </c>
       <c r="P253" t="n">
+        <v>20.0176666666667</v>
+      </c>
+      <c r="Q253" t="n">
         <v>18.7176666666667</v>
-      </c>
-      <c r="Q253" t="n">
-        <v>20.0176666666667</v>
       </c>
       <c r="R253" t="n">
         <v>0.2195</v>
@@ -14620,10 +14620,10 @@
         <v>1.3</v>
       </c>
       <c r="P254" t="n">
+        <v>20.1</v>
+      </c>
+      <c r="Q254" t="n">
         <v>18.8</v>
-      </c>
-      <c r="Q254" t="n">
-        <v>20.1</v>
       </c>
       <c r="R254" t="n">
         <v>0.20725</v>
@@ -14676,10 +14676,10 @@
         <v>1.31166666666667</v>
       </c>
       <c r="P255" t="n">
+        <v>20.0116666666667</v>
+      </c>
+      <c r="Q255" t="n">
         <v>18.7</v>
-      </c>
-      <c r="Q255" t="n">
-        <v>20.0116666666667</v>
       </c>
       <c r="R255" t="n">
         <v>0.195</v>
@@ -14732,10 +14732,10 @@
         <v>0.832333333333331</v>
       </c>
       <c r="P256" t="n">
+        <v>19.4646666666667</v>
+      </c>
+      <c r="Q256" t="n">
         <v>18.6323333333333</v>
-      </c>
-      <c r="Q256" t="n">
-        <v>19.4646666666667</v>
       </c>
       <c r="R256" t="n">
         <v>0.58825</v>
@@ -14788,10 +14788,10 @@
         <v>0.917666666666666</v>
       </c>
       <c r="P257" t="n">
+        <v>19.4176666666667</v>
+      </c>
+      <c r="Q257" t="n">
         <v>18.5</v>
-      </c>
-      <c r="Q257" t="n">
-        <v>19.4176666666667</v>
       </c>
       <c r="R257" t="n">
         <v>0.9815</v>
@@ -14844,10 +14844,10 @@
         <v>0.729333333333333</v>
       </c>
       <c r="P258" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="Q258" t="n">
         <v>18.7706666666667</v>
-      </c>
-      <c r="Q258" t="n">
-        <v>19.5</v>
       </c>
       <c r="R258" t="n">
         <v>1.37475</v>
@@ -14900,10 +14900,10 @@
         <v>0.164666666666665</v>
       </c>
       <c r="P259" t="n">
+        <v>19.7176666666667</v>
+      </c>
+      <c r="Q259" t="n">
         <v>19.553</v>
-      </c>
-      <c r="Q259" t="n">
-        <v>19.7176666666667</v>
       </c>
       <c r="R259" t="n">
         <v>1.768</v>
@@ -14956,10 +14956,10 @@
         <v>0.135333333333332</v>
       </c>
       <c r="P260" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="Q260" t="n">
         <v>19.9353333333333</v>
-      </c>
-      <c r="Q260" t="n">
-        <v>19.8</v>
       </c>
       <c r="R260" t="n">
         <v>1.5485</v>
@@ -15012,10 +15012,10 @@
         <v>0.5</v>
       </c>
       <c r="P261" t="n">
+        <v>19.3823333333333</v>
+      </c>
+      <c r="Q261" t="n">
         <v>19.8823333333333</v>
-      </c>
-      <c r="Q261" t="n">
-        <v>19.3823333333333</v>
       </c>
       <c r="R261" t="n">
         <v>1.329</v>
@@ -15068,10 +15068,10 @@
         <v>0.296999999999997</v>
       </c>
       <c r="P262" t="n">
+        <v>19.1646666666667</v>
+      </c>
+      <c r="Q262" t="n">
         <v>19.4616666666667</v>
-      </c>
-      <c r="Q262" t="n">
-        <v>19.1646666666667</v>
       </c>
       <c r="R262" t="n">
         <v>1.1095</v>
@@ -15124,10 +15124,10 @@
         <v>0.335333333333331</v>
       </c>
       <c r="P263" t="n">
+        <v>19.4176666666667</v>
+      </c>
+      <c r="Q263" t="n">
         <v>19.0823333333333</v>
-      </c>
-      <c r="Q263" t="n">
-        <v>19.4176666666667</v>
       </c>
       <c r="R263" t="n">
         <v>0.89</v>
@@ -15180,10 +15180,10 @@
         <v>0.432333333333332</v>
       </c>
       <c r="P264" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="Q264" t="n">
         <v>19.0676666666667</v>
-      </c>
-      <c r="Q264" t="n">
-        <v>19.5</v>
       </c>
       <c r="R264" t="n">
         <v>0.71325</v>
@@ -15236,10 +15236,10 @@
         <v>0.435333333333336</v>
       </c>
       <c r="P265" t="n">
+        <v>19.547</v>
+      </c>
+      <c r="Q265" t="n">
         <v>19.1116666666667</v>
-      </c>
-      <c r="Q265" t="n">
-        <v>19.547</v>
       </c>
       <c r="R265" t="n">
         <v>0.5365</v>
@@ -15292,10 +15292,10 @@
         <v>0.735333333333333</v>
       </c>
       <c r="P266" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="Q266" t="n">
         <v>18.5646666666667</v>
-      </c>
-      <c r="Q266" t="n">
-        <v>19.3</v>
       </c>
       <c r="R266" t="n">
         <v>0.35975</v>
@@ -15348,10 +15348,10 @@
         <v>0.699999999999999</v>
       </c>
       <c r="P267" t="n">
+        <v>19.3353333333333</v>
+      </c>
+      <c r="Q267" t="n">
         <v>18.6353333333333</v>
-      </c>
-      <c r="Q267" t="n">
-        <v>19.3353333333333</v>
       </c>
       <c r="R267" t="n">
         <v>0.183</v>
@@ -15404,10 +15404,10 @@
         <v>0.767666666666667</v>
       </c>
       <c r="P268" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="Q268" t="n">
         <v>18.7323333333333</v>
-      </c>
-      <c r="Q268" t="n">
-        <v>19.5</v>
       </c>
       <c r="R268" t="n">
         <v>0.1805</v>
@@ -15460,10 +15460,10 @@
         <v>0.699999999999999</v>
       </c>
       <c r="P269" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="Q269" t="n">
         <v>18.8</v>
-      </c>
-      <c r="Q269" t="n">
-        <v>19.5</v>
       </c>
       <c r="R269" t="n">
         <v>0.178</v>
@@ -15516,10 +15516,10 @@
         <v>0.767666666666667</v>
       </c>
       <c r="P270" t="n">
+        <v>19.5676666666667</v>
+      </c>
+      <c r="Q270" t="n">
         <v>18.8</v>
-      </c>
-      <c r="Q270" t="n">
-        <v>19.5676666666667</v>
       </c>
       <c r="R270" t="n">
         <v>0.1755</v>
@@ -15572,10 +15572,10 @@
         <v>0.800000000000001</v>
       </c>
       <c r="P271" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="Q271" t="n">
         <v>18.8</v>
-      </c>
-      <c r="Q271" t="n">
-        <v>19.6</v>
       </c>
       <c r="R271" t="n">
         <v>0.173</v>
@@ -15628,10 +15628,10 @@
         <v>0.732333333333333</v>
       </c>
       <c r="P272" t="n">
+        <v>19.6676666666667</v>
+      </c>
+      <c r="Q272" t="n">
         <v>18.9353333333333</v>
-      </c>
-      <c r="Q272" t="n">
-        <v>19.6676666666667</v>
       </c>
       <c r="R272" t="n">
         <v>0.25775</v>
@@ -15684,10 +15684,10 @@
         <v>0.782333333333334</v>
       </c>
       <c r="P273" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="Q273" t="n">
         <v>19.0176666666667</v>
-      </c>
-      <c r="Q273" t="n">
-        <v>19.8</v>
       </c>
       <c r="R273" t="n">
         <v>0.3425</v>
@@ -15740,10 +15740,10 @@
         <v>0.767666666666667</v>
       </c>
       <c r="P274" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="Q274" t="n">
         <v>19.0323333333333</v>
-      </c>
-      <c r="Q274" t="n">
-        <v>19.8</v>
       </c>
       <c r="R274" t="n">
         <v>0.42725</v>
@@ -15796,10 +15796,10 @@
         <v>0.900000000000002</v>
       </c>
       <c r="P275" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="Q275" t="n">
         <v>18.9</v>
-      </c>
-      <c r="Q275" t="n">
-        <v>19.8</v>
       </c>
       <c r="R275" t="n">
         <v>0.512</v>
@@ -15852,10 +15852,10 @@
         <v>0.900000000000002</v>
       </c>
       <c r="P276" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="Q276" t="n">
         <v>18.9</v>
-      </c>
-      <c r="Q276" t="n">
-        <v>19.8</v>
       </c>
       <c r="R276" t="n">
         <v>0.386</v>
@@ -15908,10 +15908,10 @@
         <v>1</v>
       </c>
       <c r="P277" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="Q277" t="n">
         <v>18.8</v>
-      </c>
-      <c r="Q277" t="n">
-        <v>19.8</v>
       </c>
       <c r="R277" t="n">
         <v>0.26</v>
@@ -15964,10 +15964,10 @@
         <v>1</v>
       </c>
       <c r="P278" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="Q278" t="n">
         <v>18.8</v>
-      </c>
-      <c r="Q278" t="n">
-        <v>19.8</v>
       </c>
       <c r="R278" t="n">
         <v>0.134</v>
@@ -16020,10 +16020,10 @@
         <v>1</v>
       </c>
       <c r="P279" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="Q279" t="n">
         <v>18.8</v>
-      </c>
-      <c r="Q279" t="n">
-        <v>19.8</v>
       </c>
       <c r="R279" t="n">
         <v>0.008</v>
@@ -16076,10 +16076,10 @@
         <v>1</v>
       </c>
       <c r="P280" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="Q280" t="n">
         <v>18.8</v>
-      </c>
-      <c r="Q280" t="n">
-        <v>19.8</v>
       </c>
       <c r="R280" t="n">
         <v>0.11625</v>
@@ -16132,10 +16132,10 @@
         <v>1</v>
       </c>
       <c r="P281" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="Q281" t="n">
         <v>18.8</v>
-      </c>
-      <c r="Q281" t="n">
-        <v>19.8</v>
       </c>
       <c r="R281" t="n">
         <v>0.2245</v>
@@ -16188,10 +16188,10 @@
         <v>1</v>
       </c>
       <c r="P282" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="Q282" t="n">
         <v>18.8</v>
-      </c>
-      <c r="Q282" t="n">
-        <v>19.8</v>
       </c>
       <c r="R282" t="n">
         <v>0.33275</v>
@@ -16244,10 +16244,10 @@
         <v>1</v>
       </c>
       <c r="P283" t="n">
+        <v>19.8176666666667</v>
+      </c>
+      <c r="Q283" t="n">
         <v>18.8176666666667</v>
-      </c>
-      <c r="Q283" t="n">
-        <v>19.8176666666667</v>
       </c>
       <c r="R283" t="n">
         <v>0.441</v>
@@ -16300,10 +16300,10 @@
         <v>0.932333333333332</v>
       </c>
       <c r="P284" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="Q284" t="n">
         <v>18.9676666666667</v>
-      </c>
-      <c r="Q284" t="n">
-        <v>19.9</v>
       </c>
       <c r="R284" t="n">
         <v>0.435</v>
@@ -16356,10 +16356,10 @@
         <v>0.799999999999997</v>
       </c>
       <c r="P285" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="Q285" t="n">
         <v>19.1</v>
-      </c>
-      <c r="Q285" t="n">
-        <v>19.9</v>
       </c>
       <c r="R285" t="n">
         <v>0.429</v>
@@ -16412,10 +16412,10 @@
         <v>0.799999999999997</v>
       </c>
       <c r="P286" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="Q286" t="n">
         <v>19.1</v>
-      </c>
-      <c r="Q286" t="n">
-        <v>19.9</v>
       </c>
       <c r="R286" t="n">
         <v>0.423</v>
@@ -16468,10 +16468,10 @@
         <v>0.799999999999997</v>
       </c>
       <c r="P287" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="Q287" t="n">
         <v>19.1</v>
-      </c>
-      <c r="Q287" t="n">
-        <v>19.9</v>
       </c>
       <c r="R287" t="n">
         <v>0.417</v>
@@ -16524,10 +16524,10 @@
         <v>0.867666666666665</v>
       </c>
       <c r="P288" t="n">
+        <v>19.9676666666667</v>
+      </c>
+      <c r="Q288" t="n">
         <v>19.1</v>
-      </c>
-      <c r="Q288" t="n">
-        <v>19.9676666666667</v>
       </c>
       <c r="R288" t="n">
         <v>0.51425</v>
@@ -16580,10 +16580,10 @@
         <v>0.78233333333333</v>
       </c>
       <c r="P289" t="n">
+        <v>19.9176666666667</v>
+      </c>
+      <c r="Q289" t="n">
         <v>19.1353333333333</v>
-      </c>
-      <c r="Q289" t="n">
-        <v>19.9176666666667</v>
       </c>
       <c r="R289" t="n">
         <v>0.6115</v>
@@ -16636,10 +16636,10 @@
         <v>0.632333333333332</v>
       </c>
       <c r="P290" t="n">
+        <v>20.1353333333333</v>
+      </c>
+      <c r="Q290" t="n">
         <v>19.503</v>
-      </c>
-      <c r="Q290" t="n">
-        <v>20.1353333333333</v>
       </c>
       <c r="R290" t="n">
         <v>0.70875</v>
@@ -16692,10 +16692,10 @@
         <v>0.335333333333335</v>
       </c>
       <c r="P291" t="n">
+        <v>20.3176666666667</v>
+      </c>
+      <c r="Q291" t="n">
         <v>19.9823333333333</v>
-      </c>
-      <c r="Q291" t="n">
-        <v>20.3176666666667</v>
       </c>
       <c r="R291" t="n">
         <v>0.806</v>
@@ -16748,10 +16748,10 @@
         <v>0.635333333333335</v>
       </c>
       <c r="P292" t="n">
+        <v>20.3323333333333</v>
+      </c>
+      <c r="Q292" t="n">
         <v>19.697</v>
-      </c>
-      <c r="Q292" t="n">
-        <v>20.3323333333333</v>
       </c>
       <c r="R292" t="n">
         <v>0.60725</v>
@@ -16804,10 +16804,10 @@
         <v>0.917666666666669</v>
       </c>
       <c r="P293" t="n">
+        <v>20.2823333333333</v>
+      </c>
+      <c r="Q293" t="n">
         <v>19.3646666666667</v>
-      </c>
-      <c r="Q293" t="n">
-        <v>20.2823333333333</v>
       </c>
       <c r="R293" t="n">
         <v>0.4085</v>
@@ -16860,10 +16860,10 @@
         <v>1</v>
       </c>
       <c r="P294" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="Q294" t="n">
         <v>19.2</v>
-      </c>
-      <c r="Q294" t="n">
-        <v>20.2</v>
       </c>
       <c r="R294" t="n">
         <v>0.20975</v>
@@ -16916,10 +16916,10 @@
         <v>1.01766666666667</v>
       </c>
       <c r="P295" t="n">
+        <v>20.1</v>
+      </c>
+      <c r="Q295" t="n">
         <v>19.0823333333333</v>
-      </c>
-      <c r="Q295" t="n">
-        <v>20.1</v>
       </c>
       <c r="R295" t="n">
         <v>0.011</v>
@@ -16972,10 +16972,10 @@
         <v>1.1</v>
       </c>
       <c r="P296" t="n">
+        <v>20.1</v>
+      </c>
+      <c r="Q296" t="n">
         <v>19</v>
-      </c>
-      <c r="Q296" t="n">
-        <v>20.1</v>
       </c>
       <c r="R296" t="n">
         <v>0.014</v>
@@ -17028,10 +17028,10 @@
         <v>1.1</v>
       </c>
       <c r="P297" t="n">
+        <v>20.0823333333333</v>
+      </c>
+      <c r="Q297" t="n">
         <v>18.9823333333333</v>
-      </c>
-      <c r="Q297" t="n">
-        <v>20.0823333333333</v>
       </c>
       <c r="R297" t="n">
         <v>0.017</v>
@@ -17084,10 +17084,10 @@
         <v>1.1</v>
       </c>
       <c r="P298" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q298" t="n">
         <v>18.9</v>
-      </c>
-      <c r="Q298" t="n">
-        <v>20</v>
       </c>
       <c r="R298" t="n">
         <v>0.02</v>
@@ -17140,10 +17140,10 @@
         <v>1.1</v>
       </c>
       <c r="P299" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="Q299" t="n">
         <v>18.8</v>
-      </c>
-      <c r="Q299" t="n">
-        <v>19.9</v>
       </c>
       <c r="R299" t="n">
         <v>0.023</v>
@@ -17196,10 +17196,10 @@
         <v>0.896999999999998</v>
       </c>
       <c r="P300" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="Q300" t="n">
         <v>19.003</v>
-      </c>
-      <c r="Q300" t="n">
-        <v>19.9</v>
       </c>
       <c r="R300" t="n">
         <v>0.2685</v>
@@ -17252,10 +17252,10 @@
         <v>0.146999999999998</v>
       </c>
       <c r="P301" t="n">
+        <v>20.0353333333333</v>
+      </c>
+      <c r="Q301" t="n">
         <v>19.8883333333333</v>
-      </c>
-      <c r="Q301" t="n">
-        <v>20.0353333333333</v>
       </c>
       <c r="R301" t="n">
         <v>0.514</v>
@@ -17308,10 +17308,10 @@
         <v>0.0353333333333303</v>
       </c>
       <c r="P302" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="Q302" t="n">
         <v>20.1646666666667</v>
-      </c>
-      <c r="Q302" t="n">
-        <v>20.2</v>
       </c>
       <c r="R302" t="n">
         <v>0.7595</v>
@@ -17364,10 +17364,10 @@
         <v>0.535333333333334</v>
       </c>
       <c r="P303" t="n">
+        <v>20.2823333333333</v>
+      </c>
+      <c r="Q303" t="n">
         <v>19.747</v>
-      </c>
-      <c r="Q303" t="n">
-        <v>20.2823333333333</v>
       </c>
       <c r="R303" t="n">
         <v>1.005</v>
@@ -17420,10 +17420,10 @@
         <v>0.767666666666667</v>
       </c>
       <c r="P304" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="Q304" t="n">
         <v>19.4323333333333</v>
-      </c>
-      <c r="Q304" t="n">
-        <v>20.2</v>
       </c>
       <c r="R304" t="n">
         <v>0.77675</v>
@@ -17476,10 +17476,10 @@
         <v>0.817666666666668</v>
       </c>
       <c r="P305" t="n">
+        <v>20.1823333333333</v>
+      </c>
+      <c r="Q305" t="n">
         <v>19.3646666666667</v>
-      </c>
-      <c r="Q305" t="n">
-        <v>20.1823333333333</v>
       </c>
       <c r="R305" t="n">
         <v>0.5485</v>
@@ -17532,10 +17532,10 @@
         <v>0.967666666666666</v>
       </c>
       <c r="P306" t="n">
+        <v>20.1676666666667</v>
+      </c>
+      <c r="Q306" t="n">
         <v>19.2</v>
-      </c>
-      <c r="Q306" t="n">
-        <v>20.1676666666667</v>
       </c>
       <c r="R306" t="n">
         <v>0.32025</v>
@@ -17588,10 +17588,10 @@
         <v>1</v>
       </c>
       <c r="P307" t="n">
+        <v>20.1</v>
+      </c>
+      <c r="Q307" t="n">
         <v>19.1</v>
-      </c>
-      <c r="Q307" t="n">
-        <v>20.1</v>
       </c>
       <c r="R307" t="n">
         <v>0.092</v>
@@ -17644,10 +17644,10 @@
         <v>1</v>
       </c>
       <c r="P308" t="n">
+        <v>20.0323333333333</v>
+      </c>
+      <c r="Q308" t="n">
         <v>19.0323333333333</v>
-      </c>
-      <c r="Q308" t="n">
-        <v>20.0323333333333</v>
       </c>
       <c r="R308" t="n">
         <v>0.09775</v>
@@ -17700,10 +17700,10 @@
         <v>1</v>
       </c>
       <c r="P309" t="n">
+        <v>20.0823333333333</v>
+      </c>
+      <c r="Q309" t="n">
         <v>19.0823333333333</v>
-      </c>
-      <c r="Q309" t="n">
-        <v>20.0823333333333</v>
       </c>
       <c r="R309" t="n">
         <v>0.1035</v>
@@ -17756,10 +17756,10 @@
         <v>1</v>
       </c>
       <c r="P310" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q310" t="n">
         <v>19</v>
-      </c>
-      <c r="Q310" t="n">
-        <v>20</v>
       </c>
       <c r="R310" t="n">
         <v>0.10925</v>
@@ -17812,10 +17812,10 @@
         <v>1</v>
       </c>
       <c r="P311" t="n">
+        <v>19.9823333333333</v>
+      </c>
+      <c r="Q311" t="n">
         <v>18.9823333333333</v>
-      </c>
-      <c r="Q311" t="n">
-        <v>19.9823333333333</v>
       </c>
       <c r="R311" t="n">
         <v>0.115</v>
@@ -17868,10 +17868,10 @@
         <v>1</v>
       </c>
       <c r="P312" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="Q312" t="n">
         <v>18.9</v>
-      </c>
-      <c r="Q312" t="n">
-        <v>19.9</v>
       </c>
       <c r="R312" t="n">
         <v>0.097</v>
@@ -17924,10 +17924,10 @@
         <v>1</v>
       </c>
       <c r="P313" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="Q313" t="n">
         <v>18.9</v>
-      </c>
-      <c r="Q313" t="n">
-        <v>19.9</v>
       </c>
       <c r="R313" t="n">
         <v>0.079</v>
@@ -17980,10 +17980,10 @@
         <v>1</v>
       </c>
       <c r="P314" t="n">
+        <v>19.8323333333333</v>
+      </c>
+      <c r="Q314" t="n">
         <v>18.8323333333333</v>
-      </c>
-      <c r="Q314" t="n">
-        <v>19.8323333333333</v>
       </c>
       <c r="R314" t="n">
         <v>0.061</v>
@@ -18036,10 +18036,10 @@
         <v>1</v>
       </c>
       <c r="P315" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="Q315" t="n">
         <v>18.8</v>
-      </c>
-      <c r="Q315" t="n">
-        <v>19.8</v>
       </c>
       <c r="R315" t="n">
         <v>0.043</v>
@@ -18092,10 +18092,10 @@
         <v>1</v>
       </c>
       <c r="P316" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="Q316" t="n">
         <v>18.8</v>
-      </c>
-      <c r="Q316" t="n">
-        <v>19.8</v>
       </c>
       <c r="R316" t="n">
         <v>0.0385</v>
@@ -18148,10 +18148,10 @@
         <v>1</v>
       </c>
       <c r="P317" t="n">
+        <v>19.7</v>
+      </c>
+      <c r="Q317" t="n">
         <v>18.7</v>
-      </c>
-      <c r="Q317" t="n">
-        <v>19.7</v>
       </c>
       <c r="R317" t="n">
         <v>0.034</v>
@@ -18204,10 +18204,10 @@
         <v>1</v>
       </c>
       <c r="P318" t="n">
+        <v>19.7</v>
+      </c>
+      <c r="Q318" t="n">
         <v>18.7</v>
-      </c>
-      <c r="Q318" t="n">
-        <v>19.7</v>
       </c>
       <c r="R318" t="n">
         <v>0.0295</v>
@@ -18260,10 +18260,10 @@
         <v>1</v>
       </c>
       <c r="P319" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="Q319" t="n">
         <v>18.6</v>
-      </c>
-      <c r="Q319" t="n">
-        <v>19.6</v>
       </c>
       <c r="R319" t="n">
         <v>0.025</v>
@@ -18316,10 +18316,10 @@
         <v>1</v>
       </c>
       <c r="P320" t="n">
+        <v>19.5323333333333</v>
+      </c>
+      <c r="Q320" t="n">
         <v>18.5323333333333</v>
-      </c>
-      <c r="Q320" t="n">
-        <v>19.5323333333333</v>
       </c>
       <c r="R320" t="n">
         <v>0.01925</v>
@@ -18372,10 +18372,10 @@
         <v>1</v>
       </c>
       <c r="P321" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="Q321" t="n">
         <v>18.5</v>
-      </c>
-      <c r="Q321" t="n">
-        <v>19.5</v>
       </c>
       <c r="R321" t="n">
         <v>0.0135</v>
@@ -18428,10 +18428,10 @@
         <v>1</v>
       </c>
       <c r="P322" t="n">
+        <v>19.4323333333333</v>
+      </c>
+      <c r="Q322" t="n">
         <v>18.4323333333333</v>
-      </c>
-      <c r="Q322" t="n">
-        <v>19.4323333333333</v>
       </c>
       <c r="R322" t="n">
         <v>0.00775</v>
@@ -18484,10 +18484,10 @@
         <v>1</v>
       </c>
       <c r="P323" t="n">
+        <v>19.3823333333333</v>
+      </c>
+      <c r="Q323" t="n">
         <v>18.3823333333333</v>
-      </c>
-      <c r="Q323" t="n">
-        <v>19.3823333333333</v>
       </c>
       <c r="R323" t="n">
         <v>0.002</v>
@@ -18540,10 +18540,10 @@
         <v>1</v>
       </c>
       <c r="P324" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="Q324" t="n">
         <v>18.3</v>
-      </c>
-      <c r="Q324" t="n">
-        <v>19.3</v>
       </c>
       <c r="R324" t="n">
         <v>0.0075</v>
@@ -18596,10 +18596,10 @@
         <v>1</v>
       </c>
       <c r="P325" t="n">
+        <v>19.2823333333333</v>
+      </c>
+      <c r="Q325" t="n">
         <v>18.2823333333333</v>
-      </c>
-      <c r="Q325" t="n">
-        <v>19.2823333333333</v>
       </c>
       <c r="R325" t="n">
         <v>0.013</v>
@@ -18652,10 +18652,10 @@
         <v>1</v>
       </c>
       <c r="P326" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="Q326" t="n">
         <v>18.2</v>
-      </c>
-      <c r="Q326" t="n">
-        <v>19.2</v>
       </c>
       <c r="R326" t="n">
         <v>0.0185</v>
@@ -18708,10 +18708,10 @@
         <v>1</v>
       </c>
       <c r="P327" t="n">
+        <v>19.1823333333333</v>
+      </c>
+      <c r="Q327" t="n">
         <v>18.1823333333333</v>
-      </c>
-      <c r="Q327" t="n">
-        <v>19.1823333333333</v>
       </c>
       <c r="R327" t="n">
         <v>0.024</v>
@@ -18764,10 +18764,10 @@
         <v>1</v>
       </c>
       <c r="P328" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="Q328" t="n">
         <v>18.1</v>
-      </c>
-      <c r="Q328" t="n">
-        <v>19.1</v>
       </c>
       <c r="R328" t="n">
         <v>0.035</v>
@@ -18820,10 +18820,10 @@
         <v>1</v>
       </c>
       <c r="P329" t="n">
+        <v>19</v>
+      </c>
+      <c r="Q329" t="n">
         <v>18</v>
-      </c>
-      <c r="Q329" t="n">
-        <v>19</v>
       </c>
       <c r="R329" t="n">
         <v>0.046</v>
@@ -18876,10 +18876,10 @@
         <v>1</v>
       </c>
       <c r="P330" t="n">
+        <v>19</v>
+      </c>
+      <c r="Q330" t="n">
         <v>18</v>
-      </c>
-      <c r="Q330" t="n">
-        <v>19</v>
       </c>
       <c r="R330" t="n">
         <v>0.057</v>
@@ -18932,10 +18932,10 @@
         <v>1</v>
       </c>
       <c r="P331" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="Q331" t="n">
         <v>17.9</v>
-      </c>
-      <c r="Q331" t="n">
-        <v>18.9</v>
       </c>
       <c r="R331" t="n">
         <v>0.068</v>
@@ -18988,10 +18988,10 @@
         <v>1</v>
       </c>
       <c r="P332" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="Q332" t="n">
         <v>17.9</v>
-      </c>
-      <c r="Q332" t="n">
-        <v>18.9</v>
       </c>
       <c r="R332" t="n">
         <v>0.05575</v>
@@ -19044,10 +19044,10 @@
         <v>1</v>
       </c>
       <c r="P333" t="n">
+        <v>18.8823333333333</v>
+      </c>
+      <c r="Q333" t="n">
         <v>17.8823333333333</v>
-      </c>
-      <c r="Q333" t="n">
-        <v>18.8823333333333</v>
       </c>
       <c r="R333" t="n">
         <v>0.0435</v>
@@ -19100,10 +19100,10 @@
         <v>1</v>
       </c>
       <c r="P334" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="Q334" t="n">
         <v>17.8</v>
-      </c>
-      <c r="Q334" t="n">
-        <v>18.8</v>
       </c>
       <c r="R334" t="n">
         <v>0.03125</v>
@@ -19156,10 +19156,10 @@
         <v>1</v>
       </c>
       <c r="P335" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="Q335" t="n">
         <v>17.8</v>
-      </c>
-      <c r="Q335" t="n">
-        <v>18.8</v>
       </c>
       <c r="R335" t="n">
         <v>0.019</v>
@@ -19212,10 +19212,10 @@
         <v>1</v>
       </c>
       <c r="P336" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="Q336" t="n">
         <v>17.8</v>
-      </c>
-      <c r="Q336" t="n">
-        <v>18.8</v>
       </c>
       <c r="R336" t="n">
         <v>0.03</v>
@@ -19268,10 +19268,10 @@
         <v>1</v>
       </c>
       <c r="P337" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="Q337" t="n">
         <v>17.7</v>
-      </c>
-      <c r="Q337" t="n">
-        <v>18.7</v>
       </c>
       <c r="R337" t="n">
         <v>0.041</v>
@@ -19324,10 +19324,10 @@
         <v>1</v>
       </c>
       <c r="P338" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="Q338" t="n">
         <v>17.7</v>
-      </c>
-      <c r="Q338" t="n">
-        <v>18.7</v>
       </c>
       <c r="R338" t="n">
         <v>0.052</v>
@@ -19380,10 +19380,10 @@
         <v>1</v>
       </c>
       <c r="P339" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="Q339" t="n">
         <v>17.6</v>
-      </c>
-      <c r="Q339" t="n">
-        <v>18.6</v>
       </c>
       <c r="R339" t="n">
         <v>0.063</v>
@@ -19436,10 +19436,10 @@
         <v>0.729333333333333</v>
       </c>
       <c r="P340" t="n">
+        <v>18.7353333333333</v>
+      </c>
+      <c r="Q340" t="n">
         <v>18.006</v>
-      </c>
-      <c r="Q340" t="n">
-        <v>18.7353333333333</v>
       </c>
       <c r="R340" t="n">
         <v>0.6145</v>
@@ -19492,10 +19492,10 @@
         <v>0.0116666666666667</v>
       </c>
       <c r="P341" t="n">
+        <v>19.0353333333333</v>
+      </c>
+      <c r="Q341" t="n">
         <v>19.0236666666667</v>
-      </c>
-      <c r="Q341" t="n">
-        <v>19.0353333333333</v>
       </c>
       <c r="R341" t="n">
         <v>1.166</v>
@@ -19548,10 +19548,10 @@
         <v>0.535333333333337</v>
       </c>
       <c r="P342" t="n">
+        <v>19.3353333333333</v>
+      </c>
+      <c r="Q342" t="n">
         <v>19.8706666666667</v>
-      </c>
-      <c r="Q342" t="n">
-        <v>19.3353333333333</v>
       </c>
       <c r="R342" t="n">
         <v>1.7175</v>
@@ -19604,10 +19604,10 @@
         <v>0.699999999999999</v>
       </c>
       <c r="P343" t="n">
+        <v>19.7353333333333</v>
+      </c>
+      <c r="Q343" t="n">
         <v>20.4353333333333</v>
-      </c>
-      <c r="Q343" t="n">
-        <v>19.7353333333333</v>
       </c>
       <c r="R343" t="n">
         <v>2.269</v>
@@ -19660,10 +19660,10 @@
         <v>0.226333333333333</v>
       </c>
       <c r="P344" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="Q344" t="n">
         <v>20.1263333333333</v>
-      </c>
-      <c r="Q344" t="n">
-        <v>19.9</v>
       </c>
       <c r="R344" t="n">
         <v>1.7935</v>
@@ -19716,10 +19716,10 @@
         <v>0.317666666666664</v>
       </c>
       <c r="P345" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="Q345" t="n">
         <v>19.5823333333333</v>
-      </c>
-      <c r="Q345" t="n">
-        <v>19.9</v>
       </c>
       <c r="R345" t="n">
         <v>1.318</v>
@@ -19772,10 +19772,10 @@
         <v>0.535333333333334</v>
       </c>
       <c r="P346" t="n">
+        <v>19.9676666666667</v>
+      </c>
+      <c r="Q346" t="n">
         <v>19.4323333333333</v>
-      </c>
-      <c r="Q346" t="n">
-        <v>19.9676666666667</v>
       </c>
       <c r="R346" t="n">
         <v>0.8425</v>
@@ -19828,10 +19828,10 @@
         <v>0.164666666666669</v>
       </c>
       <c r="P347" t="n">
+        <v>19.047</v>
+      </c>
+      <c r="Q347" t="n">
         <v>18.8823333333333</v>
-      </c>
-      <c r="Q347" t="n">
-        <v>19.047</v>
       </c>
       <c r="R347" t="n">
         <v>0.367</v>
@@ -19884,10 +19884,10 @@
         <v>0.0676666666666677</v>
       </c>
       <c r="P348" t="n">
+        <v>18.597</v>
+      </c>
+      <c r="Q348" t="n">
         <v>18.6646666666667</v>
-      </c>
-      <c r="Q348" t="n">
-        <v>18.597</v>
       </c>
       <c r="R348" t="n">
         <v>0.301</v>
@@ -19940,10 +19940,10 @@
         <v>0.217666666666666</v>
       </c>
       <c r="P349" t="n">
+        <v>18.1646666666667</v>
+      </c>
+      <c r="Q349" t="n">
         <v>18.3823333333333</v>
-      </c>
-      <c r="Q349" t="n">
-        <v>18.1646666666667</v>
       </c>
       <c r="R349" t="n">
         <v>0.235</v>
@@ -19996,10 +19996,10 @@
         <v>0.106000000000002</v>
       </c>
       <c r="P350" t="n">
+        <v>18.3383333333333</v>
+      </c>
+      <c r="Q350" t="n">
         <v>18.2323333333333</v>
-      </c>
-      <c r="Q350" t="n">
-        <v>18.3383333333333</v>
       </c>
       <c r="R350" t="n">
         <v>0.169</v>
@@ -20052,10 +20052,10 @@
         <v>0.400000000000002</v>
       </c>
       <c r="P351" t="n">
+        <v>18.6176666666667</v>
+      </c>
+      <c r="Q351" t="n">
         <v>18.2176666666667</v>
-      </c>
-      <c r="Q351" t="n">
-        <v>18.6176666666667</v>
       </c>
       <c r="R351" t="n">
         <v>0.103</v>
@@ -20108,10 +20108,10 @@
         <v>0.467666666666666</v>
       </c>
       <c r="P352" t="n">
+        <v>18.7676666666667</v>
+      </c>
+      <c r="Q352" t="n">
         <v>18.3</v>
-      </c>
-      <c r="Q352" t="n">
-        <v>18.7676666666667</v>
       </c>
       <c r="R352" t="n">
         <v>0.10625</v>
@@ -20164,10 +20164,10 @@
         <v>0.482333333333333</v>
       </c>
       <c r="P353" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="Q353" t="n">
         <v>18.4176666666667</v>
-      </c>
-      <c r="Q353" t="n">
-        <v>18.9</v>
       </c>
       <c r="R353" t="n">
         <v>0.1095</v>
@@ -20220,10 +20220,10 @@
         <v>0.467666666666666</v>
       </c>
       <c r="P354" t="n">
+        <v>19.0353333333333</v>
+      </c>
+      <c r="Q354" t="n">
         <v>18.5676666666667</v>
-      </c>
-      <c r="Q354" t="n">
-        <v>19.0353333333333</v>
       </c>
       <c r="R354" t="n">
         <v>0.11275</v>
@@ -20276,10 +20276,10 @@
         <v>0.482333333333333</v>
       </c>
       <c r="P355" t="n">
+        <v>19.253</v>
+      </c>
+      <c r="Q355" t="n">
         <v>18.7706666666667</v>
-      </c>
-      <c r="Q355" t="n">
-        <v>19.253</v>
       </c>
       <c r="R355" t="n">
         <v>0.116</v>
@@ -20332,10 +20332,10 @@
         <v>0.00600000000000023</v>
       </c>
       <c r="P356" t="n">
+        <v>19.8383333333333</v>
+      </c>
+      <c r="Q356" t="n">
         <v>19.8443333333333</v>
-      </c>
-      <c r="Q356" t="n">
-        <v>19.8383333333333</v>
       </c>
       <c r="R356" t="n">
         <v>0.32775</v>
@@ -20388,10 +20388,10 @@
         <v>0.564666666666664</v>
       </c>
       <c r="P357" t="n">
+        <v>20.2823333333333</v>
+      </c>
+      <c r="Q357" t="n">
         <v>20.847</v>
-      </c>
-      <c r="Q357" t="n">
-        <v>20.2823333333333</v>
       </c>
       <c r="R357" t="n">
         <v>0.5395</v>
@@ -20444,10 +20444,10 @@
         <v>0.399999999999999</v>
       </c>
       <c r="P358" t="n">
+        <v>20.2676666666667</v>
+      </c>
+      <c r="Q358" t="n">
         <v>20.6676666666667</v>
-      </c>
-      <c r="Q358" t="n">
-        <v>20.2676666666667</v>
       </c>
       <c r="R358" t="n">
         <v>0.75125</v>
@@ -20500,10 +20500,10 @@
         <v>0.0823333333333345</v>
       </c>
       <c r="P359" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="Q359" t="n">
         <v>20.4823333333333</v>
-      </c>
-      <c r="Q359" t="n">
-        <v>20.4</v>
       </c>
       <c r="R359" t="n">
         <v>0.963</v>
@@ -20556,10 +20556,10 @@
         <v>0.135333333333332</v>
       </c>
       <c r="P360" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="Q360" t="n">
         <v>20.2646666666667</v>
-      </c>
-      <c r="Q360" t="n">
-        <v>20.4</v>
       </c>
       <c r="R360" t="n">
         <v>0.734</v>
@@ -20612,10 +20612,10 @@
         <v>0.235333333333333</v>
       </c>
       <c r="P361" t="n">
+        <v>20.3823333333333</v>
+      </c>
+      <c r="Q361" t="n">
         <v>20.147</v>
-      </c>
-      <c r="Q361" t="n">
-        <v>20.3823333333333</v>
       </c>
       <c r="R361" t="n">
         <v>0.505</v>
@@ -20668,10 +20668,10 @@
         <v>0.400000000000002</v>
       </c>
       <c r="P362" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="Q362" t="n">
         <v>19.9</v>
-      </c>
-      <c r="Q362" t="n">
-        <v>20.3</v>
       </c>
       <c r="R362" t="n">
         <v>0.276</v>
@@ -20724,10 +20724,10 @@
         <v>0.617666666666668</v>
       </c>
       <c r="P363" t="n">
+        <v>20.3353333333333</v>
+      </c>
+      <c r="Q363" t="n">
         <v>19.7176666666667</v>
-      </c>
-      <c r="Q363" t="n">
-        <v>20.3353333333333</v>
       </c>
       <c r="R363" t="n">
         <v>0.047</v>
@@ -20780,10 +20780,10 @@
         <v>0.700000000000003</v>
       </c>
       <c r="P364" t="n">
+        <v>20.5676666666667</v>
+      </c>
+      <c r="Q364" t="n">
         <v>19.8676666666667</v>
-      </c>
-      <c r="Q364" t="n">
-        <v>20.5676666666667</v>
       </c>
       <c r="R364" t="n">
         <v>0.2235</v>
@@ -20836,10 +20836,10 @@
         <v>0.600000000000001</v>
       </c>
       <c r="P365" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="Q365" t="n">
         <v>20</v>
-      </c>
-      <c r="Q365" t="n">
-        <v>20.6</v>
       </c>
       <c r="R365" t="n">
         <v>0.4</v>
@@ -20892,10 +20892,10 @@
         <v>0.667666666666666</v>
       </c>
       <c r="P366" t="n">
+        <v>20.6676666666667</v>
+      </c>
+      <c r="Q366" t="n">
         <v>20</v>
-      </c>
-      <c r="Q366" t="n">
-        <v>20.6676666666667</v>
       </c>
       <c r="R366" t="n">
         <v>0.5765</v>
@@ -20948,10 +20948,10 @@
         <v>0.699999999999999</v>
       </c>
       <c r="P367" t="n">
+        <v>20.8176666666667</v>
+      </c>
+      <c r="Q367" t="n">
         <v>20.1176666666667</v>
-      </c>
-      <c r="Q367" t="n">
-        <v>20.8176666666667</v>
       </c>
       <c r="R367" t="n">
         <v>0.753</v>
@@ -21004,10 +21004,10 @@
         <v>0.699999999999999</v>
       </c>
       <c r="P368" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="Q368" t="n">
         <v>20.2</v>
-      </c>
-      <c r="Q368" t="n">
-        <v>20.9</v>
       </c>
       <c r="R368" t="n">
         <v>0.81825</v>
@@ -21060,10 +21060,10 @@
         <v>0.764666666666663</v>
       </c>
       <c r="P369" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="Q369" t="n">
         <v>20.1353333333333</v>
-      </c>
-      <c r="Q369" t="n">
-        <v>20.9</v>
       </c>
       <c r="R369" t="n">
         <v>0.8835</v>
@@ -21116,10 +21116,10 @@
         <v>0.667666666666666</v>
       </c>
       <c r="P370" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="Q370" t="n">
         <v>20.2323333333333</v>
-      </c>
-      <c r="Q370" t="n">
-        <v>20.9</v>
       </c>
       <c r="R370" t="n">
         <v>0.94875</v>
@@ -21172,10 +21172,10 @@
         <v>0.817666666666664</v>
       </c>
       <c r="P371" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="Q371" t="n">
         <v>20.0823333333333</v>
-      </c>
-      <c r="Q371" t="n">
-        <v>20.9</v>
       </c>
       <c r="R371" t="n">
         <v>1.014</v>
@@ -21228,10 +21228,10 @@
         <v>0.832333333333334</v>
       </c>
       <c r="P372" t="n">
+        <v>20.8323333333333</v>
+      </c>
+      <c r="Q372" t="n">
         <v>20</v>
-      </c>
-      <c r="Q372" t="n">
-        <v>20.8323333333333</v>
       </c>
       <c r="R372" t="n">
         <v>0.80725</v>
@@ -21284,10 +21284,10 @@
         <v>0.800000000000001</v>
       </c>
       <c r="P373" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="Q373" t="n">
         <v>20</v>
-      </c>
-      <c r="Q373" t="n">
-        <v>20.8</v>
       </c>
       <c r="R373" t="n">
         <v>0.6005</v>
@@ -21340,10 +21340,10 @@
         <v>0.800000000000001</v>
       </c>
       <c r="P374" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="Q374" t="n">
         <v>20</v>
-      </c>
-      <c r="Q374" t="n">
-        <v>20.8</v>
       </c>
       <c r="R374" t="n">
         <v>0.39375</v>
@@ -21396,10 +21396,10 @@
         <v>0.800000000000001</v>
       </c>
       <c r="P375" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="Q375" t="n">
         <v>20</v>
-      </c>
-      <c r="Q375" t="n">
-        <v>20.8</v>
       </c>
       <c r="R375" t="n">
         <v>0.187</v>
@@ -21452,10 +21452,10 @@
         <v>0.800000000000001</v>
       </c>
       <c r="P376" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="Q376" t="n">
         <v>20</v>
-      </c>
-      <c r="Q376" t="n">
-        <v>20.8</v>
       </c>
       <c r="R376" t="n">
         <v>0.15275</v>
@@ -21508,10 +21508,10 @@
         <v>0.800000000000001</v>
       </c>
       <c r="P377" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="Q377" t="n">
         <v>20</v>
-      </c>
-      <c r="Q377" t="n">
-        <v>20.8</v>
       </c>
       <c r="R377" t="n">
         <v>0.1185</v>
@@ -21564,10 +21564,10 @@
         <v>0.800000000000001</v>
       </c>
       <c r="P378" t="n">
+        <v>20.7323333333333</v>
+      </c>
+      <c r="Q378" t="n">
         <v>19.9323333333333</v>
-      </c>
-      <c r="Q378" t="n">
-        <v>20.7323333333333</v>
       </c>
       <c r="R378" t="n">
         <v>0.08425</v>
@@ -21620,10 +21620,10 @@
         <v>0.800000000000001</v>
       </c>
       <c r="P379" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="Q379" t="n">
         <v>19.8</v>
-      </c>
-      <c r="Q379" t="n">
-        <v>20.6</v>
       </c>
       <c r="R379" t="n">
         <v>0.05</v>
@@ -21676,10 +21676,10 @@
         <v>0.800000000000001</v>
       </c>
       <c r="P380" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="Q380" t="n">
         <v>19.8</v>
-      </c>
-      <c r="Q380" t="n">
-        <v>20.6</v>
       </c>
       <c r="R380" t="n">
         <v>0.043</v>
@@ -21732,10 +21732,10 @@
         <v>0.817666666666668</v>
       </c>
       <c r="P381" t="n">
+        <v>20.5176666666667</v>
+      </c>
+      <c r="Q381" t="n">
         <v>19.7</v>
-      </c>
-      <c r="Q381" t="n">
-        <v>20.5176666666667</v>
       </c>
       <c r="R381" t="n">
         <v>0.036</v>
@@ -21788,10 +21788,10 @@
         <v>0.832333333333334</v>
       </c>
       <c r="P382" t="n">
+        <v>20.5323333333333</v>
+      </c>
+      <c r="Q382" t="n">
         <v>19.7</v>
-      </c>
-      <c r="Q382" t="n">
-        <v>20.5323333333333</v>
       </c>
       <c r="R382" t="n">
         <v>0.029</v>
@@ -21844,10 +21844,10 @@
         <v>0.800000000000001</v>
       </c>
       <c r="P383" t="n">
+        <v>20.4823333333333</v>
+      </c>
+      <c r="Q383" t="n">
         <v>19.6823333333333</v>
-      </c>
-      <c r="Q383" t="n">
-        <v>20.4823333333333</v>
       </c>
       <c r="R383" t="n">
         <v>0.022</v>
@@ -21900,10 +21900,10 @@
         <v>0.799999999999997</v>
       </c>
       <c r="P384" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="Q384" t="n">
         <v>19.6</v>
-      </c>
-      <c r="Q384" t="n">
-        <v>20.4</v>
       </c>
       <c r="R384" t="n">
         <v>0.296</v>
@@ -21956,10 +21956,10 @@
         <v>0.799999999999997</v>
       </c>
       <c r="P385" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="Q385" t="n">
         <v>19.6</v>
-      </c>
-      <c r="Q385" t="n">
-        <v>20.4</v>
       </c>
       <c r="R385" t="n">
         <v>0.57</v>
@@ -22012,10 +22012,10 @@
         <v>0.799999999999997</v>
       </c>
       <c r="P386" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="Q386" t="n">
         <v>19.6</v>
-      </c>
-      <c r="Q386" t="n">
-        <v>20.4</v>
       </c>
       <c r="R386" t="n">
         <v>0.844</v>
@@ -22068,10 +22068,10 @@
         <v>0.699999999999999</v>
       </c>
       <c r="P387" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="Q387" t="n">
         <v>19.7</v>
-      </c>
-      <c r="Q387" t="n">
-        <v>20.4</v>
       </c>
       <c r="R387" t="n">
         <v>1.118</v>
@@ -22124,10 +22124,10 @@
         <v>0.767666666666663</v>
       </c>
       <c r="P388" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="Q388" t="n">
         <v>19.6323333333333</v>
-      </c>
-      <c r="Q388" t="n">
-        <v>20.4</v>
       </c>
       <c r="R388" t="n">
         <v>0.943</v>
@@ -22180,10 +22180,10 @@
         <v>0.78233333333333</v>
       </c>
       <c r="P389" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="Q389" t="n">
         <v>19.6176666666667</v>
-      </c>
-      <c r="Q389" t="n">
-        <v>20.4</v>
       </c>
       <c r="R389" t="n">
         <v>0.768</v>
@@ -22236,10 +22236,10 @@
         <v>0.632333333333335</v>
       </c>
       <c r="P390" t="n">
+        <v>20.4676666666667</v>
+      </c>
+      <c r="Q390" t="n">
         <v>19.8353333333333</v>
-      </c>
-      <c r="Q390" t="n">
-        <v>20.4676666666667</v>
       </c>
       <c r="R390" t="n">
         <v>0.593</v>
@@ -22292,10 +22292,10 @@
         <v>0.5</v>
       </c>
       <c r="P391" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="Q391" t="n">
         <v>19.9</v>
-      </c>
-      <c r="Q391" t="n">
-        <v>20.4</v>
       </c>
       <c r="R391" t="n">
         <v>0.418</v>
@@ -22348,10 +22348,10 @@
         <v>0.5</v>
       </c>
       <c r="P392" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="Q392" t="n">
         <v>19.9</v>
-      </c>
-      <c r="Q392" t="n">
-        <v>20.4</v>
       </c>
       <c r="R392" t="n">
         <v>0.338</v>
@@ -22404,10 +22404,10 @@
         <v>0.399999999999999</v>
       </c>
       <c r="P393" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="Q393" t="n">
         <v>20</v>
-      </c>
-      <c r="Q393" t="n">
-        <v>20.4</v>
       </c>
       <c r="R393" t="n">
         <v>0.258</v>
@@ -22460,10 +22460,10 @@
         <v>0.399999999999999</v>
       </c>
       <c r="P394" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="Q394" t="n">
         <v>20</v>
-      </c>
-      <c r="Q394" t="n">
-        <v>20.4</v>
       </c>
       <c r="R394" t="n">
         <v>0.178</v>
@@ -22516,10 +22516,10 @@
         <v>0.399999999999999</v>
       </c>
       <c r="P395" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="Q395" t="n">
         <v>20</v>
-      </c>
-      <c r="Q395" t="n">
-        <v>20.4</v>
       </c>
       <c r="R395" t="n">
         <v>0.098</v>
@@ -22572,10 +22572,10 @@
         <v>0.467666666666666</v>
       </c>
       <c r="P396" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="Q396" t="n">
         <v>19.9323333333333</v>
-      </c>
-      <c r="Q396" t="n">
-        <v>20.4</v>
       </c>
       <c r="R396" t="n">
         <v>0.1255</v>
@@ -22628,10 +22628,10 @@
         <v>0.517666666666667</v>
       </c>
       <c r="P397" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="Q397" t="n">
         <v>19.7823333333333</v>
-      </c>
-      <c r="Q397" t="n">
-        <v>20.3</v>
       </c>
       <c r="R397" t="n">
         <v>0.153</v>
@@ -22684,10 +22684,10 @@
         <v>0.600000000000001</v>
       </c>
       <c r="P398" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="Q398" t="n">
         <v>19.7</v>
-      </c>
-      <c r="Q398" t="n">
-        <v>20.3</v>
       </c>
       <c r="R398" t="n">
         <v>0.1805</v>
@@ -22740,10 +22740,10 @@
         <v>0.600000000000001</v>
       </c>
       <c r="P399" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="Q399" t="n">
         <v>19.7</v>
-      </c>
-      <c r="Q399" t="n">
-        <v>20.3</v>
       </c>
       <c r="R399" t="n">
         <v>0.208</v>
@@ -22796,10 +22796,10 @@
         <v>0.532333333333334</v>
       </c>
       <c r="P400" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="Q400" t="n">
         <v>19.7676666666667</v>
-      </c>
-      <c r="Q400" t="n">
-        <v>20.3</v>
       </c>
       <c r="R400" t="n">
         <v>0.1845</v>
@@ -22852,10 +22852,10 @@
         <v>0.600000000000001</v>
       </c>
       <c r="P401" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="Q401" t="n">
         <v>19.7</v>
-      </c>
-      <c r="Q401" t="n">
-        <v>20.3</v>
       </c>
       <c r="R401" t="n">
         <v>0.161</v>
@@ -22908,10 +22908,10 @@
         <v>0.600000000000001</v>
       </c>
       <c r="P402" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="Q402" t="n">
         <v>19.7</v>
-      </c>
-      <c r="Q402" t="n">
-        <v>20.3</v>
       </c>
       <c r="R402" t="n">
         <v>0.1375</v>
@@ -22964,10 +22964,10 @@
         <v>0.517666666666667</v>
       </c>
       <c r="P403" t="n">
+        <v>20.3823333333333</v>
+      </c>
+      <c r="Q403" t="n">
         <v>19.8646666666667</v>
-      </c>
-      <c r="Q403" t="n">
-        <v>20.3823333333333</v>
       </c>
       <c r="R403" t="n">
         <v>0.114</v>
@@ -23020,10 +23020,10 @@
         <v>0.600000000000001</v>
       </c>
       <c r="P404" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="Q404" t="n">
         <v>19.7</v>
-      </c>
-      <c r="Q404" t="n">
-        <v>20.3</v>
       </c>
       <c r="R404" t="n">
         <v>0.114</v>
@@ -23076,10 +23076,10 @@
         <v>0.682333333333332</v>
       </c>
       <c r="P405" t="n">
+        <v>20.2823333333333</v>
+      </c>
+      <c r="Q405" t="n">
         <v>19.6</v>
-      </c>
-      <c r="Q405" t="n">
-        <v>20.2823333333333</v>
       </c>
       <c r="R405" t="n">
         <v>0.114</v>
@@ -23132,10 +23132,10 @@
         <v>0.667666666666666</v>
       </c>
       <c r="P406" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="Q406" t="n">
         <v>19.5323333333333</v>
-      </c>
-      <c r="Q406" t="n">
-        <v>20.2</v>
       </c>
       <c r="R406" t="n">
         <v>0.114</v>
@@ -23188,10 +23188,10 @@
         <v>0.699999999999999</v>
       </c>
       <c r="P407" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="Q407" t="n">
         <v>19.5</v>
-      </c>
-      <c r="Q407" t="n">
-        <v>20.2</v>
       </c>
       <c r="R407" t="n">
         <v>0.114</v>
@@ -23244,10 +23244,10 @@
         <v>0.632333333333335</v>
       </c>
       <c r="P408" t="n">
+        <v>20.0646666666667</v>
+      </c>
+      <c r="Q408" t="n">
         <v>19.4323333333333</v>
-      </c>
-      <c r="Q408" t="n">
-        <v>20.0646666666667</v>
       </c>
       <c r="R408" t="n">
         <v>0.09025</v>
@@ -23300,10 +23300,10 @@
         <v>0.617666666666668</v>
       </c>
       <c r="P409" t="n">
+        <v>20.0176666666667</v>
+      </c>
+      <c r="Q409" t="n">
         <v>19.4</v>
-      </c>
-      <c r="Q409" t="n">
-        <v>20.0176666666667</v>
       </c>
       <c r="R409" t="n">
         <v>0.0665</v>
@@ -23356,10 +23356,10 @@
         <v>0.632333333333335</v>
       </c>
       <c r="P410" t="n">
+        <v>20.0323333333333</v>
+      </c>
+      <c r="Q410" t="n">
         <v>19.4</v>
-      </c>
-      <c r="Q410" t="n">
-        <v>20.0323333333333</v>
       </c>
       <c r="R410" t="n">
         <v>0.04275</v>
@@ -23412,10 +23412,10 @@
         <v>0.717666666666666</v>
       </c>
       <c r="P411" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q411" t="n">
         <v>19.2823333333333</v>
-      </c>
-      <c r="Q411" t="n">
-        <v>20</v>
       </c>
       <c r="R411" t="n">
         <v>0.019</v>
@@ -23468,10 +23468,10 @@
         <v>0.800000000000001</v>
       </c>
       <c r="P412" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q412" t="n">
         <v>19.2</v>
-      </c>
-      <c r="Q412" t="n">
-        <v>20</v>
       </c>
       <c r="R412" t="n">
         <v>0.02425</v>
@@ -23524,10 +23524,10 @@
         <v>0.800000000000001</v>
       </c>
       <c r="P413" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q413" t="n">
         <v>19.2</v>
-      </c>
-      <c r="Q413" t="n">
-        <v>20</v>
       </c>
       <c r="R413" t="n">
         <v>0.0295</v>
@@ -23580,10 +23580,10 @@
         <v>0.732333333333333</v>
       </c>
       <c r="P414" t="n">
+        <v>19.8646666666667</v>
+      </c>
+      <c r="Q414" t="n">
         <v>19.1323333333333</v>
-      </c>
-      <c r="Q414" t="n">
-        <v>19.8646666666667</v>
       </c>
       <c r="R414" t="n">
         <v>0.03475</v>
@@ -23636,10 +23636,10 @@
         <v>0.717666666666666</v>
       </c>
       <c r="P415" t="n">
+        <v>19.8176666666667</v>
+      </c>
+      <c r="Q415" t="n">
         <v>19.1</v>
-      </c>
-      <c r="Q415" t="n">
-        <v>19.8176666666667</v>
       </c>
       <c r="R415" t="n">
         <v>0.04</v>
@@ -23692,10 +23692,10 @@
         <v>0.732333333333333</v>
       </c>
       <c r="P416" t="n">
+        <v>19.7646666666667</v>
+      </c>
+      <c r="Q416" t="n">
         <v>19.0323333333333</v>
-      </c>
-      <c r="Q416" t="n">
-        <v>19.7646666666667</v>
       </c>
       <c r="R416" t="n">
         <v>0.03275</v>
@@ -23748,10 +23748,10 @@
         <v>0.699999999999999</v>
       </c>
       <c r="P417" t="n">
+        <v>19.7</v>
+      </c>
+      <c r="Q417" t="n">
         <v>19</v>
-      </c>
-      <c r="Q417" t="n">
-        <v>19.7</v>
       </c>
       <c r="R417" t="n">
         <v>0.0255</v>
@@ -23804,10 +23804,10 @@
         <v>0.767666666666667</v>
       </c>
       <c r="P418" t="n">
+        <v>19.7676666666667</v>
+      </c>
+      <c r="Q418" t="n">
         <v>19</v>
-      </c>
-      <c r="Q418" t="n">
-        <v>19.7676666666667</v>
       </c>
       <c r="R418" t="n">
         <v>0.01825</v>
@@ -23860,10 +23860,10 @@
         <v>0.782333333333334</v>
       </c>
       <c r="P419" t="n">
+        <v>19.6823333333333</v>
+      </c>
+      <c r="Q419" t="n">
         <v>18.9</v>
-      </c>
-      <c r="Q419" t="n">
-        <v>19.6823333333333</v>
       </c>
       <c r="R419" t="n">
         <v>0.011</v>
@@ -23916,10 +23916,10 @@
         <v>0.700000000000003</v>
       </c>
       <c r="P420" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="Q420" t="n">
         <v>18.9</v>
-      </c>
-      <c r="Q420" t="n">
-        <v>19.6</v>
       </c>
       <c r="R420" t="n">
         <v>0.0135</v>
@@ -23972,10 +23972,10 @@
         <v>0.700000000000003</v>
       </c>
       <c r="P421" t="n">
+        <v>19.5823333333333</v>
+      </c>
+      <c r="Q421" t="n">
         <v>18.8823333333333</v>
-      </c>
-      <c r="Q421" t="n">
-        <v>19.5823333333333</v>
       </c>
       <c r="R421" t="n">
         <v>0.016</v>
@@ -24028,10 +24028,10 @@
         <v>0.699999999999999</v>
       </c>
       <c r="P422" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="Q422" t="n">
         <v>18.8</v>
-      </c>
-      <c r="Q422" t="n">
-        <v>19.5</v>
       </c>
       <c r="R422" t="n">
         <v>0.0185</v>
@@ -24084,10 +24084,10 @@
         <v>0.699999999999999</v>
       </c>
       <c r="P423" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="Q423" t="n">
         <v>18.8</v>
-      </c>
-      <c r="Q423" t="n">
-        <v>19.5</v>
       </c>
       <c r="R423" t="n">
         <v>0.021</v>
@@ -24140,10 +24140,10 @@
         <v>0.699999999999999</v>
       </c>
       <c r="P424" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="Q424" t="n">
         <v>18.8</v>
-      </c>
-      <c r="Q424" t="n">
-        <v>19.5</v>
       </c>
       <c r="R424" t="n">
         <v>0.016</v>
@@ -24196,10 +24196,10 @@
         <v>0.699999999999999</v>
       </c>
       <c r="P425" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="Q425" t="n">
         <v>18.7</v>
-      </c>
-      <c r="Q425" t="n">
-        <v>19.4</v>
       </c>
       <c r="R425" t="n">
         <v>0.011</v>
@@ -24252,10 +24252,10 @@
         <v>0.699999999999999</v>
       </c>
       <c r="P426" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="Q426" t="n">
         <v>18.7</v>
-      </c>
-      <c r="Q426" t="n">
-        <v>19.4</v>
       </c>
       <c r="R426" t="n">
         <v>0.006</v>
@@ -24308,10 +24308,10 @@
         <v>0.699999999999999</v>
       </c>
       <c r="P427" t="n">
+        <v>19.3823333333333</v>
+      </c>
+      <c r="Q427" t="n">
         <v>18.6823333333333</v>
-      </c>
-      <c r="Q427" t="n">
-        <v>19.3823333333333</v>
       </c>
       <c r="R427" t="n">
         <v>0.001</v>
@@ -24364,10 +24364,10 @@
         <v>0.699999999999999</v>
       </c>
       <c r="P428" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="Q428" t="n">
         <v>18.6</v>
-      </c>
-      <c r="Q428" t="n">
-        <v>19.3</v>
       </c>
       <c r="R428" t="n">
         <v>0.007</v>
@@ -24420,10 +24420,10 @@
         <v>0.699999999999999</v>
       </c>
       <c r="P429" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="Q429" t="n">
         <v>18.5</v>
-      </c>
-      <c r="Q429" t="n">
-        <v>19.2</v>
       </c>
       <c r="R429" t="n">
         <v>0.013</v>
@@ -24476,10 +24476,10 @@
         <v>0.699999999999999</v>
       </c>
       <c r="P430" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="Q430" t="n">
         <v>18.5</v>
-      </c>
-      <c r="Q430" t="n">
-        <v>19.2</v>
       </c>
       <c r="R430" t="n">
         <v>0.019</v>
@@ -24532,10 +24532,10 @@
         <v>0.782333333333334</v>
       </c>
       <c r="P431" t="n">
+        <v>19.1823333333333</v>
+      </c>
+      <c r="Q431" t="n">
         <v>18.4</v>
-      </c>
-      <c r="Q431" t="n">
-        <v>19.1823333333333</v>
       </c>
       <c r="R431" t="n">
         <v>0.025</v>
@@ -24588,10 +24588,10 @@
         <v>0.767666666666667</v>
       </c>
       <c r="P432" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="Q432" t="n">
         <v>18.3323333333333</v>
-      </c>
-      <c r="Q432" t="n">
-        <v>19.1</v>
       </c>
       <c r="R432" t="n">
         <v>0.0315</v>
@@ -24644,10 +24644,10 @@
         <v>0.800000000000001</v>
       </c>
       <c r="P433" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="Q433" t="n">
         <v>18.3</v>
-      </c>
-      <c r="Q433" t="n">
-        <v>19.1</v>
       </c>
       <c r="R433" t="n">
         <v>0.038</v>
@@ -24700,10 +24700,10 @@
         <v>0.800000000000001</v>
       </c>
       <c r="P434" t="n">
+        <v>19.0323333333333</v>
+      </c>
+      <c r="Q434" t="n">
         <v>18.2323333333333</v>
-      </c>
-      <c r="Q434" t="n">
-        <v>19.0323333333333</v>
       </c>
       <c r="R434" t="n">
         <v>0.0445</v>
@@ -24756,10 +24756,10 @@
         <v>0.882333333333335</v>
       </c>
       <c r="P435" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="Q435" t="n">
         <v>18.2176666666667</v>
-      </c>
-      <c r="Q435" t="n">
-        <v>19.1</v>
       </c>
       <c r="R435" t="n">
         <v>0.051</v>
@@ -24812,10 +24812,10 @@
         <v>0.52933333333333</v>
       </c>
       <c r="P436" t="n">
+        <v>19.1676666666667</v>
+      </c>
+      <c r="Q436" t="n">
         <v>18.6383333333333</v>
-      </c>
-      <c r="Q436" t="n">
-        <v>19.1676666666667</v>
       </c>
       <c r="R436" t="n">
         <v>0.538</v>
@@ -24868,10 +24868,10 @@
         <v>0.152999999999999</v>
       </c>
       <c r="P437" t="n">
+        <v>19.3706666666667</v>
+      </c>
+      <c r="Q437" t="n">
         <v>19.5236666666667</v>
-      </c>
-      <c r="Q437" t="n">
-        <v>19.3706666666667</v>
       </c>
       <c r="R437" t="n">
         <v>1.025</v>
@@ -24924,10 +24924,10 @@
         <v>0.670666666666669</v>
       </c>
       <c r="P438" t="n">
+        <v>19.8353333333333</v>
+      </c>
+      <c r="Q438" t="n">
         <v>20.506</v>
-      </c>
-      <c r="Q438" t="n">
-        <v>19.8353333333333</v>
       </c>
       <c r="R438" t="n">
         <v>1.512</v>
@@ -24980,10 +24980,10 @@
         <v>0.411666666666665</v>
       </c>
       <c r="P439" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q439" t="n">
         <v>20.4116666666667</v>
-      </c>
-      <c r="Q439" t="n">
-        <v>20</v>
       </c>
       <c r="R439" t="n">
         <v>1.999</v>
@@ -25036,10 +25036,10 @@
         <v>0.202999999999999</v>
       </c>
       <c r="P440" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q440" t="n">
         <v>19.797</v>
-      </c>
-      <c r="Q440" t="n">
-        <v>20</v>
       </c>
       <c r="R440" t="n">
         <v>1.57425</v>
@@ -25092,10 +25092,10 @@
         <v>0.317666666666668</v>
       </c>
       <c r="P441" t="n">
+        <v>20.0176666666667</v>
+      </c>
+      <c r="Q441" t="n">
         <v>19.7</v>
-      </c>
-      <c r="Q441" t="n">
-        <v>20.0176666666667</v>
       </c>
       <c r="R441" t="n">
         <v>1.1495</v>
@@ -25148,10 +25148,10 @@
         <v>0.467666666666666</v>
       </c>
       <c r="P442" t="n">
+        <v>20.1676666666667</v>
+      </c>
+      <c r="Q442" t="n">
         <v>19.7</v>
-      </c>
-      <c r="Q442" t="n">
-        <v>20.1676666666667</v>
       </c>
       <c r="R442" t="n">
         <v>0.72475</v>
@@ -25204,10 +25204,10 @@
         <v>0.199999999999999</v>
       </c>
       <c r="P443" t="n">
+        <v>19.953</v>
+      </c>
+      <c r="Q443" t="n">
         <v>19.753</v>
-      </c>
-      <c r="Q443" t="n">
-        <v>19.953</v>
       </c>
       <c r="R443" t="n">
         <v>0.3</v>
@@ -25260,10 +25260,10 @@
         <v>0.0706666666666713</v>
       </c>
       <c r="P444" t="n">
+        <v>20.3353333333333</v>
+      </c>
+      <c r="Q444" t="n">
         <v>20.406</v>
-      </c>
-      <c r="Q444" t="n">
-        <v>20.3353333333333</v>
       </c>
       <c r="R444" t="n">
         <v>0.4295</v>
@@ -25316,10 +25316,10 @@
         <v>0.0530000000000008</v>
       </c>
       <c r="P445" t="n">
+        <v>20.6176666666667</v>
+      </c>
+      <c r="Q445" t="n">
         <v>20.5646666666667</v>
-      </c>
-      <c r="Q445" t="n">
-        <v>20.6176666666667</v>
       </c>
       <c r="R445" t="n">
         <v>0.559</v>
@@ -25372,10 +25372,10 @@
         <v>0.367666666666665</v>
       </c>
       <c r="P446" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="Q446" t="n">
         <v>20.3323333333333</v>
-      </c>
-      <c r="Q446" t="n">
-        <v>20.7</v>
       </c>
       <c r="R446" t="n">
         <v>0.6885</v>
@@ -25428,10 +25428,10 @@
         <v>0.517666666666667</v>
       </c>
       <c r="P447" t="n">
+        <v>20.7176666666667</v>
+      </c>
+      <c r="Q447" t="n">
         <v>20.2</v>
-      </c>
-      <c r="Q447" t="n">
-        <v>20.7176666666667</v>
       </c>
       <c r="R447" t="n">
         <v>0.818</v>
@@ -25484,10 +25484,10 @@
         <v>0.532333333333334</v>
       </c>
       <c r="P448" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="Q448" t="n">
         <v>20.2676666666667</v>
-      </c>
-      <c r="Q448" t="n">
-        <v>20.8</v>
       </c>
       <c r="R448" t="n">
         <v>0.65625</v>
@@ -25540,10 +25540,10 @@
         <v>0.600000000000001</v>
       </c>
       <c r="P449" t="n">
+        <v>20.7823333333333</v>
+      </c>
+      <c r="Q449" t="n">
         <v>20.1823333333333</v>
-      </c>
-      <c r="Q449" t="n">
-        <v>20.7823333333333</v>
       </c>
       <c r="R449" t="n">
         <v>0.4945</v>
@@ -25596,10 +25596,10 @@
         <v>0.532333333333334</v>
       </c>
       <c r="P450" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="Q450" t="n">
         <v>20.1676666666667</v>
-      </c>
-      <c r="Q450" t="n">
-        <v>20.7</v>
       </c>
       <c r="R450" t="n">
         <v>0.33275</v>
@@ -25652,10 +25652,10 @@
         <v>0.599999999999998</v>
       </c>
       <c r="P451" t="n">
+        <v>20.8823333333333</v>
+      </c>
+      <c r="Q451" t="n">
         <v>20.2823333333333</v>
-      </c>
-      <c r="Q451" t="n">
-        <v>20.8823333333333</v>
       </c>
       <c r="R451" t="n">
         <v>0.171</v>
@@ -25708,10 +25708,10 @@
         <v>0.600000000000001</v>
       </c>
       <c r="P452" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="Q452" t="n">
         <v>20.2</v>
-      </c>
-      <c r="Q452" t="n">
-        <v>20.8</v>
       </c>
       <c r="R452" t="n">
         <v>0.148</v>
@@ -25764,10 +25764,10 @@
         <v>0.600000000000001</v>
       </c>
       <c r="P453" t="n">
+        <v>20.8176666666667</v>
+      </c>
+      <c r="Q453" t="n">
         <v>20.2176666666667</v>
-      </c>
-      <c r="Q453" t="n">
-        <v>20.8176666666667</v>
       </c>
       <c r="R453" t="n">
         <v>0.125</v>
@@ -25820,10 +25820,10 @@
         <v>0.532333333333334</v>
       </c>
       <c r="P454" t="n">
+        <v>20.8323333333333</v>
+      </c>
+      <c r="Q454" t="n">
         <v>20.3</v>
-      </c>
-      <c r="Q454" t="n">
-        <v>20.8323333333333</v>
       </c>
       <c r="R454" t="n">
         <v>0.102</v>
@@ -25876,10 +25876,10 @@
         <v>0.5</v>
       </c>
       <c r="P455" t="n">
+        <v>20.8823333333333</v>
+      </c>
+      <c r="Q455" t="n">
         <v>20.3823333333333</v>
-      </c>
-      <c r="Q455" t="n">
-        <v>20.8823333333333</v>
       </c>
       <c r="R455" t="n">
         <v>0.079</v>
@@ -25932,10 +25932,10 @@
         <v>0.5</v>
       </c>
       <c r="P456" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="Q456" t="n">
         <v>20.3</v>
-      </c>
-      <c r="Q456" t="n">
-        <v>20.8</v>
       </c>
       <c r="R456" t="n">
         <v>0.07075</v>
@@ -25988,10 +25988,10 @@
         <v>0.482333333333333</v>
       </c>
       <c r="P457" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="Q457" t="n">
         <v>20.3176666666667</v>
-      </c>
-      <c r="Q457" t="n">
-        <v>20.8</v>
       </c>
       <c r="R457" t="n">
         <v>0.0625</v>
@@ -26044,10 +26044,10 @@
         <v>0.400000000000002</v>
       </c>
       <c r="P458" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="Q458" t="n">
         <v>20.4</v>
-      </c>
-      <c r="Q458" t="n">
-        <v>20.8</v>
       </c>
       <c r="R458" t="n">
         <v>0.05425</v>
@@ -26100,10 +26100,10 @@
         <v>0.5</v>
       </c>
       <c r="P459" t="n">
+        <v>21.0176666666667</v>
+      </c>
+      <c r="Q459" t="n">
         <v>20.5176666666667</v>
-      </c>
-      <c r="Q459" t="n">
-        <v>21.0176666666667</v>
       </c>
       <c r="R459" t="n">
         <v>0.046</v>
@@ -26156,10 +26156,10 @@
         <v>0.5</v>
       </c>
       <c r="P460" t="n">
+        <v>21.1676666666667</v>
+      </c>
+      <c r="Q460" t="n">
         <v>20.6676666666667</v>
-      </c>
-      <c r="Q460" t="n">
-        <v>21.1676666666667</v>
       </c>
       <c r="R460" t="n">
         <v>0.06075</v>
@@ -26212,10 +26212,10 @@
         <v>0.382333333333335</v>
       </c>
       <c r="P461" t="n">
+        <v>21.2823333333333</v>
+      </c>
+      <c r="Q461" t="n">
         <v>20.9</v>
-      </c>
-      <c r="Q461" t="n">
-        <v>21.2823333333333</v>
       </c>
       <c r="R461" t="n">
         <v>0.0755</v>
@@ -26268,10 +26268,10 @@
         <v>0.300000000000001</v>
       </c>
       <c r="P462" t="n">
+        <v>21.1323333333333</v>
+      </c>
+      <c r="Q462" t="n">
         <v>20.8323333333333</v>
-      </c>
-      <c r="Q462" t="n">
-        <v>21.1323333333333</v>
       </c>
       <c r="R462" t="n">
         <v>0.09025</v>
@@ -26324,10 +26324,10 @@
         <v>0.317666666666668</v>
       </c>
       <c r="P463" t="n">
+        <v>21</v>
+      </c>
+      <c r="Q463" t="n">
         <v>20.6823333333333</v>
-      </c>
-      <c r="Q463" t="n">
-        <v>21</v>
       </c>
       <c r="R463" t="n">
         <v>0.105</v>
@@ -26380,10 +26380,10 @@
         <v>0.399999999999999</v>
       </c>
       <c r="P464" t="n">
+        <v>21</v>
+      </c>
+      <c r="Q464" t="n">
         <v>20.6</v>
-      </c>
-      <c r="Q464" t="n">
-        <v>21</v>
       </c>
       <c r="R464" t="n">
         <v>0.164</v>
@@ -26436,10 +26436,10 @@
         <v>0.382333333333332</v>
       </c>
       <c r="P465" t="n">
+        <v>20.9176666666667</v>
+      </c>
+      <c r="Q465" t="n">
         <v>20.5353333333333</v>
-      </c>
-      <c r="Q465" t="n">
-        <v>20.9176666666667</v>
       </c>
       <c r="R465" t="n">
         <v>0.223</v>
@@ -26492,10 +26492,10 @@
         <v>0.435333333333332</v>
       </c>
       <c r="P466" t="n">
+        <v>21</v>
+      </c>
+      <c r="Q466" t="n">
         <v>20.5646666666667</v>
-      </c>
-      <c r="Q466" t="n">
-        <v>21</v>
       </c>
       <c r="R466" t="n">
         <v>0.282</v>
@@ -26548,10 +26548,10 @@
         <v>0.482333333333333</v>
       </c>
       <c r="P467" t="n">
+        <v>21.0823333333333</v>
+      </c>
+      <c r="Q467" t="n">
         <v>20.6</v>
-      </c>
-      <c r="Q467" t="n">
-        <v>21.0823333333333</v>
       </c>
       <c r="R467" t="n">
         <v>0.341</v>
@@ -26604,10 +26604,10 @@
         <v>0.400000000000002</v>
       </c>
       <c r="P468" t="n">
+        <v>21.0676666666667</v>
+      </c>
+      <c r="Q468" t="n">
         <v>20.6676666666667</v>
-      </c>
-      <c r="Q468" t="n">
-        <v>21.0676666666667</v>
       </c>
       <c r="R468" t="n">
         <v>0.31375</v>
@@ -26660,10 +26660,10 @@
         <v>0.417666666666669</v>
       </c>
       <c r="P469" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="Q469" t="n">
         <v>20.6823333333333</v>
-      </c>
-      <c r="Q469" t="n">
-        <v>21.1</v>
       </c>
       <c r="R469" t="n">
         <v>0.2865</v>
@@ -26716,10 +26716,10 @@
         <v>0.5</v>
       </c>
       <c r="P470" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="Q470" t="n">
         <v>20.6</v>
-      </c>
-      <c r="Q470" t="n">
-        <v>21.1</v>
       </c>
       <c r="R470" t="n">
         <v>0.25925</v>
@@ -26772,10 +26772,10 @@
         <v>0.5</v>
       </c>
       <c r="P471" t="n">
+        <v>21</v>
+      </c>
+      <c r="Q471" t="n">
         <v>20.5</v>
-      </c>
-      <c r="Q471" t="n">
-        <v>21</v>
       </c>
       <c r="R471" t="n">
         <v>0.232</v>
@@ -26828,10 +26828,10 @@
         <v>0.5</v>
       </c>
       <c r="P472" t="n">
+        <v>21</v>
+      </c>
+      <c r="Q472" t="n">
         <v>20.5</v>
-      </c>
-      <c r="Q472" t="n">
-        <v>21</v>
       </c>
       <c r="R472" t="n">
         <v>0.212</v>
@@ -26884,10 +26884,10 @@
         <v>0.399999999999999</v>
       </c>
       <c r="P473" t="n">
+        <v>21.0176666666667</v>
+      </c>
+      <c r="Q473" t="n">
         <v>20.6176666666667</v>
-      </c>
-      <c r="Q473" t="n">
-        <v>21.0176666666667</v>
       </c>
       <c r="R473" t="n">
         <v>0.192</v>
@@ -26940,10 +26940,10 @@
         <v>0.332333333333334</v>
       </c>
       <c r="P474" t="n">
+        <v>21.1676666666667</v>
+      </c>
+      <c r="Q474" t="n">
         <v>20.8353333333333</v>
-      </c>
-      <c r="Q474" t="n">
-        <v>21.1676666666667</v>
       </c>
       <c r="R474" t="n">
         <v>0.172</v>
@@ -26996,10 +26996,10 @@
         <v>0.199999999999999</v>
       </c>
       <c r="P475" t="n">
+        <v>21.2176666666667</v>
+      </c>
+      <c r="Q475" t="n">
         <v>21.0176666666667</v>
-      </c>
-      <c r="Q475" t="n">
-        <v>21.2176666666667</v>
       </c>
       <c r="R475" t="n">
         <v>0.152</v>
@@ -27052,10 +27052,10 @@
         <v>0.199999999999999</v>
       </c>
       <c r="P476" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="Q476" t="n">
         <v>21.1</v>
-      </c>
-      <c r="Q476" t="n">
-        <v>21.3</v>
       </c>
       <c r="R476" t="n">
         <v>0.16025</v>
@@ -27108,10 +27108,10 @@
         <v>0.182333333333332</v>
       </c>
       <c r="P477" t="n">
+        <v>21.2646666666667</v>
+      </c>
+      <c r="Q477" t="n">
         <v>21.0823333333333</v>
-      </c>
-      <c r="Q477" t="n">
-        <v>21.2646666666667</v>
       </c>
       <c r="R477" t="n">
         <v>0.1685</v>
@@ -27164,10 +27164,10 @@
         <v>0.100000000000001</v>
       </c>
       <c r="P478" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="Q478" t="n">
         <v>21</v>
-      </c>
-      <c r="Q478" t="n">
-        <v>21.1</v>
       </c>
       <c r="R478" t="n">
         <v>0.17675</v>
@@ -27220,10 +27220,10 @@
         <v>0.0999999999999979</v>
       </c>
       <c r="P479" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="Q479" t="n">
         <v>21.1</v>
-      </c>
-      <c r="Q479" t="n">
-        <v>21.2</v>
       </c>
       <c r="R479" t="n">
         <v>0.185</v>
@@ -27276,10 +27276,10 @@
         <v>0.0999999999999979</v>
       </c>
       <c r="P480" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="Q480" t="n">
         <v>21.1</v>
-      </c>
-      <c r="Q480" t="n">
-        <v>21.2</v>
       </c>
       <c r="R480" t="n">
         <v>0.154</v>
@@ -27332,10 +27332,10 @@
         <v>0.182333333333332</v>
       </c>
       <c r="P481" t="n">
+        <v>21.1823333333333</v>
+      </c>
+      <c r="Q481" t="n">
         <v>21</v>
-      </c>
-      <c r="Q481" t="n">
-        <v>21.1823333333333</v>
       </c>
       <c r="R481" t="n">
         <v>0.123</v>
@@ -27388,10 +27388,10 @@
         <v>0.167666666666669</v>
       </c>
       <c r="P482" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="Q482" t="n">
         <v>20.9323333333333</v>
-      </c>
-      <c r="Q482" t="n">
-        <v>21.1</v>
       </c>
       <c r="R482" t="n">
         <v>0.092</v>
@@ -27444,10 +27444,10 @@
         <v>0.200000000000003</v>
       </c>
       <c r="P483" t="n">
+        <v>21.0646666666667</v>
+      </c>
+      <c r="Q483" t="n">
         <v>20.8646666666667</v>
-      </c>
-      <c r="Q483" t="n">
-        <v>21.0646666666667</v>
       </c>
       <c r="R483" t="n">
         <v>0.061</v>
@@ -27500,10 +27500,10 @@
         <v>0.199999999999999</v>
       </c>
       <c r="P484" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="Q484" t="n">
         <v>20.7</v>
-      </c>
-      <c r="Q484" t="n">
-        <v>20.9</v>
       </c>
       <c r="R484" t="n">
         <v>0.056</v>
@@ -27556,10 +27556,10 @@
         <v>0.199999999999999</v>
       </c>
       <c r="P485" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="Q485" t="n">
         <v>20.7</v>
-      </c>
-      <c r="Q485" t="n">
-        <v>20.9</v>
       </c>
       <c r="R485" t="n">
         <v>0.051</v>
@@ -27612,10 +27612,10 @@
         <v>0.199999999999999</v>
       </c>
       <c r="P486" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="Q486" t="n">
         <v>20.7</v>
-      </c>
-      <c r="Q486" t="n">
-        <v>20.9</v>
       </c>
       <c r="R486" t="n">
         <v>0.046</v>
@@ -27668,10 +27668,10 @@
         <v>0.100000000000001</v>
       </c>
       <c r="P487" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="Q487" t="n">
         <v>20.7</v>
-      </c>
-      <c r="Q487" t="n">
-        <v>20.8</v>
       </c>
       <c r="R487" t="n">
         <v>0.041</v>
@@ -27724,10 +27724,10 @@
         <v>0.0999999999999979</v>
       </c>
       <c r="P488" t="n">
+        <v>20.7323333333333</v>
+      </c>
+      <c r="Q488" t="n">
         <v>20.6323333333333</v>
-      </c>
-      <c r="Q488" t="n">
-        <v>20.7323333333333</v>
       </c>
       <c r="R488" t="n">
         <v>0.03825</v>
@@ -27780,10 +27780,10 @@
         <v>0.117666666666665</v>
       </c>
       <c r="P489" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="Q489" t="n">
         <v>20.5823333333333</v>
-      </c>
-      <c r="Q489" t="n">
-        <v>20.7</v>
       </c>
       <c r="R489" t="n">
         <v>0.0355</v>
@@ -27836,10 +27836,10 @@
         <v>0.199999999999999</v>
       </c>
       <c r="P490" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="Q490" t="n">
         <v>20.5</v>
-      </c>
-      <c r="Q490" t="n">
-        <v>20.7</v>
       </c>
       <c r="R490" t="n">
         <v>0.03275</v>
@@ -27892,10 +27892,10 @@
         <v>0.217666666666666</v>
       </c>
       <c r="P491" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="Q491" t="n">
         <v>20.4823333333333</v>
-      </c>
-      <c r="Q491" t="n">
-        <v>20.7</v>
       </c>
       <c r="R491" t="n">
         <v>0.03</v>
@@ -27948,10 +27948,10 @@
         <v>0.232333333333333</v>
       </c>
       <c r="P492" t="n">
+        <v>20.5646666666667</v>
+      </c>
+      <c r="Q492" t="n">
         <v>20.3323333333333</v>
-      </c>
-      <c r="Q492" t="n">
-        <v>20.5646666666667</v>
       </c>
       <c r="R492" t="n">
         <v>0.09825</v>
@@ -28004,10 +28004,10 @@
         <v>0.300000000000001</v>
       </c>
       <c r="P493" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="Q493" t="n">
         <v>20.3</v>
-      </c>
-      <c r="Q493" t="n">
-        <v>20.6</v>
       </c>
       <c r="R493" t="n">
         <v>0.1665</v>
@@ -28060,10 +28060,10 @@
         <v>0.300000000000001</v>
       </c>
       <c r="P494" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="Q494" t="n">
         <v>20.3</v>
-      </c>
-      <c r="Q494" t="n">
-        <v>20.6</v>
       </c>
       <c r="R494" t="n">
         <v>0.23475</v>
@@ -28116,10 +28116,10 @@
         <v>0.300000000000001</v>
       </c>
       <c r="P495" t="n">
+        <v>20.5823333333333</v>
+      </c>
+      <c r="Q495" t="n">
         <v>20.2823333333333</v>
-      </c>
-      <c r="Q495" t="n">
-        <v>20.5823333333333</v>
       </c>
       <c r="R495" t="n">
         <v>0.303</v>
@@ -28172,10 +28172,10 @@
         <v>0.300000000000001</v>
       </c>
       <c r="P496" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="Q496" t="n">
         <v>20.2</v>
-      </c>
-      <c r="Q496" t="n">
-        <v>20.5</v>
       </c>
       <c r="R496" t="n">
         <v>0.2475</v>
@@ -28228,10 +28228,10 @@
         <v>0.300000000000001</v>
       </c>
       <c r="P497" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="Q497" t="n">
         <v>20.2</v>
-      </c>
-      <c r="Q497" t="n">
-        <v>20.5</v>
       </c>
       <c r="R497" t="n">
         <v>0.192</v>
@@ -28284,10 +28284,10 @@
         <v>0.300000000000001</v>
       </c>
       <c r="P498" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="Q498" t="n">
         <v>20.2</v>
-      </c>
-      <c r="Q498" t="n">
-        <v>20.5</v>
       </c>
       <c r="R498" t="n">
         <v>0.1365</v>
@@ -28340,10 +28340,10 @@
         <v>0.317666666666668</v>
       </c>
       <c r="P499" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="Q499" t="n">
         <v>20.1823333333333</v>
-      </c>
-      <c r="Q499" t="n">
-        <v>20.5</v>
       </c>
       <c r="R499" t="n">
         <v>0.081</v>
@@ -28396,10 +28396,10 @@
         <v>0.399999999999999</v>
       </c>
       <c r="P500" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="Q500" t="n">
         <v>20.1</v>
-      </c>
-      <c r="Q500" t="n">
-        <v>20.5</v>
       </c>
       <c r="R500" t="n">
         <v>0.0705</v>
@@ -28452,10 +28452,10 @@
         <v>0.399999999999999</v>
       </c>
       <c r="P501" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="Q501" t="n">
         <v>20</v>
-      </c>
-      <c r="Q501" t="n">
-        <v>20.4</v>
       </c>
       <c r="R501" t="n">
         <v>0.06</v>
@@ -28508,10 +28508,10 @@
         <v>0.399999999999999</v>
       </c>
       <c r="P502" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="Q502" t="n">
         <v>20</v>
-      </c>
-      <c r="Q502" t="n">
-        <v>20.4</v>
       </c>
       <c r="R502" t="n">
         <v>0.0495</v>
@@ -28564,10 +28564,10 @@
         <v>0.399999999999999</v>
       </c>
       <c r="P503" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="Q503" t="n">
         <v>20</v>
-      </c>
-      <c r="Q503" t="n">
-        <v>20.4</v>
       </c>
       <c r="R503" t="n">
         <v>0.039</v>
@@ -28620,10 +28620,10 @@
         <v>0.400000000000002</v>
       </c>
       <c r="P504" t="n">
+        <v>20.3323333333333</v>
+      </c>
+      <c r="Q504" t="n">
         <v>19.9323333333333</v>
-      </c>
-      <c r="Q504" t="n">
-        <v>20.3323333333333</v>
       </c>
       <c r="R504" t="n">
         <v>0.034</v>
@@ -28676,10 +28676,10 @@
         <v>0.400000000000002</v>
       </c>
       <c r="P505" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="Q505" t="n">
         <v>19.9</v>
-      </c>
-      <c r="Q505" t="n">
-        <v>20.3</v>
       </c>
       <c r="R505" t="n">
         <v>0.029</v>
@@ -28732,10 +28732,10 @@
         <v>0.400000000000002</v>
       </c>
       <c r="P506" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="Q506" t="n">
         <v>19.9</v>
-      </c>
-      <c r="Q506" t="n">
-        <v>20.3</v>
       </c>
       <c r="R506" t="n">
         <v>0.024</v>
@@ -28788,10 +28788,10 @@
         <v>0.400000000000002</v>
       </c>
       <c r="P507" t="n">
+        <v>20.2823333333333</v>
+      </c>
+      <c r="Q507" t="n">
         <v>19.8823333333333</v>
-      </c>
-      <c r="Q507" t="n">
-        <v>20.2823333333333</v>
       </c>
       <c r="R507" t="n">
         <v>0.019</v>
@@ -28844,10 +28844,10 @@
         <v>0.399999999999999</v>
       </c>
       <c r="P508" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="Q508" t="n">
         <v>19.8</v>
-      </c>
-      <c r="Q508" t="n">
-        <v>20.2</v>
       </c>
       <c r="R508" t="n">
         <v>0.017</v>
@@ -28900,10 +28900,10 @@
         <v>0.399999999999999</v>
       </c>
       <c r="P509" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="Q509" t="n">
         <v>19.8</v>
-      </c>
-      <c r="Q509" t="n">
-        <v>20.2</v>
       </c>
       <c r="R509" t="n">
         <v>0.015</v>
@@ -28956,10 +28956,10 @@
         <v>0.399999999999999</v>
       </c>
       <c r="P510" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="Q510" t="n">
         <v>19.8</v>
-      </c>
-      <c r="Q510" t="n">
-        <v>20.2</v>
       </c>
       <c r="R510" t="n">
         <v>0.013</v>
@@ -29012,10 +29012,10 @@
         <v>0.5</v>
       </c>
       <c r="P511" t="n">
+        <v>20.1</v>
+      </c>
+      <c r="Q511" t="n">
         <v>19.6</v>
-      </c>
-      <c r="Q511" t="n">
-        <v>20.1</v>
       </c>
       <c r="R511" t="n">
         <v>0.011</v>
@@ -29068,10 +29068,10 @@
         <v>0.5</v>
       </c>
       <c r="P512" t="n">
+        <v>20.1</v>
+      </c>
+      <c r="Q512" t="n">
         <v>19.6</v>
-      </c>
-      <c r="Q512" t="n">
-        <v>20.1</v>
       </c>
       <c r="R512" t="n">
         <v>0.01175</v>
@@ -29124,10 +29124,10 @@
         <v>0.5</v>
       </c>
       <c r="P513" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q513" t="n">
         <v>19.5</v>
-      </c>
-      <c r="Q513" t="n">
-        <v>20</v>
       </c>
       <c r="R513" t="n">
         <v>0.0125</v>
@@ -29180,10 +29180,10 @@
         <v>0.5</v>
       </c>
       <c r="P514" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q514" t="n">
         <v>19.5</v>
-      </c>
-      <c r="Q514" t="n">
-        <v>20</v>
       </c>
       <c r="R514" t="n">
         <v>0.01325</v>
@@ -29236,10 +29236,10 @@
         <v>0.5</v>
       </c>
       <c r="P515" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q515" t="n">
         <v>19.5</v>
-      </c>
-      <c r="Q515" t="n">
-        <v>20</v>
       </c>
       <c r="R515" t="n">
         <v>0.014</v>
@@ -29292,10 +29292,10 @@
         <v>0.5</v>
       </c>
       <c r="P516" t="n">
+        <v>19.9323333333333</v>
+      </c>
+      <c r="Q516" t="n">
         <v>19.4323333333333</v>
-      </c>
-      <c r="Q516" t="n">
-        <v>19.9323333333333</v>
       </c>
       <c r="R516" t="n">
         <v>0.01325</v>
@@ -29348,10 +29348,10 @@
         <v>0.5</v>
       </c>
       <c r="P517" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="Q517" t="n">
         <v>19.4</v>
-      </c>
-      <c r="Q517" t="n">
-        <v>19.9</v>
       </c>
       <c r="R517" t="n">
         <v>0.0125</v>
@@ -29404,10 +29404,10 @@
         <v>0.5</v>
       </c>
       <c r="P518" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="Q518" t="n">
         <v>19.4</v>
-      </c>
-      <c r="Q518" t="n">
-        <v>19.9</v>
       </c>
       <c r="R518" t="n">
         <v>0.01175</v>
@@ -29460,10 +29460,10 @@
         <v>0.5</v>
       </c>
       <c r="P519" t="n">
+        <v>19.8823333333333</v>
+      </c>
+      <c r="Q519" t="n">
         <v>19.3823333333333</v>
-      </c>
-      <c r="Q519" t="n">
-        <v>19.8823333333333</v>
       </c>
       <c r="R519" t="n">
         <v>0.011</v>
@@ -29516,10 +29516,10 @@
         <v>0.5</v>
       </c>
       <c r="P520" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="Q520" t="n">
         <v>19.3</v>
-      </c>
-      <c r="Q520" t="n">
-        <v>19.8</v>
       </c>
       <c r="R520" t="n">
         <v>0.0115</v>
@@ -29572,10 +29572,10 @@
         <v>0.5</v>
       </c>
       <c r="P521" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="Q521" t="n">
         <v>19.3</v>
-      </c>
-      <c r="Q521" t="n">
-        <v>19.8</v>
       </c>
       <c r="R521" t="n">
         <v>0.012</v>
@@ -29628,10 +29628,10 @@
         <v>0.5</v>
       </c>
       <c r="P522" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="Q522" t="n">
         <v>19.3</v>
-      </c>
-      <c r="Q522" t="n">
-        <v>19.8</v>
       </c>
       <c r="R522" t="n">
         <v>0.0125</v>
@@ -29684,10 +29684,10 @@
         <v>0.5</v>
       </c>
       <c r="P523" t="n">
+        <v>19.7</v>
+      </c>
+      <c r="Q523" t="n">
         <v>19.2</v>
-      </c>
-      <c r="Q523" t="n">
-        <v>19.7</v>
       </c>
       <c r="R523" t="n">
         <v>0.013</v>
@@ -29740,10 +29740,10 @@
         <v>0.5</v>
       </c>
       <c r="P524" t="n">
+        <v>19.7</v>
+      </c>
+      <c r="Q524" t="n">
         <v>19.2</v>
-      </c>
-      <c r="Q524" t="n">
-        <v>19.7</v>
       </c>
       <c r="R524" t="n">
         <v>0.02625</v>
@@ -29796,10 +29796,10 @@
         <v>0.5</v>
       </c>
       <c r="P525" t="n">
+        <v>19.7</v>
+      </c>
+      <c r="Q525" t="n">
         <v>19.2</v>
-      </c>
-      <c r="Q525" t="n">
-        <v>19.7</v>
       </c>
       <c r="R525" t="n">
         <v>0.0395</v>
@@ -29852,10 +29852,10 @@
         <v>0.5</v>
       </c>
       <c r="P526" t="n">
+        <v>19.6323333333333</v>
+      </c>
+      <c r="Q526" t="n">
         <v>19.1323333333333</v>
-      </c>
-      <c r="Q526" t="n">
-        <v>19.6323333333333</v>
       </c>
       <c r="R526" t="n">
         <v>0.05275</v>
@@ -29908,10 +29908,10 @@
         <v>0.5</v>
       </c>
       <c r="P527" t="n">
+        <v>19.6176666666667</v>
+      </c>
+      <c r="Q527" t="n">
         <v>19.1176666666667</v>
-      </c>
-      <c r="Q527" t="n">
-        <v>19.6176666666667</v>
       </c>
       <c r="R527" t="n">
         <v>0.066</v>
@@ -29964,10 +29964,10 @@
         <v>0.229333333333333</v>
       </c>
       <c r="P528" t="n">
+        <v>19.7676666666667</v>
+      </c>
+      <c r="Q528" t="n">
         <v>19.5383333333333</v>
-      </c>
-      <c r="Q528" t="n">
-        <v>19.7676666666667</v>
       </c>
       <c r="R528" t="n">
         <v>0.39525</v>
@@ -30020,10 +30020,10 @@
         <v>0.453000000000003</v>
       </c>
       <c r="P529" t="n">
+        <v>19.9353333333333</v>
+      </c>
+      <c r="Q529" t="n">
         <v>20.3883333333333</v>
-      </c>
-      <c r="Q529" t="n">
-        <v>19.9353333333333</v>
       </c>
       <c r="R529" t="n">
         <v>0.7245</v>
@@ -30076,10 +30076,10 @@
         <v>0.497</v>
       </c>
       <c r="P530" t="n">
+        <v>20.1</v>
+      </c>
+      <c r="Q530" t="n">
         <v>20.597</v>
-      </c>
-      <c r="Q530" t="n">
-        <v>20.1</v>
       </c>
       <c r="R530" t="n">
         <v>1.05375</v>
@@ -30132,10 +30132,10 @@
         <v>0.0353333333333339</v>
       </c>
       <c r="P531" t="n">
+        <v>20.2176666666667</v>
+      </c>
+      <c r="Q531" t="n">
         <v>20.1823333333333</v>
-      </c>
-      <c r="Q531" t="n">
-        <v>20.2176666666667</v>
       </c>
       <c r="R531" t="n">
         <v>1.383</v>
@@ -30188,10 +30188,10 @@
         <v>0.267666666666667</v>
       </c>
       <c r="P532" t="n">
+        <v>20.2323333333333</v>
+      </c>
+      <c r="Q532" t="n">
         <v>19.9646666666667</v>
-      </c>
-      <c r="Q532" t="n">
-        <v>20.2323333333333</v>
       </c>
       <c r="R532" t="n">
         <v>1.2155</v>
@@ -30244,10 +30244,10 @@
         <v>0.417666666666666</v>
       </c>
       <c r="P533" t="n">
+        <v>20.2176666666667</v>
+      </c>
+      <c r="Q533" t="n">
         <v>19.8</v>
-      </c>
-      <c r="Q533" t="n">
-        <v>20.2176666666667</v>
       </c>
       <c r="R533" t="n">
         <v>1.048</v>
@@ -30300,10 +30300,10 @@
         <v>0.0263333333333335</v>
       </c>
       <c r="P534" t="n">
+        <v>19.6233333333333</v>
+      </c>
+      <c r="Q534" t="n">
         <v>19.597</v>
-      </c>
-      <c r="Q534" t="n">
-        <v>19.6233333333333</v>
       </c>
       <c r="R534" t="n">
         <v>0.8805</v>
@@ -30356,10 +30356,10 @@
         <v>0.153000000000002</v>
       </c>
       <c r="P535" t="n">
+        <v>19.5353333333333</v>
+      </c>
+      <c r="Q535" t="n">
         <v>19.3823333333333</v>
-      </c>
-      <c r="Q535" t="n">
-        <v>19.5353333333333</v>
       </c>
       <c r="R535" t="n">
         <v>0.713</v>
@@ -30412,10 +30412,10 @@
         <v>0.399999999999999</v>
       </c>
       <c r="P536" t="n">
+        <v>19.7</v>
+      </c>
+      <c r="Q536" t="n">
         <v>19.3</v>
-      </c>
-      <c r="Q536" t="n">
-        <v>19.7</v>
       </c>
       <c r="R536" t="n">
         <v>1.05825</v>
@@ -30468,10 +30468,10 @@
         <v>0.288333333333334</v>
       </c>
       <c r="P537" t="n">
+        <v>20.0176666666667</v>
+      </c>
+      <c r="Q537" t="n">
         <v>20.306</v>
-      </c>
-      <c r="Q537" t="n">
-        <v>20.0176666666667</v>
       </c>
       <c r="R537" t="n">
         <v>1.4035</v>
@@ -30524,10 +30524,10 @@
         <v>0.564666666666664</v>
       </c>
       <c r="P538" t="n">
+        <v>20.303</v>
+      </c>
+      <c r="Q538" t="n">
         <v>20.8676666666667</v>
-      </c>
-      <c r="Q538" t="n">
-        <v>20.303</v>
       </c>
       <c r="R538" t="n">
         <v>1.74875</v>
@@ -30580,10 +30580,10 @@
         <v>0.146999999999998</v>
       </c>
       <c r="P539" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="Q539" t="n">
         <v>20.647</v>
-      </c>
-      <c r="Q539" t="n">
-        <v>20.5</v>
       </c>
       <c r="R539" t="n">
         <v>2.094</v>
@@ -30636,10 +30636,10 @@
         <v>0.167666666666669</v>
       </c>
       <c r="P540" t="n">
+        <v>20.5676666666667</v>
+      </c>
+      <c r="Q540" t="n">
         <v>20.4</v>
-      </c>
-      <c r="Q540" t="n">
-        <v>20.5676666666667</v>
       </c>
       <c r="R540" t="n">
         <v>1.68075</v>
@@ -30692,10 +30692,10 @@
         <v>0.399999999999999</v>
       </c>
       <c r="P541" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="Q541" t="n">
         <v>20.3</v>
-      </c>
-      <c r="Q541" t="n">
-        <v>20.7</v>
       </c>
       <c r="R541" t="n">
         <v>1.2675</v>
@@ -30748,10 +30748,10 @@
         <v>0.53533333333333</v>
       </c>
       <c r="P542" t="n">
+        <v>20.8353333333333</v>
+      </c>
+      <c r="Q542" t="n">
         <v>20.3</v>
-      </c>
-      <c r="Q542" t="n">
-        <v>20.8353333333333</v>
       </c>
       <c r="R542" t="n">
         <v>0.85425</v>
@@ -30804,10 +30804,10 @@
         <v>0.517666666666667</v>
       </c>
       <c r="P543" t="n">
+        <v>20.9176666666667</v>
+      </c>
+      <c r="Q543" t="n">
         <v>20.4</v>
-      </c>
-      <c r="Q543" t="n">
-        <v>20.9176666666667</v>
       </c>
       <c r="R543" t="n">
         <v>0.441</v>
@@ -30860,10 +30860,10 @@
         <v>0.532333333333334</v>
       </c>
       <c r="P544" t="n">
+        <v>21</v>
+      </c>
+      <c r="Q544" t="n">
         <v>20.4676666666667</v>
-      </c>
-      <c r="Q544" t="n">
-        <v>21</v>
       </c>
       <c r="R544" t="n">
         <v>0.34425</v>
@@ -30916,10 +30916,10 @@
         <v>0.617666666666668</v>
       </c>
       <c r="P545" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="Q545" t="n">
         <v>20.4823333333333</v>
-      </c>
-      <c r="Q545" t="n">
-        <v>21.1</v>
       </c>
       <c r="R545" t="n">
         <v>0.2475</v>
@@ -30972,10 +30972,10 @@
         <v>0.700000000000003</v>
       </c>
       <c r="P546" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="Q546" t="n">
         <v>20.4</v>
-      </c>
-      <c r="Q546" t="n">
-        <v>21.1</v>
       </c>
       <c r="R546" t="n">
         <v>0.15075</v>
@@ -31028,10 +31028,10 @@
         <v>0.600000000000001</v>
       </c>
       <c r="P547" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="Q547" t="n">
         <v>20.5</v>
-      </c>
-      <c r="Q547" t="n">
-        <v>21.1</v>
       </c>
       <c r="R547" t="n">
         <v>0.054</v>
@@ -31084,10 +31084,10 @@
         <v>0.599999999999998</v>
       </c>
       <c r="P548" t="n">
+        <v>21.1676666666667</v>
+      </c>
+      <c r="Q548" t="n">
         <v>20.5676666666667</v>
-      </c>
-      <c r="Q548" t="n">
-        <v>21.1676666666667</v>
       </c>
       <c r="R548" t="n">
         <v>0.059</v>
@@ -31140,10 +31140,10 @@
         <v>0.682333333333332</v>
       </c>
       <c r="P549" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="Q549" t="n">
         <v>20.5176666666667</v>
-      </c>
-      <c r="Q549" t="n">
-        <v>21.2</v>
       </c>
       <c r="R549" t="n">
         <v>0.064</v>
@@ -31196,10 +31196,10 @@
         <v>0.599999999999998</v>
       </c>
       <c r="P550" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="Q550" t="n">
         <v>20.6</v>
-      </c>
-      <c r="Q550" t="n">
-        <v>21.2</v>
       </c>
       <c r="R550" t="n">
         <v>0.069</v>
@@ -31252,10 +31252,10 @@
         <v>0.5</v>
       </c>
       <c r="P551" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="Q551" t="n">
         <v>20.7</v>
-      </c>
-      <c r="Q551" t="n">
-        <v>21.2</v>
       </c>
       <c r="R551" t="n">
         <v>0.074</v>
@@ -31308,10 +31308,10 @@
         <v>0.5</v>
       </c>
       <c r="P552" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="Q552" t="n">
         <v>20.7</v>
-      </c>
-      <c r="Q552" t="n">
-        <v>21.2</v>
       </c>
       <c r="R552" t="n">
         <v>0.06775</v>
@@ -31364,10 +31364,10 @@
         <v>0.5</v>
       </c>
       <c r="P553" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="Q553" t="n">
         <v>20.7</v>
-      </c>
-      <c r="Q553" t="n">
-        <v>21.2</v>
       </c>
       <c r="R553" t="n">
         <v>0.0615</v>
@@ -31420,10 +31420,10 @@
         <v>0.5</v>
       </c>
       <c r="P554" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="Q554" t="n">
         <v>20.7</v>
-      </c>
-      <c r="Q554" t="n">
-        <v>21.2</v>
       </c>
       <c r="R554" t="n">
         <v>0.05525</v>
@@ -31476,10 +31476,10 @@
         <v>0.582333333333334</v>
       </c>
       <c r="P555" t="n">
+        <v>21.2823333333333</v>
+      </c>
+      <c r="Q555" t="n">
         <v>20.7</v>
-      </c>
-      <c r="Q555" t="n">
-        <v>21.2823333333333</v>
       </c>
       <c r="R555" t="n">
         <v>0.049</v>
@@ -31532,10 +31532,10 @@
         <v>0.5</v>
       </c>
       <c r="P556" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="Q556" t="n">
         <v>20.7</v>
-      </c>
-      <c r="Q556" t="n">
-        <v>21.2</v>
       </c>
       <c r="R556" t="n">
         <v>0.05075</v>
@@ -31588,10 +31588,10 @@
         <v>0.5</v>
       </c>
       <c r="P557" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="Q557" t="n">
         <v>20.7</v>
-      </c>
-      <c r="Q557" t="n">
-        <v>21.2</v>
       </c>
       <c r="R557" t="n">
         <v>0.0525</v>
@@ -31644,10 +31644,10 @@
         <v>0.5</v>
       </c>
       <c r="P558" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="Q558" t="n">
         <v>20.7</v>
-      </c>
-      <c r="Q558" t="n">
-        <v>21.2</v>
       </c>
       <c r="R558" t="n">
         <v>0.05425</v>
@@ -31700,10 +31700,10 @@
         <v>0.5</v>
       </c>
       <c r="P559" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="Q559" t="n">
         <v>20.8</v>
-      </c>
-      <c r="Q559" t="n">
-        <v>21.3</v>
       </c>
       <c r="R559" t="n">
         <v>0.056</v>
@@ -31756,10 +31756,10 @@
         <v>0.432333333333332</v>
       </c>
       <c r="P560" t="n">
+        <v>21.2323333333333</v>
+      </c>
+      <c r="Q560" t="n">
         <v>20.8</v>
-      </c>
-      <c r="Q560" t="n">
-        <v>21.2323333333333</v>
       </c>
       <c r="R560" t="n">
         <v>0.123</v>
@@ -31812,10 +31812,10 @@
         <v>0.417666666666666</v>
       </c>
       <c r="P561" t="n">
+        <v>21.2176666666667</v>
+      </c>
+      <c r="Q561" t="n">
         <v>20.8</v>
-      </c>
-      <c r="Q561" t="n">
-        <v>21.2176666666667</v>
       </c>
       <c r="R561" t="n">
         <v>0.19</v>
@@ -31868,10 +31868,10 @@
         <v>0.432333333333332</v>
       </c>
       <c r="P562" t="n">
+        <v>21.2323333333333</v>
+      </c>
+      <c r="Q562" t="n">
         <v>20.8</v>
-      </c>
-      <c r="Q562" t="n">
-        <v>21.2323333333333</v>
       </c>
       <c r="R562" t="n">
         <v>0.257</v>
@@ -31924,10 +31924,10 @@
         <v>0.399999999999999</v>
       </c>
       <c r="P563" t="n">
+        <v>21.2176666666667</v>
+      </c>
+      <c r="Q563" t="n">
         <v>20.8176666666667</v>
-      </c>
-      <c r="Q563" t="n">
-        <v>21.2176666666667</v>
       </c>
       <c r="R563" t="n">
         <v>0.324</v>
@@ -31980,10 +31980,10 @@
         <v>0.400000000000002</v>
       </c>
       <c r="P564" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="Q564" t="n">
         <v>20.9</v>
-      </c>
-      <c r="Q564" t="n">
-        <v>21.3</v>
       </c>
       <c r="R564" t="n">
         <v>0.4045</v>
@@ -32036,10 +32036,10 @@
         <v>0.517666666666667</v>
       </c>
       <c r="P565" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="Q565" t="n">
         <v>20.7823333333333</v>
-      </c>
-      <c r="Q565" t="n">
-        <v>21.3</v>
       </c>
       <c r="R565" t="n">
         <v>0.485</v>
@@ -32092,10 +32092,10 @@
         <v>0.600000000000001</v>
       </c>
       <c r="P566" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="Q566" t="n">
         <v>20.7</v>
-      </c>
-      <c r="Q566" t="n">
-        <v>21.3</v>
       </c>
       <c r="R566" t="n">
         <v>0.5655</v>
@@ -32148,10 +32148,10 @@
         <v>0.600000000000001</v>
       </c>
       <c r="P567" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="Q567" t="n">
         <v>20.7</v>
-      </c>
-      <c r="Q567" t="n">
-        <v>21.3</v>
       </c>
       <c r="R567" t="n">
         <v>0.646</v>
@@ -32204,10 +32204,10 @@
         <v>0.600000000000001</v>
       </c>
       <c r="P568" t="n">
+        <v>21.4353333333333</v>
+      </c>
+      <c r="Q568" t="n">
         <v>20.8353333333333</v>
-      </c>
-      <c r="Q568" t="n">
-        <v>21.4353333333333</v>
       </c>
       <c r="R568" t="n">
         <v>0.51825</v>
@@ -32260,10 +32260,10 @@
         <v>0.599999999999998</v>
       </c>
       <c r="P569" t="n">
+        <v>21.4176666666667</v>
+      </c>
+      <c r="Q569" t="n">
         <v>20.8176666666667</v>
-      </c>
-      <c r="Q569" t="n">
-        <v>21.4176666666667</v>
       </c>
       <c r="R569" t="n">
         <v>0.3905</v>
@@ -32316,10 +32316,10 @@
         <v>0.532333333333334</v>
       </c>
       <c r="P570" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="Q570" t="n">
         <v>20.9676666666667</v>
-      </c>
-      <c r="Q570" t="n">
-        <v>21.5</v>
       </c>
       <c r="R570" t="n">
         <v>0.26275</v>
@@ -32372,10 +32372,10 @@
         <v>0.5</v>
       </c>
       <c r="P571" t="n">
+        <v>21.5176666666667</v>
+      </c>
+      <c r="Q571" t="n">
         <v>21.0176666666667</v>
-      </c>
-      <c r="Q571" t="n">
-        <v>21.5176666666667</v>
       </c>
       <c r="R571" t="n">
         <v>0.135</v>
@@ -32428,10 +32428,10 @@
         <v>0.432333333333336</v>
       </c>
       <c r="P572" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="Q572" t="n">
         <v>21.1676666666667</v>
-      </c>
-      <c r="Q572" t="n">
-        <v>21.6</v>
       </c>
       <c r="R572" t="n">
         <v>0.13</v>
@@ -32484,10 +32484,10 @@
         <v>0.399999999999999</v>
       </c>
       <c r="P573" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="Q573" t="n">
         <v>21.1</v>
-      </c>
-      <c r="Q573" t="n">
-        <v>21.5</v>
       </c>
       <c r="R573" t="n">
         <v>0.125</v>
@@ -32540,10 +32540,10 @@
         <v>0.399999999999999</v>
       </c>
       <c r="P574" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="Q574" t="n">
         <v>21.1</v>
-      </c>
-      <c r="Q574" t="n">
-        <v>21.5</v>
       </c>
       <c r="R574" t="n">
         <v>0.12</v>
@@ -32596,10 +32596,10 @@
         <v>0.300000000000001</v>
       </c>
       <c r="P575" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="Q575" t="n">
         <v>21.2</v>
-      </c>
-      <c r="Q575" t="n">
-        <v>21.5</v>
       </c>
       <c r="R575" t="n">
         <v>0.115</v>
@@ -32652,10 +32652,10 @@
         <v>0.367666666666665</v>
       </c>
       <c r="P576" t="n">
+        <v>21.4323333333333</v>
+      </c>
+      <c r="Q576" t="n">
         <v>21.0646666666667</v>
-      </c>
-      <c r="Q576" t="n">
-        <v>21.4323333333333</v>
       </c>
       <c r="R576" t="n">
         <v>0.11525</v>
@@ -32708,10 +32708,10 @@
         <v>0.399999999999999</v>
       </c>
       <c r="P577" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="Q577" t="n">
         <v>21</v>
-      </c>
-      <c r="Q577" t="n">
-        <v>21.4</v>
       </c>
       <c r="R577" t="n">
         <v>0.1155</v>
@@ -32764,10 +32764,10 @@
         <v>0.399999999999999</v>
       </c>
       <c r="P578" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="Q578" t="n">
         <v>21</v>
-      </c>
-      <c r="Q578" t="n">
-        <v>21.4</v>
       </c>
       <c r="R578" t="n">
         <v>0.11575</v>
@@ -32820,10 +32820,10 @@
         <v>0.399999999999999</v>
       </c>
       <c r="P579" t="n">
+        <v>21.4176666666667</v>
+      </c>
+      <c r="Q579" t="n">
         <v>21.0176666666667</v>
-      </c>
-      <c r="Q579" t="n">
-        <v>21.4176666666667</v>
       </c>
       <c r="R579" t="n">
         <v>0.116</v>
@@ -32876,10 +32876,10 @@
         <v>0.400000000000002</v>
       </c>
       <c r="P580" t="n">
+        <v>21.5676666666667</v>
+      </c>
+      <c r="Q580" t="n">
         <v>21.1676666666667</v>
-      </c>
-      <c r="Q580" t="n">
-        <v>21.5676666666667</v>
       </c>
       <c r="R580" t="n">
         <v>0.10825</v>
@@ -32932,10 +32932,10 @@
         <v>0.382333333333335</v>
       </c>
       <c r="P581" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="Q581" t="n">
         <v>21.2176666666667</v>
-      </c>
-      <c r="Q581" t="n">
-        <v>21.6</v>
       </c>
       <c r="R581" t="n">
         <v>0.1005</v>
@@ -32988,10 +32988,10 @@
         <v>0.367666666666665</v>
       </c>
       <c r="P582" t="n">
+        <v>21.5323333333333</v>
+      </c>
+      <c r="Q582" t="n">
         <v>21.1646666666667</v>
-      </c>
-      <c r="Q582" t="n">
-        <v>21.5323333333333</v>
       </c>
       <c r="R582" t="n">
         <v>0.09275</v>
@@ -33044,10 +33044,10 @@
         <v>0.417666666666666</v>
       </c>
       <c r="P583" t="n">
+        <v>21.4823333333333</v>
+      </c>
+      <c r="Q583" t="n">
         <v>21.0646666666667</v>
-      </c>
-      <c r="Q583" t="n">
-        <v>21.4823333333333</v>
       </c>
       <c r="R583" t="n">
         <v>0.085</v>
@@ -33100,10 +33100,10 @@
         <v>0.432333333333336</v>
       </c>
       <c r="P584" t="n">
+        <v>21.3323333333333</v>
+      </c>
+      <c r="Q584" t="n">
         <v>20.9</v>
-      </c>
-      <c r="Q584" t="n">
-        <v>21.3323333333333</v>
       </c>
       <c r="R584" t="n">
         <v>0.088</v>
@@ -33156,10 +33156,10 @@
         <v>0.417666666666669</v>
       </c>
       <c r="P585" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="Q585" t="n">
         <v>20.8823333333333</v>
-      </c>
-      <c r="Q585" t="n">
-        <v>21.3</v>
       </c>
       <c r="R585" t="n">
         <v>0.091</v>
@@ -33212,10 +33212,10 @@
         <v>0.5</v>
       </c>
       <c r="P586" t="n">
+        <v>21.2323333333333</v>
+      </c>
+      <c r="Q586" t="n">
         <v>20.7323333333333</v>
-      </c>
-      <c r="Q586" t="n">
-        <v>21.2323333333333</v>
       </c>
       <c r="R586" t="n">
         <v>0.094</v>
@@ -33268,10 +33268,10 @@
         <v>0.517666666666667</v>
       </c>
       <c r="P587" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="Q587" t="n">
         <v>20.6823333333333</v>
-      </c>
-      <c r="Q587" t="n">
-        <v>21.2</v>
       </c>
       <c r="R587" t="n">
         <v>0.097</v>
@@ -33324,10 +33324,10 @@
         <v>0.600000000000001</v>
       </c>
       <c r="P588" t="n">
+        <v>21.1323333333333</v>
+      </c>
+      <c r="Q588" t="n">
         <v>20.5323333333333</v>
-      </c>
-      <c r="Q588" t="n">
-        <v>21.1323333333333</v>
       </c>
       <c r="R588" t="n">
         <v>0.13675</v>
@@ -33380,10 +33380,10 @@
         <v>0.600000000000001</v>
       </c>
       <c r="P589" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="Q589" t="n">
         <v>20.5</v>
-      </c>
-      <c r="Q589" t="n">
-        <v>21.1</v>
       </c>
       <c r="R589" t="n">
         <v>0.1765</v>
@@ -33436,10 +33436,10 @@
         <v>0.600000000000001</v>
       </c>
       <c r="P590" t="n">
+        <v>21.0323333333333</v>
+      </c>
+      <c r="Q590" t="n">
         <v>20.4323333333333</v>
-      </c>
-      <c r="Q590" t="n">
-        <v>21.0323333333333</v>
       </c>
       <c r="R590" t="n">
         <v>0.21625</v>
@@ -33492,10 +33492,10 @@
         <v>0.699999999999999</v>
       </c>
       <c r="P591" t="n">
+        <v>21</v>
+      </c>
+      <c r="Q591" t="n">
         <v>20.3</v>
-      </c>
-      <c r="Q591" t="n">
-        <v>21</v>
       </c>
       <c r="R591" t="n">
         <v>0.256</v>
@@ -33548,10 +33548,10 @@
         <v>0.699999999999999</v>
       </c>
       <c r="P592" t="n">
+        <v>21</v>
+      </c>
+      <c r="Q592" t="n">
         <v>20.3</v>
-      </c>
-      <c r="Q592" t="n">
-        <v>21</v>
       </c>
       <c r="R592" t="n">
         <v>0.2315</v>
@@ -33604,10 +33604,10 @@
         <v>0.699999999999999</v>
       </c>
       <c r="P593" t="n">
+        <v>21</v>
+      </c>
+      <c r="Q593" t="n">
         <v>20.3</v>
-      </c>
-      <c r="Q593" t="n">
-        <v>21</v>
       </c>
       <c r="R593" t="n">
         <v>0.207</v>
@@ -33660,10 +33660,10 @@
         <v>0.632333333333335</v>
       </c>
       <c r="P594" t="n">
+        <v>21</v>
+      </c>
+      <c r="Q594" t="n">
         <v>20.3676666666667</v>
-      </c>
-      <c r="Q594" t="n">
-        <v>21</v>
       </c>
       <c r="R594" t="n">
         <v>0.1825</v>
@@ -33716,10 +33716,10 @@
         <v>0.699999999999999</v>
       </c>
       <c r="P595" t="n">
+        <v>21</v>
+      </c>
+      <c r="Q595" t="n">
         <v>20.3</v>
-      </c>
-      <c r="Q595" t="n">
-        <v>21</v>
       </c>
       <c r="R595" t="n">
         <v>0.158</v>
@@ -33772,10 +33772,10 @@
         <v>0.699999999999999</v>
       </c>
       <c r="P596" t="n">
+        <v>21</v>
+      </c>
+      <c r="Q596" t="n">
         <v>20.3</v>
-      </c>
-      <c r="Q596" t="n">
-        <v>21</v>
       </c>
       <c r="R596" t="n">
         <v>0.129</v>
@@ -33828,10 +33828,10 @@
         <v>0.599999999999998</v>
       </c>
       <c r="P597" t="n">
+        <v>20.8823333333333</v>
+      </c>
+      <c r="Q597" t="n">
         <v>20.2823333333333</v>
-      </c>
-      <c r="Q597" t="n">
-        <v>20.8823333333333</v>
       </c>
       <c r="R597" t="n">
         <v>0.1</v>
@@ -33884,10 +33884,10 @@
         <v>0.600000000000001</v>
       </c>
       <c r="P598" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="Q598" t="n">
         <v>20.2</v>
-      </c>
-      <c r="Q598" t="n">
-        <v>20.8</v>
       </c>
       <c r="R598" t="n">
         <v>0.071</v>
@@ -33940,10 +33940,10 @@
         <v>0.600000000000001</v>
       </c>
       <c r="P599" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="Q599" t="n">
         <v>20.2</v>
-      </c>
-      <c r="Q599" t="n">
-        <v>20.8</v>
       </c>
       <c r="R599" t="n">
         <v>0.042</v>
@@ -33996,10 +33996,10 @@
         <v>0.600000000000001</v>
       </c>
       <c r="P600" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="Q600" t="n">
         <v>20.2</v>
-      </c>
-      <c r="Q600" t="n">
-        <v>20.8</v>
       </c>
       <c r="R600" t="n">
         <v>0.04175</v>
@@ -34052,10 +34052,10 @@
         <v>0.599999999999998</v>
       </c>
       <c r="P601" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="Q601" t="n">
         <v>20.1</v>
-      </c>
-      <c r="Q601" t="n">
-        <v>20.7</v>
       </c>
       <c r="R601" t="n">
         <v>0.0415</v>
@@ -34108,10 +34108,10 @@
         <v>0.599999999999998</v>
       </c>
       <c r="P602" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="Q602" t="n">
         <v>20.1</v>
-      </c>
-      <c r="Q602" t="n">
-        <v>20.7</v>
       </c>
       <c r="R602" t="n">
         <v>0.04125</v>
@@ -34164,10 +34164,10 @@
         <v>0.599999999999998</v>
       </c>
       <c r="P603" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="Q603" t="n">
         <v>20.1</v>
-      </c>
-      <c r="Q603" t="n">
-        <v>20.7</v>
       </c>
       <c r="R603" t="n">
         <v>0.041</v>
@@ -34220,10 +34220,10 @@
         <v>0.600000000000001</v>
       </c>
       <c r="P604" t="n">
+        <v>20.6323333333333</v>
+      </c>
+      <c r="Q604" t="n">
         <v>20.0323333333333</v>
-      </c>
-      <c r="Q604" t="n">
-        <v>20.6323333333333</v>
       </c>
       <c r="R604" t="n">
         <v>0.03525</v>
@@ -34276,10 +34276,10 @@
         <v>0.600000000000001</v>
       </c>
       <c r="P605" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="Q605" t="n">
         <v>20</v>
-      </c>
-      <c r="Q605" t="n">
-        <v>20.6</v>
       </c>
       <c r="R605" t="n">
         <v>0.0295</v>
@@ -34332,10 +34332,10 @@
         <v>0.600000000000001</v>
       </c>
       <c r="P606" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="Q606" t="n">
         <v>20</v>
-      </c>
-      <c r="Q606" t="n">
-        <v>20.6</v>
       </c>
       <c r="R606" t="n">
         <v>0.02375</v>
@@ -34388,10 +34388,10 @@
         <v>0.600000000000001</v>
       </c>
       <c r="P607" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="Q607" t="n">
         <v>19.9</v>
-      </c>
-      <c r="Q607" t="n">
-        <v>20.5</v>
       </c>
       <c r="R607" t="n">
         <v>0.018</v>
@@ -34444,10 +34444,10 @@
         <v>0.600000000000001</v>
       </c>
       <c r="P608" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="Q608" t="n">
         <v>19.9</v>
-      </c>
-      <c r="Q608" t="n">
-        <v>20.5</v>
       </c>
       <c r="R608" t="n">
         <v>0.30025</v>
@@ -34500,10 +34500,10 @@
         <v>0.600000000000001</v>
       </c>
       <c r="P609" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="Q609" t="n">
         <v>19.9</v>
-      </c>
-      <c r="Q609" t="n">
-        <v>20.5</v>
       </c>
       <c r="R609" t="n">
         <v>0.5825</v>
@@ -34556,10 +34556,10 @@
         <v>0.599999999999998</v>
       </c>
       <c r="P610" t="n">
+        <v>20.4323333333333</v>
+      </c>
+      <c r="Q610" t="n">
         <v>19.8323333333333</v>
-      </c>
-      <c r="Q610" t="n">
-        <v>20.4323333333333</v>
       </c>
       <c r="R610" t="n">
         <v>0.86475</v>
@@ -34612,10 +34612,10 @@
         <v>0.682333333333332</v>
       </c>
       <c r="P611" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="Q611" t="n">
         <v>19.7176666666667</v>
-      </c>
-      <c r="Q611" t="n">
-        <v>20.4</v>
       </c>
       <c r="R611" t="n">
         <v>1.147</v>
@@ -34668,10 +34668,10 @@
         <v>0.667666666666666</v>
       </c>
       <c r="P612" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="Q612" t="n">
         <v>19.7323333333333</v>
-      </c>
-      <c r="Q612" t="n">
-        <v>20.4</v>
       </c>
       <c r="R612" t="n">
         <v>0.86675</v>
@@ -34724,10 +34724,10 @@
         <v>0.617666666666665</v>
       </c>
       <c r="P613" t="n">
+        <v>20.3823333333333</v>
+      </c>
+      <c r="Q613" t="n">
         <v>19.7646666666667</v>
-      </c>
-      <c r="Q613" t="n">
-        <v>20.3823333333333</v>
       </c>
       <c r="R613" t="n">
         <v>0.5865</v>
@@ -34780,10 +34780,10 @@
         <v>0.699999999999999</v>
       </c>
       <c r="P614" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="Q614" t="n">
         <v>19.6</v>
-      </c>
-      <c r="Q614" t="n">
-        <v>20.3</v>
       </c>
       <c r="R614" t="n">
         <v>0.30625</v>
@@ -34836,10 +34836,10 @@
         <v>0.699999999999999</v>
       </c>
       <c r="P615" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="Q615" t="n">
         <v>19.6</v>
-      </c>
-      <c r="Q615" t="n">
-        <v>20.3</v>
       </c>
       <c r="R615" t="n">
         <v>0.026</v>
@@ -34892,10 +34892,10 @@
         <v>0.699999999999999</v>
       </c>
       <c r="P616" t="n">
+        <v>20.2323333333333</v>
+      </c>
+      <c r="Q616" t="n">
         <v>19.5323333333333</v>
-      </c>
-      <c r="Q616" t="n">
-        <v>20.2323333333333</v>
       </c>
       <c r="R616" t="n">
         <v>0.025</v>
@@ -34948,10 +34948,10 @@
         <v>0.699999999999999</v>
       </c>
       <c r="P617" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="Q617" t="n">
         <v>19.5</v>
-      </c>
-      <c r="Q617" t="n">
-        <v>20.2</v>
       </c>
       <c r="R617" t="n">
         <v>0.024</v>
@@ -35004,10 +35004,10 @@
         <v>0.699999999999999</v>
       </c>
       <c r="P618" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="Q618" t="n">
         <v>19.5</v>
-      </c>
-      <c r="Q618" t="n">
-        <v>20.2</v>
       </c>
       <c r="R618" t="n">
         <v>0.023</v>
@@ -35060,10 +35060,10 @@
         <v>0.617666666666668</v>
       </c>
       <c r="P619" t="n">
+        <v>20.1</v>
+      </c>
+      <c r="Q619" t="n">
         <v>19.4823333333333</v>
-      </c>
-      <c r="Q619" t="n">
-        <v>20.1</v>
       </c>
       <c r="R619" t="n">
         <v>0.022</v>
@@ -35116,10 +35116,10 @@
         <v>0.700000000000003</v>
       </c>
       <c r="P620" t="n">
+        <v>20.1</v>
+      </c>
+      <c r="Q620" t="n">
         <v>19.4</v>
-      </c>
-      <c r="Q620" t="n">
-        <v>20.1</v>
       </c>
       <c r="R620" t="n">
         <v>0.01675</v>
@@ -35172,10 +35172,10 @@
         <v>0.700000000000003</v>
       </c>
       <c r="P621" t="n">
+        <v>20.1</v>
+      </c>
+      <c r="Q621" t="n">
         <v>19.4</v>
-      </c>
-      <c r="Q621" t="n">
-        <v>20.1</v>
       </c>
       <c r="R621" t="n">
         <v>0.0115</v>
@@ -35228,10 +35228,10 @@
         <v>0.699999999999999</v>
       </c>
       <c r="P622" t="n">
+        <v>20.0323333333333</v>
+      </c>
+      <c r="Q622" t="n">
         <v>19.3323333333333</v>
-      </c>
-      <c r="Q622" t="n">
-        <v>20.0323333333333</v>
       </c>
       <c r="R622" t="n">
         <v>0.00625</v>
@@ -35284,10 +35284,10 @@
         <v>0.699999999999999</v>
       </c>
       <c r="P623" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q623" t="n">
         <v>19.3</v>
-      </c>
-      <c r="Q623" t="n">
-        <v>20</v>
       </c>
       <c r="R623" t="n">
         <v>0.001</v>
@@ -35340,10 +35340,10 @@
         <v>0.699999999999999</v>
       </c>
       <c r="P624" t="n">
+        <v>19.9323333333333</v>
+      </c>
+      <c r="Q624" t="n">
         <v>19.2323333333333</v>
-      </c>
-      <c r="Q624" t="n">
-        <v>19.9323333333333</v>
       </c>
       <c r="R624" t="n">
         <v>0.00625</v>
@@ -35396,10 +35396,10 @@
         <v>0.699999999999999</v>
       </c>
       <c r="P625" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="Q625" t="n">
         <v>19.2</v>
-      </c>
-      <c r="Q625" t="n">
-        <v>19.9</v>
       </c>
       <c r="R625" t="n">
         <v>0.0115</v>
@@ -35452,10 +35452,10 @@
         <v>0.699999999999999</v>
       </c>
       <c r="P626" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="Q626" t="n">
         <v>19.2</v>
-      </c>
-      <c r="Q626" t="n">
-        <v>19.9</v>
       </c>
       <c r="R626" t="n">
         <v>0.01675</v>
@@ -35508,10 +35508,10 @@
         <v>0.699999999999999</v>
       </c>
       <c r="P627" t="n">
+        <v>19.8823333333333</v>
+      </c>
+      <c r="Q627" t="n">
         <v>19.1823333333333</v>
-      </c>
-      <c r="Q627" t="n">
-        <v>19.8823333333333</v>
       </c>
       <c r="R627" t="n">
         <v>0.022</v>
@@ -35564,10 +35564,10 @@
         <v>0.699999999999999</v>
       </c>
       <c r="P628" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="Q628" t="n">
         <v>19.1</v>
-      </c>
-      <c r="Q628" t="n">
-        <v>19.8</v>
       </c>
       <c r="R628" t="n">
         <v>0.0605</v>
@@ -35620,10 +35620,10 @@
         <v>0.78233333333333</v>
       </c>
       <c r="P629" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="Q629" t="n">
         <v>19.1176666666667</v>
-      </c>
-      <c r="Q629" t="n">
-        <v>19.9</v>
       </c>
       <c r="R629" t="n">
         <v>0.099</v>
@@ -35676,10 +35676,10 @@
         <v>0.632333333333335</v>
       </c>
       <c r="P630" t="n">
+        <v>19.8323333333333</v>
+      </c>
+      <c r="Q630" t="n">
         <v>19.2</v>
-      </c>
-      <c r="Q630" t="n">
-        <v>19.8323333333333</v>
       </c>
       <c r="R630" t="n">
         <v>0.1375</v>
@@ -35732,10 +35732,10 @@
         <v>0.682333333333332</v>
       </c>
       <c r="P631" t="n">
+        <v>19.9823333333333</v>
+      </c>
+      <c r="Q631" t="n">
         <v>19.3</v>
-      </c>
-      <c r="Q631" t="n">
-        <v>19.9823333333333</v>
       </c>
       <c r="R631" t="n">
         <v>0.176</v>
@@ -35788,10 +35788,10 @@
         <v>0.600000000000001</v>
       </c>
       <c r="P632" t="n">
+        <v>19.9676666666667</v>
+      </c>
+      <c r="Q632" t="n">
         <v>19.3676666666667</v>
-      </c>
-      <c r="Q632" t="n">
-        <v>19.9676666666667</v>
       </c>
       <c r="R632" t="n">
         <v>0.15825</v>
@@ -35844,10 +35844,10 @@
         <v>0.600000000000001</v>
       </c>
       <c r="P633" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q633" t="n">
         <v>19.4</v>
-      </c>
-      <c r="Q633" t="n">
-        <v>20</v>
       </c>
       <c r="R633" t="n">
         <v>0.1405</v>
@@ -35900,10 +35900,10 @@
         <v>0.600000000000001</v>
       </c>
       <c r="P634" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q634" t="n">
         <v>19.4</v>
-      </c>
-      <c r="Q634" t="n">
-        <v>20</v>
       </c>
       <c r="R634" t="n">
         <v>0.12275</v>
@@ -35956,10 +35956,10 @@
         <v>0.600000000000001</v>
       </c>
       <c r="P635" t="n">
+        <v>20.0176666666667</v>
+      </c>
+      <c r="Q635" t="n">
         <v>19.4176666666667</v>
-      </c>
-      <c r="Q635" t="n">
-        <v>20.0176666666667</v>
       </c>
       <c r="R635" t="n">
         <v>0.105</v>
@@ -36012,10 +36012,10 @@
         <v>0.600000000000001</v>
       </c>
       <c r="P636" t="n">
+        <v>20.1</v>
+      </c>
+      <c r="Q636" t="n">
         <v>19.5</v>
-      </c>
-      <c r="Q636" t="n">
-        <v>20.1</v>
       </c>
       <c r="R636" t="n">
         <v>0.1</v>
@@ -36068,10 +36068,10 @@
         <v>0.517666666666667</v>
       </c>
       <c r="P637" t="n">
+        <v>20.1176666666667</v>
+      </c>
+      <c r="Q637" t="n">
         <v>19.6</v>
-      </c>
-      <c r="Q637" t="n">
-        <v>20.1176666666667</v>
       </c>
       <c r="R637" t="n">
         <v>0.095</v>
@@ -36124,10 +36124,10 @@
         <v>0.600000000000001</v>
       </c>
       <c r="P638" t="n">
+        <v>20.2676666666667</v>
+      </c>
+      <c r="Q638" t="n">
         <v>19.6676666666667</v>
-      </c>
-      <c r="Q638" t="n">
-        <v>20.2676666666667</v>
       </c>
       <c r="R638" t="n">
         <v>0.09</v>
@@ -36180,10 +36180,10 @@
         <v>0.482333333333333</v>
       </c>
       <c r="P639" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="Q639" t="n">
         <v>19.9176666666667</v>
-      </c>
-      <c r="Q639" t="n">
-        <v>20.4</v>
       </c>
       <c r="R639" t="n">
         <v>0.085</v>
@@ -36236,10 +36236,10 @@
         <v>0.399999999999999</v>
       </c>
       <c r="P640" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="Q640" t="n">
         <v>20</v>
-      </c>
-      <c r="Q640" t="n">
-        <v>20.4</v>
       </c>
       <c r="R640" t="n">
         <v>0.08825</v>
@@ -36292,10 +36292,10 @@
         <v>0.5</v>
       </c>
       <c r="P641" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="Q641" t="n">
         <v>20</v>
-      </c>
-      <c r="Q641" t="n">
-        <v>20.5</v>
       </c>
       <c r="R641" t="n">
         <v>0.0915</v>
@@ -36348,10 +36348,10 @@
         <v>0.567666666666668</v>
       </c>
       <c r="P642" t="n">
+        <v>20.5676666666667</v>
+      </c>
+      <c r="Q642" t="n">
         <v>20</v>
-      </c>
-      <c r="Q642" t="n">
-        <v>20.5676666666667</v>
       </c>
       <c r="R642" t="n">
         <v>0.09475</v>
@@ -36404,10 +36404,10 @@
         <v>0.600000000000001</v>
       </c>
       <c r="P643" t="n">
+        <v>20.6176666666667</v>
+      </c>
+      <c r="Q643" t="n">
         <v>20.0176666666667</v>
-      </c>
-      <c r="Q643" t="n">
-        <v>20.6176666666667</v>
       </c>
       <c r="R643" t="n">
         <v>0.098</v>
@@ -36460,10 +36460,10 @@
         <v>0.464666666666666</v>
       </c>
       <c r="P644" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="Q644" t="n">
         <v>20.2353333333333</v>
-      </c>
-      <c r="Q644" t="n">
-        <v>20.7</v>
       </c>
       <c r="R644" t="n">
         <v>0.11475</v>
@@ -36516,10 +36516,10 @@
         <v>0.382333333333332</v>
       </c>
       <c r="P645" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="Q645" t="n">
         <v>20.3176666666667</v>
-      </c>
-      <c r="Q645" t="n">
-        <v>20.7</v>
       </c>
       <c r="R645" t="n">
         <v>0.1315</v>
@@ -36572,10 +36572,10 @@
         <v>0.300000000000001</v>
       </c>
       <c r="P646" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="Q646" t="n">
         <v>20.4</v>
-      </c>
-      <c r="Q646" t="n">
-        <v>20.7</v>
       </c>
       <c r="R646" t="n">
         <v>0.14825</v>
@@ -36628,10 +36628,10 @@
         <v>0.317666666666668</v>
       </c>
       <c r="P647" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="Q647" t="n">
         <v>20.4823333333333</v>
-      </c>
-      <c r="Q647" t="n">
-        <v>20.8</v>
       </c>
       <c r="R647" t="n">
         <v>0.165</v>
